--- a/2021day24/alu2021day24.xlsx
+++ b/2021day24/alu2021day24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\feri\git\AdventOfCode\2021day24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D0F20D9-06D9-4C3F-BA30-F10724D7BB36}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E513C41-C81B-486C-9653-1146C26C46CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{56EE513B-A1A9-4F6D-A498-8BB4479BB114}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="40">
   <si>
     <t>w</t>
   </si>
@@ -89,6 +89,63 @@
   <si>
     <t>inp</t>
   </si>
+  <si>
+    <t>x = add(x, 11);</t>
+  </si>
+  <si>
+    <t>y = add(y, 8);</t>
+  </si>
+  <si>
+    <t>y = add(y, 7);</t>
+  </si>
+  <si>
+    <t>y = add(y, XX);</t>
+  </si>
+  <si>
+    <t>x = add(x, XX);</t>
+  </si>
+  <si>
+    <t>y = add(y, 4);</t>
+  </si>
+  <si>
+    <t>z = div(z, 26);</t>
+  </si>
+  <si>
+    <t>x = add(x, -11);</t>
+  </si>
+  <si>
+    <t>x = add(x, 12);</t>
+  </si>
+  <si>
+    <t>x = add(x, -1);</t>
+  </si>
+  <si>
+    <t>y = add(y, 10);</t>
+  </si>
+  <si>
+    <t>x = add(x, 10);</t>
+  </si>
+  <si>
+    <t>x = add(x, -3);</t>
+  </si>
+  <si>
+    <t>x = add(x, -4);</t>
+  </si>
+  <si>
+    <t>x = add(x, -13);</t>
+  </si>
+  <si>
+    <t>y = add(y, 15);</t>
+  </si>
+  <si>
+    <t>x = add(x, -8);</t>
+  </si>
+  <si>
+    <t>x = add(x, 13);</t>
+  </si>
+  <si>
+    <t>y = add(y, 9);</t>
+  </si>
 </sst>
 </file>
 
@@ -103,7 +160,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -113,6 +170,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -144,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -152,6 +227,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -466,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7033259C-CD9B-4E2A-BEA6-C711622595CA}">
-  <dimension ref="B4:AB23"/>
+  <dimension ref="B4:AI271"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AD269" sqref="AD269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,9 +559,13 @@
     <col min="20" max="20" width="1" customWidth="1"/>
     <col min="21" max="21" width="3.85546875" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="3.140625" customWidth="1"/>
+    <col min="30" max="30" width="5.85546875" customWidth="1"/>
+    <col min="33" max="33" width="16" customWidth="1"/>
+    <col min="35" max="35" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:35" x14ac:dyDescent="0.25">
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -503,7 +586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="4:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="4:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="U5" s="1"/>
       <c r="W5">
         <v>0</v>
@@ -518,7 +601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="4:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="U6" s="2">
         <v>9</v>
       </c>
@@ -531,18 +614,21 @@
         <v>0</v>
       </c>
       <c r="Y6">
-        <f t="shared" ref="Y6:Y23" si="1">Y5</f>
+        <f t="shared" ref="Y6:Y24" si="1">Y5</f>
         <v>0</v>
       </c>
       <c r="Z6">
-        <f t="shared" ref="Z6:Z23" si="2">Z5</f>
+        <f t="shared" ref="Z6:Z22" si="2">Z5</f>
         <v>0</v>
       </c>
       <c r="AB6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="AI6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="4:35" x14ac:dyDescent="0.25">
       <c r="U7" s="1"/>
       <c r="W7">
         <f t="shared" ref="W7:W23" si="3">W6</f>
@@ -563,8 +649,11 @@
       <c r="AB7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="AI7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="4:35" x14ac:dyDescent="0.25">
       <c r="U8" s="1"/>
       <c r="W8">
         <f t="shared" si="3"/>
@@ -585,8 +674,11 @@
       <c r="AB8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="AI8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="4:35" x14ac:dyDescent="0.25">
       <c r="U9" s="1"/>
       <c r="W9">
         <f t="shared" si="3"/>
@@ -607,15 +699,18 @@
       <c r="AB9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="AI9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="4:35" x14ac:dyDescent="0.25">
       <c r="U10" s="1"/>
       <c r="W10">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="X10">
-        <f t="shared" ref="X9:X23" si="4">X9</f>
+        <f t="shared" ref="X10:X24" si="4">X9</f>
         <v>0</v>
       </c>
       <c r="Y10">
@@ -623,21 +718,27 @@
         <v>0</v>
       </c>
       <c r="Z10">
-        <f>Z9/1</f>
-        <v>0</v>
-      </c>
-      <c r="AB10" t="s">
+        <f>Z9/AD10</f>
+        <v>0</v>
+      </c>
+      <c r="AB10" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="AD10" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="4:35" x14ac:dyDescent="0.25">
       <c r="U11" s="1"/>
       <c r="W11">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="X11">
-        <f>X10+14</f>
+        <f>X10+AD11</f>
         <v>14</v>
       </c>
       <c r="Y11">
@@ -648,11 +749,17 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AB11" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="AD11" s="4">
+        <v>14</v>
+      </c>
+      <c r="AI11" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="4:35" x14ac:dyDescent="0.25">
       <c r="U12" s="1"/>
       <c r="W12">
         <f t="shared" si="3"/>
@@ -673,8 +780,11 @@
       <c r="AB12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="AI12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="4:35" x14ac:dyDescent="0.25">
       <c r="U13" s="1"/>
       <c r="W13">
         <f t="shared" si="3"/>
@@ -695,8 +805,11 @@
       <c r="AB13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="AI13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="4:35" x14ac:dyDescent="0.25">
       <c r="U14" s="1"/>
       <c r="W14">
         <f t="shared" si="3"/>
@@ -717,8 +830,11 @@
       <c r="AB14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="AI14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="4:35" x14ac:dyDescent="0.25">
       <c r="U15" s="1"/>
       <c r="W15">
         <f t="shared" si="3"/>
@@ -739,8 +855,11 @@
       <c r="AB15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="AI15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="4:35" x14ac:dyDescent="0.25">
       <c r="U16" s="1"/>
       <c r="W16">
         <f t="shared" si="3"/>
@@ -761,8 +880,11 @@
       <c r="AB16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="21:28" x14ac:dyDescent="0.25">
+      <c r="AI16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="21:35" x14ac:dyDescent="0.25">
       <c r="U17" s="1"/>
       <c r="W17">
         <f t="shared" si="3"/>
@@ -783,8 +905,11 @@
       <c r="AB17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="21:28" x14ac:dyDescent="0.25">
+      <c r="AI17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="21:35" x14ac:dyDescent="0.25">
       <c r="U18" s="1"/>
       <c r="W18">
         <f t="shared" si="3"/>
@@ -805,8 +930,11 @@
       <c r="AB18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="21:28" x14ac:dyDescent="0.25">
+      <c r="AI18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="21:35" x14ac:dyDescent="0.25">
       <c r="U19" s="1"/>
       <c r="W19">
         <f t="shared" si="3"/>
@@ -827,8 +955,11 @@
       <c r="AB19" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="21:28" x14ac:dyDescent="0.25">
+      <c r="AI19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="21:35" x14ac:dyDescent="0.25">
       <c r="U20" s="1"/>
       <c r="W20">
         <f t="shared" si="3"/>
@@ -849,8 +980,11 @@
       <c r="AB20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="21:28" x14ac:dyDescent="0.25">
+      <c r="AI20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="21:35" x14ac:dyDescent="0.25">
       <c r="U21" s="1"/>
       <c r="W21">
         <f t="shared" si="3"/>
@@ -861,18 +995,24 @@
         <v>1</v>
       </c>
       <c r="Y21">
-        <f>Y20+12</f>
+        <f>Y20+AD21</f>
         <v>21</v>
       </c>
       <c r="Z21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB21" t="s">
+      <c r="AB21" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="21:28" x14ac:dyDescent="0.25">
+      <c r="AD21" s="4">
+        <v>12</v>
+      </c>
+      <c r="AI21" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="21:35" x14ac:dyDescent="0.25">
       <c r="U22" s="1"/>
       <c r="W22">
         <f t="shared" si="3"/>
@@ -893,8 +1033,11 @@
       <c r="AB22" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="23" spans="21:28" x14ac:dyDescent="0.25">
+      <c r="AI22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="21:35" x14ac:dyDescent="0.25">
       <c r="U23" s="1"/>
       <c r="W23">
         <f t="shared" si="3"/>
@@ -915,6 +1058,7449 @@
       <c r="AB23" t="s">
         <v>19</v>
       </c>
+      <c r="AI23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="21:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W24" s="3">
+        <f>W23</f>
+        <v>9</v>
+      </c>
+      <c r="X24" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Y24" s="3">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="Z24" s="3">
+        <f t="shared" ref="Z24" si="5">Z23</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="21:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U25" s="2">
+        <v>9</v>
+      </c>
+      <c r="W25">
+        <f>U25</f>
+        <v>9</v>
+      </c>
+      <c r="X25">
+        <f t="shared" ref="X25:X63" si="6">X24</f>
+        <v>1</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" ref="Y25:Y70" si="7">Y24</f>
+        <v>21</v>
+      </c>
+      <c r="Z25">
+        <f t="shared" ref="Z25:Z66" si="8">Z24</f>
+        <v>21</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W26">
+        <f t="shared" ref="W26:W62" si="9">W25</f>
+        <v>9</v>
+      </c>
+      <c r="X26">
+        <f>X25*0</f>
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="7"/>
+        <v>21</v>
+      </c>
+      <c r="Z26">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W27">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="X27">
+        <f>X26+Z26</f>
+        <v>21</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="7"/>
+        <v>21</v>
+      </c>
+      <c r="Z27">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W28">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="X28">
+        <f>MOD(X27,26)</f>
+        <v>21</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" si="7"/>
+        <v>21</v>
+      </c>
+      <c r="Z28">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="AB28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI28" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W29">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="7"/>
+        <v>21</v>
+      </c>
+      <c r="Z29">
+        <f>Z28/AD29</f>
+        <v>21</v>
+      </c>
+      <c r="AB29" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD29" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI29" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W30">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="X30">
+        <f>X29+AD30</f>
+        <v>32</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" si="7"/>
+        <v>21</v>
+      </c>
+      <c r="Z30">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="AB30" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD30" s="4">
+        <v>11</v>
+      </c>
+      <c r="AI30" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W31">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="X31">
+        <f>IF(X30=W30,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="7"/>
+        <v>21</v>
+      </c>
+      <c r="Z31">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W32">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="X32">
+        <f>IF(X31=0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y32">
+        <f t="shared" si="7"/>
+        <v>21</v>
+      </c>
+      <c r="Z32">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W33">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Y33">
+        <f>Y32*0</f>
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W34">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Y34">
+        <f>Y33+25</f>
+        <v>25</v>
+      </c>
+      <c r="Z34">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W35">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Y35">
+        <f>Y34*X34</f>
+        <v>25</v>
+      </c>
+      <c r="Z35">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W36">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Y36">
+        <f>Y35+1</f>
+        <v>26</v>
+      </c>
+      <c r="Z36">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W37">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Y37">
+        <f t="shared" si="7"/>
+        <v>26</v>
+      </c>
+      <c r="Z37">
+        <f>Z36*Y36</f>
+        <v>546</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W38">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="X38">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Y38">
+        <f>Y37*0</f>
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <f t="shared" si="8"/>
+        <v>546</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W39">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="X39">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Y39">
+        <f>Y38+W38</f>
+        <v>9</v>
+      </c>
+      <c r="Z39">
+        <f t="shared" si="8"/>
+        <v>546</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W40">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="X40">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Y40">
+        <f>Y39+AD40</f>
+        <v>17</v>
+      </c>
+      <c r="Z40">
+        <f t="shared" si="8"/>
+        <v>546</v>
+      </c>
+      <c r="AB40" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD40" s="4">
+        <v>8</v>
+      </c>
+      <c r="AI40" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W41">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="X41">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Y41">
+        <f>Y40*X40</f>
+        <v>17</v>
+      </c>
+      <c r="Z41">
+        <f t="shared" si="8"/>
+        <v>546</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W42">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="X42">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Y42">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="Z42">
+        <f>Z41+Y41</f>
+        <v>563</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI42" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="21:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W43" s="3">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="X43" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Y43" s="3">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="Z43" s="3">
+        <f t="shared" si="8"/>
+        <v>563</v>
+      </c>
+    </row>
+    <row r="44" spans="21:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U44" s="2">
+        <v>2</v>
+      </c>
+      <c r="W44">
+        <f>U44</f>
+        <v>2</v>
+      </c>
+      <c r="X44">
+        <f t="shared" ref="X44" si="10">X43</f>
+        <v>1</v>
+      </c>
+      <c r="Y44">
+        <f t="shared" ref="Y44:Y51" si="11">Y43</f>
+        <v>17</v>
+      </c>
+      <c r="Z44">
+        <f t="shared" ref="Z44:Z47" si="12">Z43</f>
+        <v>563</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE44">
+        <f>IF(AB44=AG44,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W45">
+        <f t="shared" ref="W45:W61" si="13">W44</f>
+        <v>2</v>
+      </c>
+      <c r="X45">
+        <f>X44*0</f>
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <f t="shared" si="11"/>
+        <v>17</v>
+      </c>
+      <c r="Z45">
+        <f t="shared" si="12"/>
+        <v>563</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE45">
+        <f t="shared" ref="AE45:AE61" si="14">IF(AB45=AG45,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W46">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="X46">
+        <f>X45+Z45</f>
+        <v>563</v>
+      </c>
+      <c r="Y46">
+        <f t="shared" si="11"/>
+        <v>17</v>
+      </c>
+      <c r="Z46">
+        <f t="shared" si="12"/>
+        <v>563</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE46">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W47">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="X47">
+        <f>MOD(X46,26)</f>
+        <v>17</v>
+      </c>
+      <c r="Y47">
+        <f t="shared" si="11"/>
+        <v>17</v>
+      </c>
+      <c r="Z47">
+        <f t="shared" si="12"/>
+        <v>563</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE47">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AG47" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W48">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="X48">
+        <f t="shared" ref="X48" si="15">X47</f>
+        <v>17</v>
+      </c>
+      <c r="Y48">
+        <f t="shared" si="11"/>
+        <v>17</v>
+      </c>
+      <c r="Z48">
+        <f>Z47/AD48</f>
+        <v>563</v>
+      </c>
+      <c r="AB48" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD48" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE48">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI48" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W49">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="X49">
+        <f>X48+AD49</f>
+        <v>28</v>
+      </c>
+      <c r="Y49">
+        <f t="shared" si="11"/>
+        <v>17</v>
+      </c>
+      <c r="Z49">
+        <f t="shared" ref="Z49:Z55" si="16">Z48</f>
+        <v>563</v>
+      </c>
+      <c r="AB49" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD49" s="4">
+        <v>11</v>
+      </c>
+      <c r="AG49" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI49" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W50">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="X50">
+        <f>IF(X49=W49,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y50">
+        <f t="shared" si="11"/>
+        <v>17</v>
+      </c>
+      <c r="Z50">
+        <f t="shared" si="16"/>
+        <v>563</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE50">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AG50" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI50" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W51">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="X51">
+        <f>IF(X50=0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y51">
+        <f t="shared" si="11"/>
+        <v>17</v>
+      </c>
+      <c r="Z51">
+        <f t="shared" si="16"/>
+        <v>563</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE51">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AG51" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI51" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W52">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="X52">
+        <f t="shared" ref="X52:X61" si="17">X51</f>
+        <v>1</v>
+      </c>
+      <c r="Y52">
+        <f>Y51*0</f>
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <f t="shared" si="16"/>
+        <v>563</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE52">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AG52" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI52" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W53">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="X53">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="Y53">
+        <f>Y52+25</f>
+        <v>25</v>
+      </c>
+      <c r="Z53">
+        <f t="shared" si="16"/>
+        <v>563</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE53">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AG53" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI53" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W54">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="X54">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="Y54">
+        <f>Y53*X53</f>
+        <v>25</v>
+      </c>
+      <c r="Z54">
+        <f t="shared" si="16"/>
+        <v>563</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE54">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AG54" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI54" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W55">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="X55">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="Y55">
+        <f>Y54+1</f>
+        <v>26</v>
+      </c>
+      <c r="Z55">
+        <f t="shared" si="16"/>
+        <v>563</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE55">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AG55" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI55" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W56">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="X56">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="Y56">
+        <f t="shared" ref="Y56" si="18">Y55</f>
+        <v>26</v>
+      </c>
+      <c r="Z56">
+        <f>Z55*Y55</f>
+        <v>14638</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE56">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AG56" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI56" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W57">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="X57">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="Y57">
+        <f>Y56*0</f>
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <f t="shared" ref="Z57:Z60" si="19">Z56</f>
+        <v>14638</v>
+      </c>
+      <c r="AB57" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE57">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AG57" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI57" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W58">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="X58">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="Y58">
+        <f>Y57+W57</f>
+        <v>2</v>
+      </c>
+      <c r="Z58">
+        <f t="shared" si="19"/>
+        <v>14638</v>
+      </c>
+      <c r="AB58" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE58">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AG58" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI58" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W59">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="X59">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="Y59">
+        <f>Y58+AD59</f>
+        <v>9</v>
+      </c>
+      <c r="Z59">
+        <f t="shared" si="19"/>
+        <v>14638</v>
+      </c>
+      <c r="AB59" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD59" s="4">
+        <v>7</v>
+      </c>
+      <c r="AG59" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI59" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W60">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="X60">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="Y60">
+        <f>Y59*X59</f>
+        <v>9</v>
+      </c>
+      <c r="Z60">
+        <f t="shared" si="19"/>
+        <v>14638</v>
+      </c>
+      <c r="AB60" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE60">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AG60" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI60" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W61">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="X61">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="Y61">
+        <f t="shared" ref="Y61" si="20">Y60</f>
+        <v>9</v>
+      </c>
+      <c r="Z61">
+        <f>Z60+Y60</f>
+        <v>14647</v>
+      </c>
+      <c r="AB61" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE61">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AG61" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI61" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="21:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W62" s="3">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="X62" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Y62" s="3">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="Z62" s="3">
+        <f t="shared" si="8"/>
+        <v>14647</v>
+      </c>
+    </row>
+    <row r="63" spans="21:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U63" s="2">
+        <v>2</v>
+      </c>
+      <c r="W63">
+        <f>U63</f>
+        <v>2</v>
+      </c>
+      <c r="X63">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Y63">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="Z63">
+        <f t="shared" si="8"/>
+        <v>14647</v>
+      </c>
+      <c r="AB63" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE63">
+        <f>IF(AB63=AG63,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AG63" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI63" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W64">
+        <f t="shared" ref="W64:W81" si="21">W63</f>
+        <v>2</v>
+      </c>
+      <c r="X64">
+        <f>X63*0</f>
+        <v>0</v>
+      </c>
+      <c r="Y64">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="Z64">
+        <f t="shared" si="8"/>
+        <v>14647</v>
+      </c>
+      <c r="AB64" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE64">
+        <f t="shared" ref="AE64:AE67" si="22">IF(AB64=AG64,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AG64" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="23:35" x14ac:dyDescent="0.25">
+      <c r="W65">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="X65">
+        <f>X64+Z64</f>
+        <v>14647</v>
+      </c>
+      <c r="Y65">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="Z65">
+        <f t="shared" si="8"/>
+        <v>14647</v>
+      </c>
+      <c r="AB65" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE65">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AG65" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI65" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="23:35" x14ac:dyDescent="0.25">
+      <c r="W66">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="X66">
+        <f>MOD(X65,26)</f>
+        <v>9</v>
+      </c>
+      <c r="Y66">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="Z66">
+        <f t="shared" si="8"/>
+        <v>14647</v>
+      </c>
+      <c r="AB66" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE66">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AG66" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI66" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="23:35" x14ac:dyDescent="0.25">
+      <c r="W67">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="X67">
+        <f t="shared" ref="X67" si="23">X66</f>
+        <v>9</v>
+      </c>
+      <c r="Y67">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="Z67">
+        <f>Z66/AD67</f>
+        <v>14647</v>
+      </c>
+      <c r="AB67" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD67" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE67">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AG67" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI67" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="23:35" x14ac:dyDescent="0.25">
+      <c r="W68">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="X68">
+        <f>X67+AD68</f>
+        <v>23</v>
+      </c>
+      <c r="Y68">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="Z68">
+        <f t="shared" ref="Z68:Z74" si="24">Z67</f>
+        <v>14647</v>
+      </c>
+      <c r="AB68" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD68" s="4">
+        <v>14</v>
+      </c>
+      <c r="AG68" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI68" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="23:35" x14ac:dyDescent="0.25">
+      <c r="W69">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="X69">
+        <f>IF(X68=W68,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y69">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="Z69">
+        <f t="shared" si="24"/>
+        <v>14647</v>
+      </c>
+      <c r="AB69" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE69">
+        <f t="shared" ref="AE69:AE77" si="25">IF(AB69=AG69,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AG69" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI69" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="23:35" x14ac:dyDescent="0.25">
+      <c r="W70">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="X70">
+        <f>IF(X69=0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y70">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="Z70">
+        <f t="shared" si="24"/>
+        <v>14647</v>
+      </c>
+      <c r="AB70" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE70">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AG70" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI70" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="23:35" x14ac:dyDescent="0.25">
+      <c r="W71">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="X71">
+        <f t="shared" ref="X71:X82" si="26">X70</f>
+        <v>1</v>
+      </c>
+      <c r="Y71">
+        <f>Y70*0</f>
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <f t="shared" si="24"/>
+        <v>14647</v>
+      </c>
+      <c r="AB71" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE71">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AG71" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI71" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="23:35" x14ac:dyDescent="0.25">
+      <c r="W72">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="X72">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="Y72">
+        <f>Y71+25</f>
+        <v>25</v>
+      </c>
+      <c r="Z72">
+        <f t="shared" si="24"/>
+        <v>14647</v>
+      </c>
+      <c r="AB72" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE72">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AG72" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI72" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="23:35" x14ac:dyDescent="0.25">
+      <c r="W73">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="X73">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="Y73">
+        <f>Y72*X72</f>
+        <v>25</v>
+      </c>
+      <c r="Z73">
+        <f t="shared" si="24"/>
+        <v>14647</v>
+      </c>
+      <c r="AB73" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE73">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AG73" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI73" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="23:35" x14ac:dyDescent="0.25">
+      <c r="W74">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="X74">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="Y74">
+        <f>Y73+1</f>
+        <v>26</v>
+      </c>
+      <c r="Z74">
+        <f t="shared" si="24"/>
+        <v>14647</v>
+      </c>
+      <c r="AB74" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE74">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AG74" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI74" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="23:35" x14ac:dyDescent="0.25">
+      <c r="W75">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="X75">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="Y75">
+        <f t="shared" ref="Y75" si="27">Y74</f>
+        <v>26</v>
+      </c>
+      <c r="Z75">
+        <f>Z74*Y74</f>
+        <v>380822</v>
+      </c>
+      <c r="AB75" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE75">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AG75" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI75" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="23:35" x14ac:dyDescent="0.25">
+      <c r="W76">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="X76">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="Y76">
+        <f>Y75*0</f>
+        <v>0</v>
+      </c>
+      <c r="Z76">
+        <f t="shared" ref="Z76:Z79" si="28">Z75</f>
+        <v>380822</v>
+      </c>
+      <c r="AB76" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE76">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AG76" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI76" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="23:35" x14ac:dyDescent="0.25">
+      <c r="W77">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="X77">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="Y77">
+        <f>Y76+W76</f>
+        <v>2</v>
+      </c>
+      <c r="Z77">
+        <f t="shared" si="28"/>
+        <v>380822</v>
+      </c>
+      <c r="AB77" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE77">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AG77" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI77" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="23:35" x14ac:dyDescent="0.25">
+      <c r="W78">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="X78">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="Y78">
+        <f>Y77+AD78</f>
+        <v>6</v>
+      </c>
+      <c r="Z78">
+        <f t="shared" si="28"/>
+        <v>380822</v>
+      </c>
+      <c r="AB78" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD78" s="4">
+        <v>4</v>
+      </c>
+      <c r="AG78" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI78" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="79" spans="23:35" x14ac:dyDescent="0.25">
+      <c r="W79">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="X79">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="Y79">
+        <f>Y78*X78</f>
+        <v>6</v>
+      </c>
+      <c r="Z79">
+        <f t="shared" si="28"/>
+        <v>380822</v>
+      </c>
+      <c r="AB79" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE79">
+        <f t="shared" ref="AE79:AE86" si="29">IF(AB79=AG79,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AG79" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI79" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="23:35" x14ac:dyDescent="0.25">
+      <c r="W80">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="X80">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="Y80">
+        <f t="shared" ref="Y80:Y89" si="30">Y79</f>
+        <v>6</v>
+      </c>
+      <c r="Z80">
+        <f>Z79+Y79</f>
+        <v>380828</v>
+      </c>
+      <c r="AB80" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE80">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="AG80" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI80" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="81" spans="21:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W81" s="3">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="X81" s="3">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="Y81" s="3">
+        <f t="shared" si="30"/>
+        <v>6</v>
+      </c>
+      <c r="Z81" s="3">
+        <f t="shared" ref="Z81:Z85" si="31">Z80</f>
+        <v>380828</v>
+      </c>
+    </row>
+    <row r="82" spans="21:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U82" s="2">
+        <v>2</v>
+      </c>
+      <c r="W82">
+        <f>U82</f>
+        <v>2</v>
+      </c>
+      <c r="X82">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="Y82">
+        <f t="shared" si="30"/>
+        <v>6</v>
+      </c>
+      <c r="Z82">
+        <f t="shared" si="31"/>
+        <v>380828</v>
+      </c>
+      <c r="AB82" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE82">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="AG82" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI82" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W83">
+        <f t="shared" ref="W83:W100" si="32">W82</f>
+        <v>2</v>
+      </c>
+      <c r="X83">
+        <f>X82*0</f>
+        <v>0</v>
+      </c>
+      <c r="Y83">
+        <f t="shared" si="30"/>
+        <v>6</v>
+      </c>
+      <c r="Z83">
+        <f t="shared" si="31"/>
+        <v>380828</v>
+      </c>
+      <c r="AB83" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE83">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="AG83" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI83" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W84">
+        <f t="shared" si="32"/>
+        <v>2</v>
+      </c>
+      <c r="X84">
+        <f>X83+Z83</f>
+        <v>380828</v>
+      </c>
+      <c r="Y84">
+        <f t="shared" si="30"/>
+        <v>6</v>
+      </c>
+      <c r="Z84">
+        <f t="shared" si="31"/>
+        <v>380828</v>
+      </c>
+      <c r="AB84" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE84">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="AG84" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI84" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W85">
+        <f t="shared" si="32"/>
+        <v>2</v>
+      </c>
+      <c r="X85">
+        <f>MOD(X84,26)</f>
+        <v>6</v>
+      </c>
+      <c r="Y85">
+        <f t="shared" si="30"/>
+        <v>6</v>
+      </c>
+      <c r="Z85">
+        <f t="shared" si="31"/>
+        <v>380828</v>
+      </c>
+      <c r="AB85" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE85">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="AG85" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI85" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W86">
+        <f t="shared" si="32"/>
+        <v>2</v>
+      </c>
+      <c r="X86">
+        <f t="shared" ref="X86" si="33">X85</f>
+        <v>6</v>
+      </c>
+      <c r="Y86">
+        <f t="shared" si="30"/>
+        <v>6</v>
+      </c>
+      <c r="Z86">
+        <f>Z85/AD86</f>
+        <v>14647.23076923077</v>
+      </c>
+      <c r="AB86" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD86" s="4">
+        <v>26</v>
+      </c>
+      <c r="AE86">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AG86" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI86" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="87" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W87">
+        <f t="shared" si="32"/>
+        <v>2</v>
+      </c>
+      <c r="X87">
+        <f>X86+AD87</f>
+        <v>-5</v>
+      </c>
+      <c r="Y87">
+        <f t="shared" si="30"/>
+        <v>6</v>
+      </c>
+      <c r="Z87">
+        <f t="shared" ref="Z87:Z93" si="34">Z86</f>
+        <v>14647.23076923077</v>
+      </c>
+      <c r="AB87" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD87" s="4">
+        <v>-11</v>
+      </c>
+      <c r="AG87" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI87" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="88" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W88">
+        <f t="shared" si="32"/>
+        <v>2</v>
+      </c>
+      <c r="X88">
+        <f>IF(X87=W87,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y88">
+        <f t="shared" si="30"/>
+        <v>6</v>
+      </c>
+      <c r="Z88">
+        <f t="shared" si="34"/>
+        <v>14647.23076923077</v>
+      </c>
+      <c r="AB88" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE88">
+        <f t="shared" ref="AE88:AE96" si="35">IF(AB88=AG88,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AG88" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI88" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W89">
+        <f t="shared" si="32"/>
+        <v>2</v>
+      </c>
+      <c r="X89">
+        <f>IF(X88=0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y89">
+        <f t="shared" si="30"/>
+        <v>6</v>
+      </c>
+      <c r="Z89">
+        <f t="shared" si="34"/>
+        <v>14647.23076923077</v>
+      </c>
+      <c r="AB89" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE89">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="AG89" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W90">
+        <f t="shared" si="32"/>
+        <v>2</v>
+      </c>
+      <c r="X90">
+        <f t="shared" ref="X90:X101" si="36">X89</f>
+        <v>1</v>
+      </c>
+      <c r="Y90">
+        <f>Y89*0</f>
+        <v>0</v>
+      </c>
+      <c r="Z90">
+        <f t="shared" si="34"/>
+        <v>14647.23076923077</v>
+      </c>
+      <c r="AB90" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE90">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="AG90" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI90" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W91">
+        <f t="shared" si="32"/>
+        <v>2</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="Y91">
+        <f>Y90+25</f>
+        <v>25</v>
+      </c>
+      <c r="Z91">
+        <f t="shared" si="34"/>
+        <v>14647.23076923077</v>
+      </c>
+      <c r="AB91" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE91">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="AG91" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI91" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W92">
+        <f t="shared" si="32"/>
+        <v>2</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="Y92">
+        <f>Y91*X91</f>
+        <v>25</v>
+      </c>
+      <c r="Z92">
+        <f t="shared" si="34"/>
+        <v>14647.23076923077</v>
+      </c>
+      <c r="AB92" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE92">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="AG92" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI92" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W93">
+        <f t="shared" si="32"/>
+        <v>2</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="Y93">
+        <f>Y92+1</f>
+        <v>26</v>
+      </c>
+      <c r="Z93">
+        <f t="shared" si="34"/>
+        <v>14647.23076923077</v>
+      </c>
+      <c r="AB93" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE93">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="AG93" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI93" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W94">
+        <f t="shared" si="32"/>
+        <v>2</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="Y94">
+        <f t="shared" ref="Y94" si="37">Y93</f>
+        <v>26</v>
+      </c>
+      <c r="Z94">
+        <f>Z93*Y93</f>
+        <v>380828</v>
+      </c>
+      <c r="AB94" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE94">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="AG94" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI94" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W95">
+        <f t="shared" si="32"/>
+        <v>2</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="Y95">
+        <f>Y94*0</f>
+        <v>0</v>
+      </c>
+      <c r="Z95">
+        <f t="shared" ref="Z95:Z98" si="38">Z94</f>
+        <v>380828</v>
+      </c>
+      <c r="AB95" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE95">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="AG95" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI95" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W96">
+        <f t="shared" si="32"/>
+        <v>2</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="Y96">
+        <f>Y95+W95</f>
+        <v>2</v>
+      </c>
+      <c r="Z96">
+        <f t="shared" si="38"/>
+        <v>380828</v>
+      </c>
+      <c r="AB96" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE96">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="AG96" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI96" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W97">
+        <f t="shared" si="32"/>
+        <v>2</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="Y97">
+        <f>Y96+AD97</f>
+        <v>6</v>
+      </c>
+      <c r="Z97">
+        <f t="shared" si="38"/>
+        <v>380828</v>
+      </c>
+      <c r="AB97" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD97" s="4">
+        <v>4</v>
+      </c>
+      <c r="AG97" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI97" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="98" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W98">
+        <f t="shared" si="32"/>
+        <v>2</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="Y98">
+        <f>Y97*X97</f>
+        <v>6</v>
+      </c>
+      <c r="Z98">
+        <f t="shared" si="38"/>
+        <v>380828</v>
+      </c>
+      <c r="AB98" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE98">
+        <f t="shared" ref="AE98:AE105" si="39">IF(AB98=AG98,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AG98" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI98" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W99">
+        <f t="shared" si="32"/>
+        <v>2</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="Y99">
+        <f t="shared" ref="Y99:Y108" si="40">Y98</f>
+        <v>6</v>
+      </c>
+      <c r="Z99">
+        <f>Z98+Y98</f>
+        <v>380834</v>
+      </c>
+      <c r="AB99" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE99">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="AG99" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI99" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="100" spans="21:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W100" s="3">
+        <f t="shared" si="32"/>
+        <v>2</v>
+      </c>
+      <c r="X100" s="3">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="Y100" s="3">
+        <f t="shared" si="40"/>
+        <v>6</v>
+      </c>
+      <c r="Z100" s="3">
+        <f t="shared" ref="Z100:Z104" si="41">Z99</f>
+        <v>380834</v>
+      </c>
+    </row>
+    <row r="101" spans="21:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U101" s="2">
+        <v>2</v>
+      </c>
+      <c r="W101">
+        <f>U101</f>
+        <v>2</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="Y101">
+        <f t="shared" si="40"/>
+        <v>6</v>
+      </c>
+      <c r="Z101">
+        <f t="shared" si="41"/>
+        <v>380834</v>
+      </c>
+      <c r="AB101" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE101">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="AG101" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI101" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W102">
+        <f t="shared" ref="W102:W119" si="42">W101</f>
+        <v>2</v>
+      </c>
+      <c r="X102">
+        <f>X101*0</f>
+        <v>0</v>
+      </c>
+      <c r="Y102">
+        <f t="shared" si="40"/>
+        <v>6</v>
+      </c>
+      <c r="Z102">
+        <f t="shared" si="41"/>
+        <v>380834</v>
+      </c>
+      <c r="AB102" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE102">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="AG102" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI102" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W103">
+        <f t="shared" si="42"/>
+        <v>2</v>
+      </c>
+      <c r="X103">
+        <f>X102+Z102</f>
+        <v>380834</v>
+      </c>
+      <c r="Y103">
+        <f t="shared" si="40"/>
+        <v>6</v>
+      </c>
+      <c r="Z103">
+        <f t="shared" si="41"/>
+        <v>380834</v>
+      </c>
+      <c r="AB103" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE103">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="AG103" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI103" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W104">
+        <f t="shared" si="42"/>
+        <v>2</v>
+      </c>
+      <c r="X104">
+        <f>MOD(X103,26)</f>
+        <v>12</v>
+      </c>
+      <c r="Y104">
+        <f t="shared" si="40"/>
+        <v>6</v>
+      </c>
+      <c r="Z104">
+        <f t="shared" si="41"/>
+        <v>380834</v>
+      </c>
+      <c r="AB104" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE104">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="AG104" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI104" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W105">
+        <f t="shared" si="42"/>
+        <v>2</v>
+      </c>
+      <c r="X105">
+        <f t="shared" ref="X105" si="43">X104</f>
+        <v>12</v>
+      </c>
+      <c r="Y105">
+        <f t="shared" si="40"/>
+        <v>6</v>
+      </c>
+      <c r="Z105">
+        <f>Z104/AD105</f>
+        <v>380834</v>
+      </c>
+      <c r="AB105" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD105" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE105">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="AG105" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W106">
+        <f t="shared" si="42"/>
+        <v>2</v>
+      </c>
+      <c r="X106">
+        <f>X105+AD106</f>
+        <v>24</v>
+      </c>
+      <c r="Y106">
+        <f t="shared" si="40"/>
+        <v>6</v>
+      </c>
+      <c r="Z106">
+        <f t="shared" ref="Z106:Z112" si="44">Z105</f>
+        <v>380834</v>
+      </c>
+      <c r="AB106" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD106" s="4">
+        <v>12</v>
+      </c>
+      <c r="AG106" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI106" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="107" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W107">
+        <f t="shared" si="42"/>
+        <v>2</v>
+      </c>
+      <c r="X107">
+        <f>IF(X106=W106,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y107">
+        <f t="shared" si="40"/>
+        <v>6</v>
+      </c>
+      <c r="Z107">
+        <f t="shared" si="44"/>
+        <v>380834</v>
+      </c>
+      <c r="AB107" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE107">
+        <f t="shared" ref="AE107:AE115" si="45">IF(AB107=AG107,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AG107" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI107" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W108">
+        <f t="shared" si="42"/>
+        <v>2</v>
+      </c>
+      <c r="X108">
+        <f>IF(X107=0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y108">
+        <f t="shared" si="40"/>
+        <v>6</v>
+      </c>
+      <c r="Z108">
+        <f t="shared" si="44"/>
+        <v>380834</v>
+      </c>
+      <c r="AB108" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE108">
+        <f t="shared" si="45"/>
+        <v>1</v>
+      </c>
+      <c r="AG108" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI108" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W109">
+        <f t="shared" si="42"/>
+        <v>2</v>
+      </c>
+      <c r="X109">
+        <f t="shared" ref="X109:X120" si="46">X108</f>
+        <v>1</v>
+      </c>
+      <c r="Y109">
+        <f>Y108*0</f>
+        <v>0</v>
+      </c>
+      <c r="Z109">
+        <f t="shared" si="44"/>
+        <v>380834</v>
+      </c>
+      <c r="AB109" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE109">
+        <f t="shared" si="45"/>
+        <v>1</v>
+      </c>
+      <c r="AG109" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI109" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W110">
+        <f t="shared" si="42"/>
+        <v>2</v>
+      </c>
+      <c r="X110">
+        <f t="shared" si="46"/>
+        <v>1</v>
+      </c>
+      <c r="Y110">
+        <f>Y109+25</f>
+        <v>25</v>
+      </c>
+      <c r="Z110">
+        <f t="shared" si="44"/>
+        <v>380834</v>
+      </c>
+      <c r="AB110" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE110">
+        <f t="shared" si="45"/>
+        <v>1</v>
+      </c>
+      <c r="AG110" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI110" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W111">
+        <f t="shared" si="42"/>
+        <v>2</v>
+      </c>
+      <c r="X111">
+        <f t="shared" si="46"/>
+        <v>1</v>
+      </c>
+      <c r="Y111">
+        <f>Y110*X110</f>
+        <v>25</v>
+      </c>
+      <c r="Z111">
+        <f t="shared" si="44"/>
+        <v>380834</v>
+      </c>
+      <c r="AB111" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE111">
+        <f t="shared" si="45"/>
+        <v>1</v>
+      </c>
+      <c r="AG111" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI111" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W112">
+        <f t="shared" si="42"/>
+        <v>2</v>
+      </c>
+      <c r="X112">
+        <f t="shared" si="46"/>
+        <v>1</v>
+      </c>
+      <c r="Y112">
+        <f>Y111+1</f>
+        <v>26</v>
+      </c>
+      <c r="Z112">
+        <f t="shared" si="44"/>
+        <v>380834</v>
+      </c>
+      <c r="AB112" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE112">
+        <f t="shared" si="45"/>
+        <v>1</v>
+      </c>
+      <c r="AG112" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI112" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W113">
+        <f t="shared" si="42"/>
+        <v>2</v>
+      </c>
+      <c r="X113">
+        <f t="shared" si="46"/>
+        <v>1</v>
+      </c>
+      <c r="Y113">
+        <f t="shared" ref="Y113" si="47">Y112</f>
+        <v>26</v>
+      </c>
+      <c r="Z113">
+        <f>Z112*Y112</f>
+        <v>9901684</v>
+      </c>
+      <c r="AB113" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE113">
+        <f t="shared" si="45"/>
+        <v>1</v>
+      </c>
+      <c r="AG113" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI113" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W114">
+        <f t="shared" si="42"/>
+        <v>2</v>
+      </c>
+      <c r="X114">
+        <f t="shared" si="46"/>
+        <v>1</v>
+      </c>
+      <c r="Y114">
+        <f>Y113*0</f>
+        <v>0</v>
+      </c>
+      <c r="Z114">
+        <f t="shared" ref="Z114:Z117" si="48">Z113</f>
+        <v>9901684</v>
+      </c>
+      <c r="AB114" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE114">
+        <f t="shared" si="45"/>
+        <v>1</v>
+      </c>
+      <c r="AG114" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI114" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W115">
+        <f t="shared" si="42"/>
+        <v>2</v>
+      </c>
+      <c r="X115">
+        <f t="shared" si="46"/>
+        <v>1</v>
+      </c>
+      <c r="Y115">
+        <f>Y114+W114</f>
+        <v>2</v>
+      </c>
+      <c r="Z115">
+        <f t="shared" si="48"/>
+        <v>9901684</v>
+      </c>
+      <c r="AB115" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE115">
+        <f t="shared" si="45"/>
+        <v>1</v>
+      </c>
+      <c r="AG115" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI115" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="116" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W116">
+        <f t="shared" si="42"/>
+        <v>2</v>
+      </c>
+      <c r="X116">
+        <f t="shared" si="46"/>
+        <v>1</v>
+      </c>
+      <c r="Y116">
+        <f>Y115+AD116</f>
+        <v>3</v>
+      </c>
+      <c r="Z116">
+        <f t="shared" si="48"/>
+        <v>9901684</v>
+      </c>
+      <c r="AB116" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD116" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG116" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI116" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W117">
+        <f t="shared" si="42"/>
+        <v>2</v>
+      </c>
+      <c r="X117">
+        <f t="shared" si="46"/>
+        <v>1</v>
+      </c>
+      <c r="Y117">
+        <f>Y116*X116</f>
+        <v>3</v>
+      </c>
+      <c r="Z117">
+        <f t="shared" si="48"/>
+        <v>9901684</v>
+      </c>
+      <c r="AB117" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE117">
+        <f t="shared" ref="AE117:AE124" si="49">IF(AB117=AG117,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AG117" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI117" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="118" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W118">
+        <f t="shared" si="42"/>
+        <v>2</v>
+      </c>
+      <c r="X118">
+        <f t="shared" si="46"/>
+        <v>1</v>
+      </c>
+      <c r="Y118">
+        <f t="shared" ref="Y118:Y127" si="50">Y117</f>
+        <v>3</v>
+      </c>
+      <c r="Z118">
+        <f>Z117+Y117</f>
+        <v>9901687</v>
+      </c>
+      <c r="AB118" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE118">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="AG118" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI118" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="119" spans="21:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W119" s="3">
+        <f t="shared" si="42"/>
+        <v>2</v>
+      </c>
+      <c r="X119" s="3">
+        <f t="shared" si="46"/>
+        <v>1</v>
+      </c>
+      <c r="Y119" s="3">
+        <f t="shared" si="50"/>
+        <v>3</v>
+      </c>
+      <c r="Z119" s="3">
+        <f t="shared" ref="Z119:Z123" si="51">Z118</f>
+        <v>9901687</v>
+      </c>
+    </row>
+    <row r="120" spans="21:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U120" s="2">
+        <v>2</v>
+      </c>
+      <c r="W120">
+        <f>U120</f>
+        <v>2</v>
+      </c>
+      <c r="X120">
+        <f t="shared" si="46"/>
+        <v>1</v>
+      </c>
+      <c r="Y120">
+        <f t="shared" si="50"/>
+        <v>3</v>
+      </c>
+      <c r="Z120">
+        <f t="shared" si="51"/>
+        <v>9901687</v>
+      </c>
+      <c r="AB120" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE120">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="AG120" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI120" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W121">
+        <f t="shared" ref="W121:W138" si="52">W120</f>
+        <v>2</v>
+      </c>
+      <c r="X121">
+        <f>X120*0</f>
+        <v>0</v>
+      </c>
+      <c r="Y121">
+        <f t="shared" si="50"/>
+        <v>3</v>
+      </c>
+      <c r="Z121">
+        <f t="shared" si="51"/>
+        <v>9901687</v>
+      </c>
+      <c r="AB121" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE121">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="AG121" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI121" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W122">
+        <f t="shared" si="52"/>
+        <v>2</v>
+      </c>
+      <c r="X122">
+        <f>X121+Z121</f>
+        <v>9901687</v>
+      </c>
+      <c r="Y122">
+        <f t="shared" si="50"/>
+        <v>3</v>
+      </c>
+      <c r="Z122">
+        <f t="shared" si="51"/>
+        <v>9901687</v>
+      </c>
+      <c r="AB122" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE122">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="AG122" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI122" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W123">
+        <f t="shared" si="52"/>
+        <v>2</v>
+      </c>
+      <c r="X123">
+        <f>MOD(X122,26)</f>
+        <v>3</v>
+      </c>
+      <c r="Y123">
+        <f t="shared" si="50"/>
+        <v>3</v>
+      </c>
+      <c r="Z123">
+        <f t="shared" si="51"/>
+        <v>9901687</v>
+      </c>
+      <c r="AB123" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE123">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="AG123" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI123" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W124">
+        <f t="shared" si="52"/>
+        <v>2</v>
+      </c>
+      <c r="X124">
+        <f t="shared" ref="X124" si="53">X123</f>
+        <v>3</v>
+      </c>
+      <c r="Y124">
+        <f t="shared" si="50"/>
+        <v>3</v>
+      </c>
+      <c r="Z124">
+        <f>Z123/AD124</f>
+        <v>380834.11538461538</v>
+      </c>
+      <c r="AB124" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD124" s="4">
+        <v>26</v>
+      </c>
+      <c r="AE124">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="AG124" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI124" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="125" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W125">
+        <f t="shared" si="52"/>
+        <v>2</v>
+      </c>
+      <c r="X125">
+        <f>X124+AD125</f>
+        <v>2</v>
+      </c>
+      <c r="Y125">
+        <f t="shared" si="50"/>
+        <v>3</v>
+      </c>
+      <c r="Z125">
+        <f t="shared" ref="Z125:Z131" si="54">Z124</f>
+        <v>380834.11538461538</v>
+      </c>
+      <c r="AB125" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD125" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AG125" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI125" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="126" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W126">
+        <f t="shared" si="52"/>
+        <v>2</v>
+      </c>
+      <c r="X126">
+        <f>IF(X125=W125,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y126">
+        <f t="shared" si="50"/>
+        <v>3</v>
+      </c>
+      <c r="Z126">
+        <f t="shared" si="54"/>
+        <v>380834.11538461538</v>
+      </c>
+      <c r="AB126" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE126">
+        <f t="shared" ref="AE126:AE134" si="55">IF(AB126=AG126,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AG126" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI126" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W127">
+        <f t="shared" si="52"/>
+        <v>2</v>
+      </c>
+      <c r="X127">
+        <f>IF(X126=0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y127">
+        <f t="shared" si="50"/>
+        <v>3</v>
+      </c>
+      <c r="Z127">
+        <f t="shared" si="54"/>
+        <v>380834.11538461538</v>
+      </c>
+      <c r="AB127" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE127">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="AG127" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI127" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="128" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W128">
+        <f t="shared" si="52"/>
+        <v>2</v>
+      </c>
+      <c r="X128">
+        <f t="shared" ref="X128:X139" si="56">X127</f>
+        <v>0</v>
+      </c>
+      <c r="Y128">
+        <f>Y127*0</f>
+        <v>0</v>
+      </c>
+      <c r="Z128">
+        <f t="shared" si="54"/>
+        <v>380834.11538461538</v>
+      </c>
+      <c r="AB128" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE128">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="AG128" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI128" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W129">
+        <f t="shared" si="52"/>
+        <v>2</v>
+      </c>
+      <c r="X129">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="Y129">
+        <f>Y128+25</f>
+        <v>25</v>
+      </c>
+      <c r="Z129">
+        <f t="shared" si="54"/>
+        <v>380834.11538461538</v>
+      </c>
+      <c r="AB129" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE129">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="AG129" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI129" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="130" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W130">
+        <f t="shared" si="52"/>
+        <v>2</v>
+      </c>
+      <c r="X130">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="Y130">
+        <f>Y129*X129</f>
+        <v>0</v>
+      </c>
+      <c r="Z130">
+        <f t="shared" si="54"/>
+        <v>380834.11538461538</v>
+      </c>
+      <c r="AB130" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE130">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="AG130" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI130" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="131" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W131">
+        <f t="shared" si="52"/>
+        <v>2</v>
+      </c>
+      <c r="X131">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="Y131">
+        <f>Y130+1</f>
+        <v>1</v>
+      </c>
+      <c r="Z131">
+        <f t="shared" si="54"/>
+        <v>380834.11538461538</v>
+      </c>
+      <c r="AB131" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE131">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="AG131" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI131" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="132" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W132">
+        <f t="shared" si="52"/>
+        <v>2</v>
+      </c>
+      <c r="X132">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="Y132">
+        <f t="shared" ref="Y132" si="57">Y131</f>
+        <v>1</v>
+      </c>
+      <c r="Z132">
+        <f>Z131*Y131</f>
+        <v>380834.11538461538</v>
+      </c>
+      <c r="AB132" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE132">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="AG132" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI132" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="133" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W133">
+        <f t="shared" si="52"/>
+        <v>2</v>
+      </c>
+      <c r="X133">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="Y133">
+        <f>Y132*0</f>
+        <v>0</v>
+      </c>
+      <c r="Z133">
+        <f t="shared" ref="Z133:Z136" si="58">Z132</f>
+        <v>380834.11538461538</v>
+      </c>
+      <c r="AB133" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE133">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="AG133" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI133" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W134">
+        <f t="shared" si="52"/>
+        <v>2</v>
+      </c>
+      <c r="X134">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="Y134">
+        <f>Y133+W133</f>
+        <v>2</v>
+      </c>
+      <c r="Z134">
+        <f t="shared" si="58"/>
+        <v>380834.11538461538</v>
+      </c>
+      <c r="AB134" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE134">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="AG134" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI134" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="135" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W135">
+        <f t="shared" si="52"/>
+        <v>2</v>
+      </c>
+      <c r="X135">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="Y135">
+        <f>Y134+AD135</f>
+        <v>12</v>
+      </c>
+      <c r="Z135">
+        <f t="shared" si="58"/>
+        <v>380834.11538461538</v>
+      </c>
+      <c r="AB135" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD135" s="4">
+        <v>10</v>
+      </c>
+      <c r="AG135" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI135" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="136" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W136">
+        <f t="shared" si="52"/>
+        <v>2</v>
+      </c>
+      <c r="X136">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="Y136">
+        <f>Y135*X135</f>
+        <v>0</v>
+      </c>
+      <c r="Z136">
+        <f t="shared" si="58"/>
+        <v>380834.11538461538</v>
+      </c>
+      <c r="AB136" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE136">
+        <f t="shared" ref="AE136:AE143" si="59">IF(AB136=AG136,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AG136" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI136" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="137" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W137">
+        <f t="shared" si="52"/>
+        <v>2</v>
+      </c>
+      <c r="X137">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="Y137">
+        <f t="shared" ref="Y137:Y146" si="60">Y136</f>
+        <v>0</v>
+      </c>
+      <c r="Z137">
+        <f>Z136+Y136</f>
+        <v>380834.11538461538</v>
+      </c>
+      <c r="AB137" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE137">
+        <f t="shared" si="59"/>
+        <v>1</v>
+      </c>
+      <c r="AG137" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI137" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="138" spans="21:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W138" s="3">
+        <f t="shared" si="52"/>
+        <v>2</v>
+      </c>
+      <c r="X138" s="3">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="Y138" s="3">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="Z138" s="3">
+        <f t="shared" ref="Z138:Z142" si="61">Z137</f>
+        <v>380834.11538461538</v>
+      </c>
+    </row>
+    <row r="139" spans="21:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U139" s="2">
+        <v>2</v>
+      </c>
+      <c r="W139">
+        <f>U139</f>
+        <v>2</v>
+      </c>
+      <c r="X139">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="Y139">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="Z139">
+        <f t="shared" si="61"/>
+        <v>380834.11538461538</v>
+      </c>
+      <c r="AB139" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE139">
+        <f t="shared" si="59"/>
+        <v>1</v>
+      </c>
+      <c r="AG139" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI139" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W140">
+        <f t="shared" ref="W140:W157" si="62">W139</f>
+        <v>2</v>
+      </c>
+      <c r="X140">
+        <f>X139*0</f>
+        <v>0</v>
+      </c>
+      <c r="Y140">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="Z140">
+        <f t="shared" si="61"/>
+        <v>380834.11538461538</v>
+      </c>
+      <c r="AB140" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE140">
+        <f t="shared" si="59"/>
+        <v>1</v>
+      </c>
+      <c r="AG140" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI140" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W141">
+        <f t="shared" si="62"/>
+        <v>2</v>
+      </c>
+      <c r="X141">
+        <f>X140+Z140</f>
+        <v>380834.11538461538</v>
+      </c>
+      <c r="Y141">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="Z141">
+        <f t="shared" si="61"/>
+        <v>380834.11538461538</v>
+      </c>
+      <c r="AB141" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE141">
+        <f t="shared" si="59"/>
+        <v>1</v>
+      </c>
+      <c r="AG141" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI141" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W142">
+        <f t="shared" si="62"/>
+        <v>2</v>
+      </c>
+      <c r="X142">
+        <f>MOD(X141,26)</f>
+        <v>12.11538461537566</v>
+      </c>
+      <c r="Y142">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="Z142">
+        <f t="shared" si="61"/>
+        <v>380834.11538461538</v>
+      </c>
+      <c r="AB142" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE142">
+        <f t="shared" si="59"/>
+        <v>1</v>
+      </c>
+      <c r="AG142" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI142" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W143">
+        <f t="shared" si="62"/>
+        <v>2</v>
+      </c>
+      <c r="X143">
+        <f t="shared" ref="X143" si="63">X142</f>
+        <v>12.11538461537566</v>
+      </c>
+      <c r="Y143">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="Z143">
+        <f>Z142/AD143</f>
+        <v>380834.11538461538</v>
+      </c>
+      <c r="AB143" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD143" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE143">
+        <f t="shared" si="59"/>
+        <v>1</v>
+      </c>
+      <c r="AG143" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI143" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W144">
+        <f t="shared" si="62"/>
+        <v>2</v>
+      </c>
+      <c r="X144">
+        <f>X143+AD144</f>
+        <v>22.11538461537566</v>
+      </c>
+      <c r="Y144">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="Z144">
+        <f t="shared" ref="Z144:Z150" si="64">Z143</f>
+        <v>380834.11538461538</v>
+      </c>
+      <c r="AB144" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD144" s="4">
+        <v>10</v>
+      </c>
+      <c r="AG144" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI144" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="145" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W145">
+        <f t="shared" si="62"/>
+        <v>2</v>
+      </c>
+      <c r="X145">
+        <f>IF(X144=W144,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y145">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="Z145">
+        <f t="shared" si="64"/>
+        <v>380834.11538461538</v>
+      </c>
+      <c r="AB145" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE145">
+        <f t="shared" ref="AE145:AE153" si="65">IF(AB145=AG145,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AG145" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI145" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W146">
+        <f t="shared" si="62"/>
+        <v>2</v>
+      </c>
+      <c r="X146">
+        <f>IF(X145=0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y146">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="Z146">
+        <f t="shared" si="64"/>
+        <v>380834.11538461538</v>
+      </c>
+      <c r="AB146" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE146">
+        <f t="shared" si="65"/>
+        <v>1</v>
+      </c>
+      <c r="AG146" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI146" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="147" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W147">
+        <f t="shared" si="62"/>
+        <v>2</v>
+      </c>
+      <c r="X147">
+        <f t="shared" ref="X147:X158" si="66">X146</f>
+        <v>1</v>
+      </c>
+      <c r="Y147">
+        <f>Y146*0</f>
+        <v>0</v>
+      </c>
+      <c r="Z147">
+        <f t="shared" si="64"/>
+        <v>380834.11538461538</v>
+      </c>
+      <c r="AB147" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE147">
+        <f t="shared" si="65"/>
+        <v>1</v>
+      </c>
+      <c r="AG147" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI147" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="148" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W148">
+        <f t="shared" si="62"/>
+        <v>2</v>
+      </c>
+      <c r="X148">
+        <f t="shared" si="66"/>
+        <v>1</v>
+      </c>
+      <c r="Y148">
+        <f>Y147+25</f>
+        <v>25</v>
+      </c>
+      <c r="Z148">
+        <f t="shared" si="64"/>
+        <v>380834.11538461538</v>
+      </c>
+      <c r="AB148" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE148">
+        <f t="shared" si="65"/>
+        <v>1</v>
+      </c>
+      <c r="AG148" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI148" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="149" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W149">
+        <f t="shared" si="62"/>
+        <v>2</v>
+      </c>
+      <c r="X149">
+        <f t="shared" si="66"/>
+        <v>1</v>
+      </c>
+      <c r="Y149">
+        <f>Y148*X148</f>
+        <v>25</v>
+      </c>
+      <c r="Z149">
+        <f t="shared" si="64"/>
+        <v>380834.11538461538</v>
+      </c>
+      <c r="AB149" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE149">
+        <f t="shared" si="65"/>
+        <v>1</v>
+      </c>
+      <c r="AG149" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI149" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="150" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W150">
+        <f t="shared" si="62"/>
+        <v>2</v>
+      </c>
+      <c r="X150">
+        <f t="shared" si="66"/>
+        <v>1</v>
+      </c>
+      <c r="Y150">
+        <f>Y149+1</f>
+        <v>26</v>
+      </c>
+      <c r="Z150">
+        <f t="shared" si="64"/>
+        <v>380834.11538461538</v>
+      </c>
+      <c r="AB150" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE150">
+        <f t="shared" si="65"/>
+        <v>1</v>
+      </c>
+      <c r="AG150" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI150" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="151" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W151">
+        <f t="shared" si="62"/>
+        <v>2</v>
+      </c>
+      <c r="X151">
+        <f t="shared" si="66"/>
+        <v>1</v>
+      </c>
+      <c r="Y151">
+        <f t="shared" ref="Y151" si="67">Y150</f>
+        <v>26</v>
+      </c>
+      <c r="Z151">
+        <f>Z150*Y150</f>
+        <v>9901687</v>
+      </c>
+      <c r="AB151" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE151">
+        <f t="shared" si="65"/>
+        <v>1</v>
+      </c>
+      <c r="AG151" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI151" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="152" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W152">
+        <f t="shared" si="62"/>
+        <v>2</v>
+      </c>
+      <c r="X152">
+        <f t="shared" si="66"/>
+        <v>1</v>
+      </c>
+      <c r="Y152">
+        <f>Y151*0</f>
+        <v>0</v>
+      </c>
+      <c r="Z152">
+        <f t="shared" ref="Z152:Z155" si="68">Z151</f>
+        <v>9901687</v>
+      </c>
+      <c r="AB152" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE152">
+        <f t="shared" si="65"/>
+        <v>1</v>
+      </c>
+      <c r="AG152" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI152" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="153" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W153">
+        <f t="shared" si="62"/>
+        <v>2</v>
+      </c>
+      <c r="X153">
+        <f t="shared" si="66"/>
+        <v>1</v>
+      </c>
+      <c r="Y153">
+        <f>Y152+W152</f>
+        <v>2</v>
+      </c>
+      <c r="Z153">
+        <f t="shared" si="68"/>
+        <v>9901687</v>
+      </c>
+      <c r="AB153" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE153">
+        <f t="shared" si="65"/>
+        <v>1</v>
+      </c>
+      <c r="AG153" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI153" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="154" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W154">
+        <f t="shared" si="62"/>
+        <v>2</v>
+      </c>
+      <c r="X154">
+        <f t="shared" si="66"/>
+        <v>1</v>
+      </c>
+      <c r="Y154">
+        <f>Y153+AD154</f>
+        <v>10</v>
+      </c>
+      <c r="Z154">
+        <f t="shared" si="68"/>
+        <v>9901687</v>
+      </c>
+      <c r="AB154" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD154" s="4">
+        <v>8</v>
+      </c>
+      <c r="AG154" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI154" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="155" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W155">
+        <f t="shared" si="62"/>
+        <v>2</v>
+      </c>
+      <c r="X155">
+        <f t="shared" si="66"/>
+        <v>1</v>
+      </c>
+      <c r="Y155">
+        <f>Y154*X154</f>
+        <v>10</v>
+      </c>
+      <c r="Z155">
+        <f t="shared" si="68"/>
+        <v>9901687</v>
+      </c>
+      <c r="AB155" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE155">
+        <f t="shared" ref="AE155:AE162" si="69">IF(AB155=AG155,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AG155" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI155" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="156" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W156">
+        <f t="shared" si="62"/>
+        <v>2</v>
+      </c>
+      <c r="X156">
+        <f t="shared" si="66"/>
+        <v>1</v>
+      </c>
+      <c r="Y156">
+        <f t="shared" ref="Y156:Y165" si="70">Y155</f>
+        <v>10</v>
+      </c>
+      <c r="Z156">
+        <f>Z155+Y155</f>
+        <v>9901697</v>
+      </c>
+      <c r="AB156" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE156">
+        <f t="shared" si="69"/>
+        <v>1</v>
+      </c>
+      <c r="AG156" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI156" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="157" spans="21:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W157" s="3">
+        <f t="shared" si="62"/>
+        <v>2</v>
+      </c>
+      <c r="X157" s="3">
+        <f t="shared" si="66"/>
+        <v>1</v>
+      </c>
+      <c r="Y157" s="3">
+        <f t="shared" si="70"/>
+        <v>10</v>
+      </c>
+      <c r="Z157" s="3">
+        <f t="shared" ref="Z157:Z161" si="71">Z156</f>
+        <v>9901697</v>
+      </c>
+    </row>
+    <row r="158" spans="21:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U158" s="2">
+        <v>2</v>
+      </c>
+      <c r="W158">
+        <f>U158</f>
+        <v>2</v>
+      </c>
+      <c r="X158">
+        <f t="shared" si="66"/>
+        <v>1</v>
+      </c>
+      <c r="Y158">
+        <f t="shared" si="70"/>
+        <v>10</v>
+      </c>
+      <c r="Z158">
+        <f t="shared" si="71"/>
+        <v>9901697</v>
+      </c>
+      <c r="AB158" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE158">
+        <f t="shared" si="69"/>
+        <v>1</v>
+      </c>
+      <c r="AG158" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI158" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W159">
+        <f t="shared" ref="W159:W176" si="72">W158</f>
+        <v>2</v>
+      </c>
+      <c r="X159">
+        <f>X158*0</f>
+        <v>0</v>
+      </c>
+      <c r="Y159">
+        <f t="shared" si="70"/>
+        <v>10</v>
+      </c>
+      <c r="Z159">
+        <f t="shared" si="71"/>
+        <v>9901697</v>
+      </c>
+      <c r="AB159" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE159">
+        <f t="shared" si="69"/>
+        <v>1</v>
+      </c>
+      <c r="AG159" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI159" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W160">
+        <f t="shared" si="72"/>
+        <v>2</v>
+      </c>
+      <c r="X160">
+        <f>X159+Z159</f>
+        <v>9901697</v>
+      </c>
+      <c r="Y160">
+        <f t="shared" si="70"/>
+        <v>10</v>
+      </c>
+      <c r="Z160">
+        <f t="shared" si="71"/>
+        <v>9901697</v>
+      </c>
+      <c r="AB160" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE160">
+        <f t="shared" si="69"/>
+        <v>1</v>
+      </c>
+      <c r="AG160" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI160" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" spans="23:35" x14ac:dyDescent="0.25">
+      <c r="W161">
+        <f t="shared" si="72"/>
+        <v>2</v>
+      </c>
+      <c r="X161">
+        <f>MOD(X160,26)</f>
+        <v>13</v>
+      </c>
+      <c r="Y161">
+        <f t="shared" si="70"/>
+        <v>10</v>
+      </c>
+      <c r="Z161">
+        <f t="shared" si="71"/>
+        <v>9901697</v>
+      </c>
+      <c r="AB161" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE161">
+        <f t="shared" si="69"/>
+        <v>1</v>
+      </c>
+      <c r="AG161" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI161" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162" spans="23:35" x14ac:dyDescent="0.25">
+      <c r="W162">
+        <f t="shared" si="72"/>
+        <v>2</v>
+      </c>
+      <c r="X162">
+        <f t="shared" ref="X162" si="73">X161</f>
+        <v>13</v>
+      </c>
+      <c r="Y162">
+        <f t="shared" si="70"/>
+        <v>10</v>
+      </c>
+      <c r="Z162">
+        <f>Z161/AD162</f>
+        <v>380834.5</v>
+      </c>
+      <c r="AB162" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD162" s="4">
+        <v>26</v>
+      </c>
+      <c r="AE162">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="AG162" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI162" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="163" spans="23:35" x14ac:dyDescent="0.25">
+      <c r="W163">
+        <f t="shared" si="72"/>
+        <v>2</v>
+      </c>
+      <c r="X163">
+        <f>X162+AD163</f>
+        <v>10</v>
+      </c>
+      <c r="Y163">
+        <f t="shared" si="70"/>
+        <v>10</v>
+      </c>
+      <c r="Z163">
+        <f t="shared" ref="Z163:Z169" si="74">Z162</f>
+        <v>380834.5</v>
+      </c>
+      <c r="AB163" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD163" s="4">
+        <v>-3</v>
+      </c>
+      <c r="AG163" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI163" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="164" spans="23:35" x14ac:dyDescent="0.25">
+      <c r="W164">
+        <f t="shared" si="72"/>
+        <v>2</v>
+      </c>
+      <c r="X164">
+        <f>IF(X163=W163,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y164">
+        <f t="shared" si="70"/>
+        <v>10</v>
+      </c>
+      <c r="Z164">
+        <f t="shared" si="74"/>
+        <v>380834.5</v>
+      </c>
+      <c r="AB164" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE164">
+        <f t="shared" ref="AE164:AE172" si="75">IF(AB164=AG164,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AG164" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI164" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165" spans="23:35" x14ac:dyDescent="0.25">
+      <c r="W165">
+        <f t="shared" si="72"/>
+        <v>2</v>
+      </c>
+      <c r="X165">
+        <f>IF(X164=0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y165">
+        <f t="shared" si="70"/>
+        <v>10</v>
+      </c>
+      <c r="Z165">
+        <f t="shared" si="74"/>
+        <v>380834.5</v>
+      </c>
+      <c r="AB165" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE165">
+        <f t="shared" si="75"/>
+        <v>1</v>
+      </c>
+      <c r="AG165" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI165" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="166" spans="23:35" x14ac:dyDescent="0.25">
+      <c r="W166">
+        <f t="shared" si="72"/>
+        <v>2</v>
+      </c>
+      <c r="X166">
+        <f t="shared" ref="X166:X177" si="76">X165</f>
+        <v>1</v>
+      </c>
+      <c r="Y166">
+        <f>Y165*0</f>
+        <v>0</v>
+      </c>
+      <c r="Z166">
+        <f t="shared" si="74"/>
+        <v>380834.5</v>
+      </c>
+      <c r="AB166" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE166">
+        <f t="shared" si="75"/>
+        <v>1</v>
+      </c>
+      <c r="AG166" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI166" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="167" spans="23:35" x14ac:dyDescent="0.25">
+      <c r="W167">
+        <f t="shared" si="72"/>
+        <v>2</v>
+      </c>
+      <c r="X167">
+        <f t="shared" si="76"/>
+        <v>1</v>
+      </c>
+      <c r="Y167">
+        <f>Y166+25</f>
+        <v>25</v>
+      </c>
+      <c r="Z167">
+        <f t="shared" si="74"/>
+        <v>380834.5</v>
+      </c>
+      <c r="AB167" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE167">
+        <f t="shared" si="75"/>
+        <v>1</v>
+      </c>
+      <c r="AG167" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI167" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="168" spans="23:35" x14ac:dyDescent="0.25">
+      <c r="W168">
+        <f t="shared" si="72"/>
+        <v>2</v>
+      </c>
+      <c r="X168">
+        <f t="shared" si="76"/>
+        <v>1</v>
+      </c>
+      <c r="Y168">
+        <f>Y167*X167</f>
+        <v>25</v>
+      </c>
+      <c r="Z168">
+        <f t="shared" si="74"/>
+        <v>380834.5</v>
+      </c>
+      <c r="AB168" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE168">
+        <f t="shared" si="75"/>
+        <v>1</v>
+      </c>
+      <c r="AG168" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI168" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="169" spans="23:35" x14ac:dyDescent="0.25">
+      <c r="W169">
+        <f t="shared" si="72"/>
+        <v>2</v>
+      </c>
+      <c r="X169">
+        <f t="shared" si="76"/>
+        <v>1</v>
+      </c>
+      <c r="Y169">
+        <f>Y168+1</f>
+        <v>26</v>
+      </c>
+      <c r="Z169">
+        <f t="shared" si="74"/>
+        <v>380834.5</v>
+      </c>
+      <c r="AB169" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE169">
+        <f t="shared" si="75"/>
+        <v>1</v>
+      </c>
+      <c r="AG169" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI169" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="170" spans="23:35" x14ac:dyDescent="0.25">
+      <c r="W170">
+        <f t="shared" si="72"/>
+        <v>2</v>
+      </c>
+      <c r="X170">
+        <f t="shared" si="76"/>
+        <v>1</v>
+      </c>
+      <c r="Y170">
+        <f t="shared" ref="Y170" si="77">Y169</f>
+        <v>26</v>
+      </c>
+      <c r="Z170">
+        <f>Z169*Y169</f>
+        <v>9901697</v>
+      </c>
+      <c r="AB170" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE170">
+        <f t="shared" si="75"/>
+        <v>1</v>
+      </c>
+      <c r="AG170" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI170" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="171" spans="23:35" x14ac:dyDescent="0.25">
+      <c r="W171">
+        <f t="shared" si="72"/>
+        <v>2</v>
+      </c>
+      <c r="X171">
+        <f t="shared" si="76"/>
+        <v>1</v>
+      </c>
+      <c r="Y171">
+        <f>Y170*0</f>
+        <v>0</v>
+      </c>
+      <c r="Z171">
+        <f t="shared" ref="Z171:Z174" si="78">Z170</f>
+        <v>9901697</v>
+      </c>
+      <c r="AB171" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE171">
+        <f t="shared" si="75"/>
+        <v>1</v>
+      </c>
+      <c r="AG171" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI171" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="172" spans="23:35" x14ac:dyDescent="0.25">
+      <c r="W172">
+        <f t="shared" si="72"/>
+        <v>2</v>
+      </c>
+      <c r="X172">
+        <f t="shared" si="76"/>
+        <v>1</v>
+      </c>
+      <c r="Y172">
+        <f>Y171+W171</f>
+        <v>2</v>
+      </c>
+      <c r="Z172">
+        <f t="shared" si="78"/>
+        <v>9901697</v>
+      </c>
+      <c r="AB172" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE172">
+        <f t="shared" si="75"/>
+        <v>1</v>
+      </c>
+      <c r="AG172" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI172" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="173" spans="23:35" x14ac:dyDescent="0.25">
+      <c r="W173">
+        <f t="shared" si="72"/>
+        <v>2</v>
+      </c>
+      <c r="X173">
+        <f t="shared" si="76"/>
+        <v>1</v>
+      </c>
+      <c r="Y173">
+        <f>Y172+AD173</f>
+        <v>14</v>
+      </c>
+      <c r="Z173">
+        <f t="shared" si="78"/>
+        <v>9901697</v>
+      </c>
+      <c r="AB173" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD173" s="4">
+        <v>12</v>
+      </c>
+      <c r="AG173" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI173" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="174" spans="23:35" x14ac:dyDescent="0.25">
+      <c r="W174">
+        <f t="shared" si="72"/>
+        <v>2</v>
+      </c>
+      <c r="X174">
+        <f t="shared" si="76"/>
+        <v>1</v>
+      </c>
+      <c r="Y174">
+        <f>Y173*X173</f>
+        <v>14</v>
+      </c>
+      <c r="Z174">
+        <f t="shared" si="78"/>
+        <v>9901697</v>
+      </c>
+      <c r="AB174" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE174">
+        <f t="shared" ref="AE174:AE181" si="79">IF(AB174=AG174,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AG174" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI174" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="175" spans="23:35" x14ac:dyDescent="0.25">
+      <c r="W175">
+        <f t="shared" si="72"/>
+        <v>2</v>
+      </c>
+      <c r="X175">
+        <f t="shared" si="76"/>
+        <v>1</v>
+      </c>
+      <c r="Y175">
+        <f t="shared" ref="Y175:Y184" si="80">Y174</f>
+        <v>14</v>
+      </c>
+      <c r="Z175">
+        <f>Z174+Y174</f>
+        <v>9901711</v>
+      </c>
+      <c r="AB175" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE175">
+        <f t="shared" si="79"/>
+        <v>1</v>
+      </c>
+      <c r="AG175" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI175" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="176" spans="23:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W176" s="3">
+        <f t="shared" si="72"/>
+        <v>2</v>
+      </c>
+      <c r="X176" s="3">
+        <f t="shared" si="76"/>
+        <v>1</v>
+      </c>
+      <c r="Y176" s="3">
+        <f t="shared" si="80"/>
+        <v>14</v>
+      </c>
+      <c r="Z176" s="3">
+        <f t="shared" ref="Z176:Z180" si="81">Z175</f>
+        <v>9901711</v>
+      </c>
+    </row>
+    <row r="177" spans="21:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U177" s="2">
+        <v>2</v>
+      </c>
+      <c r="W177">
+        <f>U177</f>
+        <v>2</v>
+      </c>
+      <c r="X177">
+        <f t="shared" si="76"/>
+        <v>1</v>
+      </c>
+      <c r="Y177">
+        <f t="shared" si="80"/>
+        <v>14</v>
+      </c>
+      <c r="Z177">
+        <f t="shared" si="81"/>
+        <v>9901711</v>
+      </c>
+      <c r="AB177" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE177">
+        <f t="shared" si="79"/>
+        <v>1</v>
+      </c>
+      <c r="AG177" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI177" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W178">
+        <f t="shared" ref="W178:W195" si="82">W177</f>
+        <v>2</v>
+      </c>
+      <c r="X178">
+        <f>X177*0</f>
+        <v>0</v>
+      </c>
+      <c r="Y178">
+        <f t="shared" si="80"/>
+        <v>14</v>
+      </c>
+      <c r="Z178">
+        <f t="shared" si="81"/>
+        <v>9901711</v>
+      </c>
+      <c r="AB178" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE178">
+        <f t="shared" si="79"/>
+        <v>1</v>
+      </c>
+      <c r="AG178" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI178" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W179">
+        <f t="shared" si="82"/>
+        <v>2</v>
+      </c>
+      <c r="X179">
+        <f>X178+Z178</f>
+        <v>9901711</v>
+      </c>
+      <c r="Y179">
+        <f t="shared" si="80"/>
+        <v>14</v>
+      </c>
+      <c r="Z179">
+        <f t="shared" si="81"/>
+        <v>9901711</v>
+      </c>
+      <c r="AB179" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE179">
+        <f t="shared" si="79"/>
+        <v>1</v>
+      </c>
+      <c r="AG179" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI179" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W180">
+        <f t="shared" si="82"/>
+        <v>2</v>
+      </c>
+      <c r="X180">
+        <f>MOD(X179,26)</f>
+        <v>1</v>
+      </c>
+      <c r="Y180">
+        <f t="shared" si="80"/>
+        <v>14</v>
+      </c>
+      <c r="Z180">
+        <f t="shared" si="81"/>
+        <v>9901711</v>
+      </c>
+      <c r="AB180" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE180">
+        <f t="shared" si="79"/>
+        <v>1</v>
+      </c>
+      <c r="AG180" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI180" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="181" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W181">
+        <f t="shared" si="82"/>
+        <v>2</v>
+      </c>
+      <c r="X181">
+        <f t="shared" ref="X181" si="83">X180</f>
+        <v>1</v>
+      </c>
+      <c r="Y181">
+        <f t="shared" si="80"/>
+        <v>14</v>
+      </c>
+      <c r="Z181">
+        <f>Z180/AD181</f>
+        <v>380835.03846153844</v>
+      </c>
+      <c r="AB181" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD181" s="4">
+        <v>26</v>
+      </c>
+      <c r="AE181">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AG181" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI181" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="182" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W182">
+        <f t="shared" si="82"/>
+        <v>2</v>
+      </c>
+      <c r="X182">
+        <f>X181+AD182</f>
+        <v>-3</v>
+      </c>
+      <c r="Y182">
+        <f t="shared" si="80"/>
+        <v>14</v>
+      </c>
+      <c r="Z182">
+        <f t="shared" ref="Z182:Z188" si="84">Z181</f>
+        <v>380835.03846153844</v>
+      </c>
+      <c r="AB182" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD182" s="4">
+        <v>-4</v>
+      </c>
+      <c r="AG182" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI182" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="183" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W183">
+        <f t="shared" si="82"/>
+        <v>2</v>
+      </c>
+      <c r="X183">
+        <f>IF(X182=W182,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y183">
+        <f t="shared" si="80"/>
+        <v>14</v>
+      </c>
+      <c r="Z183">
+        <f t="shared" si="84"/>
+        <v>380835.03846153844</v>
+      </c>
+      <c r="AB183" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE183">
+        <f t="shared" ref="AE183:AE191" si="85">IF(AB183=AG183,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AG183" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI183" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W184">
+        <f t="shared" si="82"/>
+        <v>2</v>
+      </c>
+      <c r="X184">
+        <f>IF(X183=0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y184">
+        <f t="shared" si="80"/>
+        <v>14</v>
+      </c>
+      <c r="Z184">
+        <f t="shared" si="84"/>
+        <v>380835.03846153844</v>
+      </c>
+      <c r="AB184" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE184">
+        <f t="shared" si="85"/>
+        <v>1</v>
+      </c>
+      <c r="AG184" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI184" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="185" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W185">
+        <f t="shared" si="82"/>
+        <v>2</v>
+      </c>
+      <c r="X185">
+        <f t="shared" ref="X185:X196" si="86">X184</f>
+        <v>1</v>
+      </c>
+      <c r="Y185">
+        <f>Y184*0</f>
+        <v>0</v>
+      </c>
+      <c r="Z185">
+        <f t="shared" si="84"/>
+        <v>380835.03846153844</v>
+      </c>
+      <c r="AB185" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE185">
+        <f t="shared" si="85"/>
+        <v>1</v>
+      </c>
+      <c r="AG185" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI185" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="186" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W186">
+        <f t="shared" si="82"/>
+        <v>2</v>
+      </c>
+      <c r="X186">
+        <f t="shared" si="86"/>
+        <v>1</v>
+      </c>
+      <c r="Y186">
+        <f>Y185+25</f>
+        <v>25</v>
+      </c>
+      <c r="Z186">
+        <f t="shared" si="84"/>
+        <v>380835.03846153844</v>
+      </c>
+      <c r="AB186" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE186">
+        <f t="shared" si="85"/>
+        <v>1</v>
+      </c>
+      <c r="AG186" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI186" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="187" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W187">
+        <f t="shared" si="82"/>
+        <v>2</v>
+      </c>
+      <c r="X187">
+        <f t="shared" si="86"/>
+        <v>1</v>
+      </c>
+      <c r="Y187">
+        <f>Y186*X186</f>
+        <v>25</v>
+      </c>
+      <c r="Z187">
+        <f t="shared" si="84"/>
+        <v>380835.03846153844</v>
+      </c>
+      <c r="AB187" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE187">
+        <f t="shared" si="85"/>
+        <v>1</v>
+      </c>
+      <c r="AG187" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI187" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="188" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W188">
+        <f t="shared" si="82"/>
+        <v>2</v>
+      </c>
+      <c r="X188">
+        <f t="shared" si="86"/>
+        <v>1</v>
+      </c>
+      <c r="Y188">
+        <f>Y187+1</f>
+        <v>26</v>
+      </c>
+      <c r="Z188">
+        <f t="shared" si="84"/>
+        <v>380835.03846153844</v>
+      </c>
+      <c r="AB188" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE188">
+        <f t="shared" si="85"/>
+        <v>1</v>
+      </c>
+      <c r="AG188" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI188" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="189" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W189">
+        <f t="shared" si="82"/>
+        <v>2</v>
+      </c>
+      <c r="X189">
+        <f t="shared" si="86"/>
+        <v>1</v>
+      </c>
+      <c r="Y189">
+        <f t="shared" ref="Y189" si="87">Y188</f>
+        <v>26</v>
+      </c>
+      <c r="Z189">
+        <f>Z188*Y188</f>
+        <v>9901711</v>
+      </c>
+      <c r="AB189" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE189">
+        <f t="shared" si="85"/>
+        <v>1</v>
+      </c>
+      <c r="AG189" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI189" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="190" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W190">
+        <f t="shared" si="82"/>
+        <v>2</v>
+      </c>
+      <c r="X190">
+        <f t="shared" si="86"/>
+        <v>1</v>
+      </c>
+      <c r="Y190">
+        <f>Y189*0</f>
+        <v>0</v>
+      </c>
+      <c r="Z190">
+        <f t="shared" ref="Z190:Z193" si="88">Z189</f>
+        <v>9901711</v>
+      </c>
+      <c r="AB190" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE190">
+        <f t="shared" si="85"/>
+        <v>1</v>
+      </c>
+      <c r="AG190" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI190" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="191" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W191">
+        <f t="shared" si="82"/>
+        <v>2</v>
+      </c>
+      <c r="X191">
+        <f t="shared" si="86"/>
+        <v>1</v>
+      </c>
+      <c r="Y191">
+        <f>Y190+W190</f>
+        <v>2</v>
+      </c>
+      <c r="Z191">
+        <f t="shared" si="88"/>
+        <v>9901711</v>
+      </c>
+      <c r="AB191" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE191">
+        <f t="shared" si="85"/>
+        <v>1</v>
+      </c>
+      <c r="AG191" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI191" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="192" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W192">
+        <f t="shared" si="82"/>
+        <v>2</v>
+      </c>
+      <c r="X192">
+        <f t="shared" si="86"/>
+        <v>1</v>
+      </c>
+      <c r="Y192">
+        <f>Y191+AD192</f>
+        <v>12</v>
+      </c>
+      <c r="Z192">
+        <f t="shared" si="88"/>
+        <v>9901711</v>
+      </c>
+      <c r="AB192" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD192" s="4">
+        <v>10</v>
+      </c>
+      <c r="AG192" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI192" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="193" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W193">
+        <f t="shared" si="82"/>
+        <v>2</v>
+      </c>
+      <c r="X193">
+        <f t="shared" si="86"/>
+        <v>1</v>
+      </c>
+      <c r="Y193">
+        <f>Y192*X192</f>
+        <v>12</v>
+      </c>
+      <c r="Z193">
+        <f t="shared" si="88"/>
+        <v>9901711</v>
+      </c>
+      <c r="AB193" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE193">
+        <f t="shared" ref="AE193:AE200" si="89">IF(AB193=AG193,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AG193" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI193" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="194" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W194">
+        <f t="shared" si="82"/>
+        <v>2</v>
+      </c>
+      <c r="X194">
+        <f t="shared" si="86"/>
+        <v>1</v>
+      </c>
+      <c r="Y194">
+        <f t="shared" ref="Y194:Y203" si="90">Y193</f>
+        <v>12</v>
+      </c>
+      <c r="Z194">
+        <f>Z193+Y193</f>
+        <v>9901723</v>
+      </c>
+      <c r="AB194" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE194">
+        <f t="shared" si="89"/>
+        <v>1</v>
+      </c>
+      <c r="AG194" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI194" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="195" spans="21:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W195" s="3">
+        <f t="shared" si="82"/>
+        <v>2</v>
+      </c>
+      <c r="X195" s="3">
+        <f t="shared" si="86"/>
+        <v>1</v>
+      </c>
+      <c r="Y195" s="3">
+        <f t="shared" si="90"/>
+        <v>12</v>
+      </c>
+      <c r="Z195" s="3">
+        <f t="shared" ref="Z195:Z199" si="91">Z194</f>
+        <v>9901723</v>
+      </c>
+    </row>
+    <row r="196" spans="21:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U196" s="2">
+        <v>2</v>
+      </c>
+      <c r="W196">
+        <f>U196</f>
+        <v>2</v>
+      </c>
+      <c r="X196">
+        <f t="shared" si="86"/>
+        <v>1</v>
+      </c>
+      <c r="Y196">
+        <f t="shared" si="90"/>
+        <v>12</v>
+      </c>
+      <c r="Z196">
+        <f t="shared" si="91"/>
+        <v>9901723</v>
+      </c>
+      <c r="AB196" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE196">
+        <f t="shared" si="89"/>
+        <v>1</v>
+      </c>
+      <c r="AG196" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI196" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W197">
+        <f t="shared" ref="W197:W214" si="92">W196</f>
+        <v>2</v>
+      </c>
+      <c r="X197">
+        <f>X196*0</f>
+        <v>0</v>
+      </c>
+      <c r="Y197">
+        <f t="shared" si="90"/>
+        <v>12</v>
+      </c>
+      <c r="Z197">
+        <f t="shared" si="91"/>
+        <v>9901723</v>
+      </c>
+      <c r="AB197" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE197">
+        <f t="shared" si="89"/>
+        <v>1</v>
+      </c>
+      <c r="AG197" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI197" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W198">
+        <f t="shared" si="92"/>
+        <v>2</v>
+      </c>
+      <c r="X198">
+        <f>X197+Z197</f>
+        <v>9901723</v>
+      </c>
+      <c r="Y198">
+        <f t="shared" si="90"/>
+        <v>12</v>
+      </c>
+      <c r="Z198">
+        <f t="shared" si="91"/>
+        <v>9901723</v>
+      </c>
+      <c r="AB198" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE198">
+        <f t="shared" si="89"/>
+        <v>1</v>
+      </c>
+      <c r="AG198" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI198" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="199" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W199">
+        <f t="shared" si="92"/>
+        <v>2</v>
+      </c>
+      <c r="X199">
+        <f>MOD(X198,26)</f>
+        <v>13</v>
+      </c>
+      <c r="Y199">
+        <f t="shared" si="90"/>
+        <v>12</v>
+      </c>
+      <c r="Z199">
+        <f t="shared" si="91"/>
+        <v>9901723</v>
+      </c>
+      <c r="AB199" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE199">
+        <f t="shared" si="89"/>
+        <v>1</v>
+      </c>
+      <c r="AG199" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI199" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="200" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W200">
+        <f t="shared" si="92"/>
+        <v>2</v>
+      </c>
+      <c r="X200">
+        <f t="shared" ref="X200" si="93">X199</f>
+        <v>13</v>
+      </c>
+      <c r="Y200">
+        <f t="shared" si="90"/>
+        <v>12</v>
+      </c>
+      <c r="Z200">
+        <f>Z199/AD200</f>
+        <v>380835.5</v>
+      </c>
+      <c r="AB200" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD200" s="4">
+        <v>26</v>
+      </c>
+      <c r="AE200">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="AG200" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI200" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="201" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W201">
+        <f t="shared" si="92"/>
+        <v>2</v>
+      </c>
+      <c r="X201">
+        <f>X200+AD201</f>
+        <v>0</v>
+      </c>
+      <c r="Y201">
+        <f t="shared" si="90"/>
+        <v>12</v>
+      </c>
+      <c r="Z201">
+        <f t="shared" ref="Z201:Z207" si="94">Z200</f>
+        <v>380835.5</v>
+      </c>
+      <c r="AB201" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD201" s="4">
+        <v>-13</v>
+      </c>
+      <c r="AG201" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI201" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="202" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W202">
+        <f t="shared" si="92"/>
+        <v>2</v>
+      </c>
+      <c r="X202">
+        <f>IF(X201=W201,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y202">
+        <f t="shared" si="90"/>
+        <v>12</v>
+      </c>
+      <c r="Z202">
+        <f t="shared" si="94"/>
+        <v>380835.5</v>
+      </c>
+      <c r="AB202" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE202">
+        <f t="shared" ref="AE202:AE210" si="95">IF(AB202=AG202,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AG202" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI202" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="203" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W203">
+        <f t="shared" si="92"/>
+        <v>2</v>
+      </c>
+      <c r="X203">
+        <f>IF(X202=0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y203">
+        <f t="shared" si="90"/>
+        <v>12</v>
+      </c>
+      <c r="Z203">
+        <f t="shared" si="94"/>
+        <v>380835.5</v>
+      </c>
+      <c r="AB203" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE203">
+        <f t="shared" si="95"/>
+        <v>1</v>
+      </c>
+      <c r="AG203" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI203" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="204" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W204">
+        <f t="shared" si="92"/>
+        <v>2</v>
+      </c>
+      <c r="X204">
+        <f t="shared" ref="X204:X215" si="96">X203</f>
+        <v>1</v>
+      </c>
+      <c r="Y204">
+        <f>Y203*0</f>
+        <v>0</v>
+      </c>
+      <c r="Z204">
+        <f t="shared" si="94"/>
+        <v>380835.5</v>
+      </c>
+      <c r="AB204" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE204">
+        <f t="shared" si="95"/>
+        <v>1</v>
+      </c>
+      <c r="AG204" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI204" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="205" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W205">
+        <f t="shared" si="92"/>
+        <v>2</v>
+      </c>
+      <c r="X205">
+        <f t="shared" si="96"/>
+        <v>1</v>
+      </c>
+      <c r="Y205">
+        <f>Y204+25</f>
+        <v>25</v>
+      </c>
+      <c r="Z205">
+        <f t="shared" si="94"/>
+        <v>380835.5</v>
+      </c>
+      <c r="AB205" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE205">
+        <f t="shared" si="95"/>
+        <v>1</v>
+      </c>
+      <c r="AG205" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI205" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="206" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W206">
+        <f t="shared" si="92"/>
+        <v>2</v>
+      </c>
+      <c r="X206">
+        <f t="shared" si="96"/>
+        <v>1</v>
+      </c>
+      <c r="Y206">
+        <f>Y205*X205</f>
+        <v>25</v>
+      </c>
+      <c r="Z206">
+        <f t="shared" si="94"/>
+        <v>380835.5</v>
+      </c>
+      <c r="AB206" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE206">
+        <f t="shared" si="95"/>
+        <v>1</v>
+      </c>
+      <c r="AG206" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI206" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="207" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W207">
+        <f t="shared" si="92"/>
+        <v>2</v>
+      </c>
+      <c r="X207">
+        <f t="shared" si="96"/>
+        <v>1</v>
+      </c>
+      <c r="Y207">
+        <f>Y206+1</f>
+        <v>26</v>
+      </c>
+      <c r="Z207">
+        <f t="shared" si="94"/>
+        <v>380835.5</v>
+      </c>
+      <c r="AB207" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE207">
+        <f t="shared" si="95"/>
+        <v>1</v>
+      </c>
+      <c r="AG207" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI207" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="208" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W208">
+        <f t="shared" si="92"/>
+        <v>2</v>
+      </c>
+      <c r="X208">
+        <f t="shared" si="96"/>
+        <v>1</v>
+      </c>
+      <c r="Y208">
+        <f t="shared" ref="Y208" si="97">Y207</f>
+        <v>26</v>
+      </c>
+      <c r="Z208">
+        <f>Z207*Y207</f>
+        <v>9901723</v>
+      </c>
+      <c r="AB208" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE208">
+        <f t="shared" si="95"/>
+        <v>1</v>
+      </c>
+      <c r="AG208" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI208" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="209" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W209">
+        <f t="shared" si="92"/>
+        <v>2</v>
+      </c>
+      <c r="X209">
+        <f t="shared" si="96"/>
+        <v>1</v>
+      </c>
+      <c r="Y209">
+        <f>Y208*0</f>
+        <v>0</v>
+      </c>
+      <c r="Z209">
+        <f t="shared" ref="Z209:Z212" si="98">Z208</f>
+        <v>9901723</v>
+      </c>
+      <c r="AB209" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE209">
+        <f t="shared" si="95"/>
+        <v>1</v>
+      </c>
+      <c r="AG209" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI209" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="210" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W210">
+        <f t="shared" si="92"/>
+        <v>2</v>
+      </c>
+      <c r="X210">
+        <f t="shared" si="96"/>
+        <v>1</v>
+      </c>
+      <c r="Y210">
+        <f>Y209+W209</f>
+        <v>2</v>
+      </c>
+      <c r="Z210">
+        <f t="shared" si="98"/>
+        <v>9901723</v>
+      </c>
+      <c r="AB210" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE210">
+        <f t="shared" si="95"/>
+        <v>1</v>
+      </c>
+      <c r="AG210" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI210" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="211" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W211">
+        <f t="shared" si="92"/>
+        <v>2</v>
+      </c>
+      <c r="X211">
+        <f t="shared" si="96"/>
+        <v>1</v>
+      </c>
+      <c r="Y211">
+        <f>Y210+AD211</f>
+        <v>17</v>
+      </c>
+      <c r="Z211">
+        <f t="shared" si="98"/>
+        <v>9901723</v>
+      </c>
+      <c r="AB211" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD211" s="4">
+        <v>15</v>
+      </c>
+      <c r="AG211" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI211" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="212" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W212">
+        <f t="shared" si="92"/>
+        <v>2</v>
+      </c>
+      <c r="X212">
+        <f t="shared" si="96"/>
+        <v>1</v>
+      </c>
+      <c r="Y212">
+        <f>Y211*X211</f>
+        <v>17</v>
+      </c>
+      <c r="Z212">
+        <f t="shared" si="98"/>
+        <v>9901723</v>
+      </c>
+      <c r="AB212" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE212">
+        <f t="shared" ref="AE212:AE219" si="99">IF(AB212=AG212,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AG212" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI212" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="213" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W213">
+        <f t="shared" si="92"/>
+        <v>2</v>
+      </c>
+      <c r="X213">
+        <f t="shared" si="96"/>
+        <v>1</v>
+      </c>
+      <c r="Y213">
+        <f t="shared" ref="Y213:Y222" si="100">Y212</f>
+        <v>17</v>
+      </c>
+      <c r="Z213">
+        <f>Z212+Y212</f>
+        <v>9901740</v>
+      </c>
+      <c r="AB213" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE213">
+        <f t="shared" si="99"/>
+        <v>1</v>
+      </c>
+      <c r="AG213" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI213" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="214" spans="21:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W214" s="3">
+        <f t="shared" si="92"/>
+        <v>2</v>
+      </c>
+      <c r="X214" s="3">
+        <f t="shared" si="96"/>
+        <v>1</v>
+      </c>
+      <c r="Y214" s="3">
+        <f t="shared" si="100"/>
+        <v>17</v>
+      </c>
+      <c r="Z214" s="3">
+        <f t="shared" ref="Z214:Z218" si="101">Z213</f>
+        <v>9901740</v>
+      </c>
+    </row>
+    <row r="215" spans="21:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U215" s="2">
+        <v>2</v>
+      </c>
+      <c r="W215">
+        <f>U215</f>
+        <v>2</v>
+      </c>
+      <c r="X215">
+        <f t="shared" si="96"/>
+        <v>1</v>
+      </c>
+      <c r="Y215">
+        <f t="shared" si="100"/>
+        <v>17</v>
+      </c>
+      <c r="Z215">
+        <f t="shared" si="101"/>
+        <v>9901740</v>
+      </c>
+      <c r="AB215" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE215">
+        <f t="shared" si="99"/>
+        <v>1</v>
+      </c>
+      <c r="AG215" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI215" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="216" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W216">
+        <f t="shared" ref="W216:W233" si="102">W215</f>
+        <v>2</v>
+      </c>
+      <c r="X216">
+        <f>X215*0</f>
+        <v>0</v>
+      </c>
+      <c r="Y216">
+        <f t="shared" si="100"/>
+        <v>17</v>
+      </c>
+      <c r="Z216">
+        <f t="shared" si="101"/>
+        <v>9901740</v>
+      </c>
+      <c r="AB216" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE216">
+        <f t="shared" si="99"/>
+        <v>1</v>
+      </c>
+      <c r="AG216" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI216" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="217" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W217">
+        <f t="shared" si="102"/>
+        <v>2</v>
+      </c>
+      <c r="X217">
+        <f>X216+Z216</f>
+        <v>9901740</v>
+      </c>
+      <c r="Y217">
+        <f t="shared" si="100"/>
+        <v>17</v>
+      </c>
+      <c r="Z217">
+        <f t="shared" si="101"/>
+        <v>9901740</v>
+      </c>
+      <c r="AB217" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE217">
+        <f t="shared" si="99"/>
+        <v>1</v>
+      </c>
+      <c r="AG217" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI217" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="218" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W218">
+        <f t="shared" si="102"/>
+        <v>2</v>
+      </c>
+      <c r="X218">
+        <f>MOD(X217,26)</f>
+        <v>4</v>
+      </c>
+      <c r="Y218">
+        <f t="shared" si="100"/>
+        <v>17</v>
+      </c>
+      <c r="Z218">
+        <f t="shared" si="101"/>
+        <v>9901740</v>
+      </c>
+      <c r="AB218" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE218">
+        <f t="shared" si="99"/>
+        <v>1</v>
+      </c>
+      <c r="AG218" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI218" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="219" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W219">
+        <f t="shared" si="102"/>
+        <v>2</v>
+      </c>
+      <c r="X219">
+        <f t="shared" ref="X219" si="103">X218</f>
+        <v>4</v>
+      </c>
+      <c r="Y219">
+        <f t="shared" si="100"/>
+        <v>17</v>
+      </c>
+      <c r="Z219">
+        <f>Z218/AD219</f>
+        <v>380836.15384615387</v>
+      </c>
+      <c r="AB219" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD219" s="4">
+        <v>26</v>
+      </c>
+      <c r="AE219">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="AG219" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI219" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="220" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W220">
+        <f t="shared" si="102"/>
+        <v>2</v>
+      </c>
+      <c r="X220">
+        <f>X219+AD220</f>
+        <v>-4</v>
+      </c>
+      <c r="Y220">
+        <f t="shared" si="100"/>
+        <v>17</v>
+      </c>
+      <c r="Z220">
+        <f t="shared" ref="Z220:Z226" si="104">Z219</f>
+        <v>380836.15384615387</v>
+      </c>
+      <c r="AB220" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD220" s="4">
+        <v>-8</v>
+      </c>
+      <c r="AG220" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI220" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="221" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W221">
+        <f t="shared" si="102"/>
+        <v>2</v>
+      </c>
+      <c r="X221">
+        <f>IF(X220=W220,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y221">
+        <f t="shared" si="100"/>
+        <v>17</v>
+      </c>
+      <c r="Z221">
+        <f t="shared" si="104"/>
+        <v>380836.15384615387</v>
+      </c>
+      <c r="AB221" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE221">
+        <f t="shared" ref="AE221:AE229" si="105">IF(AB221=AG221,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AG221" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI221" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="222" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W222">
+        <f t="shared" si="102"/>
+        <v>2</v>
+      </c>
+      <c r="X222">
+        <f>IF(X221=0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y222">
+        <f t="shared" si="100"/>
+        <v>17</v>
+      </c>
+      <c r="Z222">
+        <f t="shared" si="104"/>
+        <v>380836.15384615387</v>
+      </c>
+      <c r="AB222" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE222">
+        <f t="shared" si="105"/>
+        <v>1</v>
+      </c>
+      <c r="AG222" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI222" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="223" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W223">
+        <f t="shared" si="102"/>
+        <v>2</v>
+      </c>
+      <c r="X223">
+        <f t="shared" ref="X223:X234" si="106">X222</f>
+        <v>1</v>
+      </c>
+      <c r="Y223">
+        <f>Y222*0</f>
+        <v>0</v>
+      </c>
+      <c r="Z223">
+        <f t="shared" si="104"/>
+        <v>380836.15384615387</v>
+      </c>
+      <c r="AB223" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE223">
+        <f t="shared" si="105"/>
+        <v>1</v>
+      </c>
+      <c r="AG223" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI223" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="224" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W224">
+        <f t="shared" si="102"/>
+        <v>2</v>
+      </c>
+      <c r="X224">
+        <f t="shared" si="106"/>
+        <v>1</v>
+      </c>
+      <c r="Y224">
+        <f>Y223+25</f>
+        <v>25</v>
+      </c>
+      <c r="Z224">
+        <f t="shared" si="104"/>
+        <v>380836.15384615387</v>
+      </c>
+      <c r="AB224" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE224">
+        <f t="shared" si="105"/>
+        <v>1</v>
+      </c>
+      <c r="AG224" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI224" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="225" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W225">
+        <f t="shared" si="102"/>
+        <v>2</v>
+      </c>
+      <c r="X225">
+        <f t="shared" si="106"/>
+        <v>1</v>
+      </c>
+      <c r="Y225">
+        <f>Y224*X224</f>
+        <v>25</v>
+      </c>
+      <c r="Z225">
+        <f t="shared" si="104"/>
+        <v>380836.15384615387</v>
+      </c>
+      <c r="AB225" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE225">
+        <f t="shared" si="105"/>
+        <v>1</v>
+      </c>
+      <c r="AG225" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI225" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="226" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W226">
+        <f t="shared" si="102"/>
+        <v>2</v>
+      </c>
+      <c r="X226">
+        <f t="shared" si="106"/>
+        <v>1</v>
+      </c>
+      <c r="Y226">
+        <f>Y225+1</f>
+        <v>26</v>
+      </c>
+      <c r="Z226">
+        <f t="shared" si="104"/>
+        <v>380836.15384615387</v>
+      </c>
+      <c r="AB226" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE226">
+        <f t="shared" si="105"/>
+        <v>1</v>
+      </c>
+      <c r="AG226" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI226" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="227" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W227">
+        <f t="shared" si="102"/>
+        <v>2</v>
+      </c>
+      <c r="X227">
+        <f t="shared" si="106"/>
+        <v>1</v>
+      </c>
+      <c r="Y227">
+        <f t="shared" ref="Y227" si="107">Y226</f>
+        <v>26</v>
+      </c>
+      <c r="Z227">
+        <f>Z226*Y226</f>
+        <v>9901740</v>
+      </c>
+      <c r="AB227" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE227">
+        <f t="shared" si="105"/>
+        <v>1</v>
+      </c>
+      <c r="AG227" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI227" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="228" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W228">
+        <f t="shared" si="102"/>
+        <v>2</v>
+      </c>
+      <c r="X228">
+        <f t="shared" si="106"/>
+        <v>1</v>
+      </c>
+      <c r="Y228">
+        <f>Y227*0</f>
+        <v>0</v>
+      </c>
+      <c r="Z228">
+        <f t="shared" ref="Z228:Z231" si="108">Z227</f>
+        <v>9901740</v>
+      </c>
+      <c r="AB228" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE228">
+        <f t="shared" si="105"/>
+        <v>1</v>
+      </c>
+      <c r="AG228" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI228" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="229" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W229">
+        <f t="shared" si="102"/>
+        <v>2</v>
+      </c>
+      <c r="X229">
+        <f t="shared" si="106"/>
+        <v>1</v>
+      </c>
+      <c r="Y229">
+        <f>Y228+W228</f>
+        <v>2</v>
+      </c>
+      <c r="Z229">
+        <f t="shared" si="108"/>
+        <v>9901740</v>
+      </c>
+      <c r="AB229" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE229">
+        <f t="shared" si="105"/>
+        <v>1</v>
+      </c>
+      <c r="AG229" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI229" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="230" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W230">
+        <f t="shared" si="102"/>
+        <v>2</v>
+      </c>
+      <c r="X230">
+        <f t="shared" si="106"/>
+        <v>1</v>
+      </c>
+      <c r="Y230">
+        <f>Y229+AD230</f>
+        <v>6</v>
+      </c>
+      <c r="Z230">
+        <f t="shared" si="108"/>
+        <v>9901740</v>
+      </c>
+      <c r="AB230" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD230" s="4">
+        <v>4</v>
+      </c>
+      <c r="AG230" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI230" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="231" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W231">
+        <f t="shared" si="102"/>
+        <v>2</v>
+      </c>
+      <c r="X231">
+        <f t="shared" si="106"/>
+        <v>1</v>
+      </c>
+      <c r="Y231">
+        <f>Y230*X230</f>
+        <v>6</v>
+      </c>
+      <c r="Z231">
+        <f t="shared" si="108"/>
+        <v>9901740</v>
+      </c>
+      <c r="AB231" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE231">
+        <f t="shared" ref="AE231:AE238" si="109">IF(AB231=AG231,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AG231" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI231" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="232" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W232">
+        <f t="shared" si="102"/>
+        <v>2</v>
+      </c>
+      <c r="X232">
+        <f t="shared" si="106"/>
+        <v>1</v>
+      </c>
+      <c r="Y232">
+        <f t="shared" ref="Y232:Y241" si="110">Y231</f>
+        <v>6</v>
+      </c>
+      <c r="Z232">
+        <f>Z231+Y231</f>
+        <v>9901746</v>
+      </c>
+      <c r="AB232" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE232">
+        <f t="shared" si="109"/>
+        <v>1</v>
+      </c>
+      <c r="AG232" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI232" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="233" spans="21:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W233" s="3">
+        <f t="shared" si="102"/>
+        <v>2</v>
+      </c>
+      <c r="X233" s="3">
+        <f t="shared" si="106"/>
+        <v>1</v>
+      </c>
+      <c r="Y233" s="3">
+        <f t="shared" si="110"/>
+        <v>6</v>
+      </c>
+      <c r="Z233" s="3">
+        <f t="shared" ref="Z233:Z237" si="111">Z232</f>
+        <v>9901746</v>
+      </c>
+    </row>
+    <row r="234" spans="21:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U234" s="2">
+        <v>2</v>
+      </c>
+      <c r="W234">
+        <f>U234</f>
+        <v>2</v>
+      </c>
+      <c r="X234">
+        <f t="shared" si="106"/>
+        <v>1</v>
+      </c>
+      <c r="Y234">
+        <f t="shared" si="110"/>
+        <v>6</v>
+      </c>
+      <c r="Z234">
+        <f t="shared" si="111"/>
+        <v>9901746</v>
+      </c>
+      <c r="AB234" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE234">
+        <f t="shared" si="109"/>
+        <v>1</v>
+      </c>
+      <c r="AG234" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI234" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="235" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W235">
+        <f t="shared" ref="W235:W252" si="112">W234</f>
+        <v>2</v>
+      </c>
+      <c r="X235">
+        <f>X234*0</f>
+        <v>0</v>
+      </c>
+      <c r="Y235">
+        <f t="shared" si="110"/>
+        <v>6</v>
+      </c>
+      <c r="Z235">
+        <f t="shared" si="111"/>
+        <v>9901746</v>
+      </c>
+      <c r="AB235" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE235">
+        <f t="shared" si="109"/>
+        <v>1</v>
+      </c>
+      <c r="AG235" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI235" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="236" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W236">
+        <f t="shared" si="112"/>
+        <v>2</v>
+      </c>
+      <c r="X236">
+        <f>X235+Z235</f>
+        <v>9901746</v>
+      </c>
+      <c r="Y236">
+        <f t="shared" si="110"/>
+        <v>6</v>
+      </c>
+      <c r="Z236">
+        <f t="shared" si="111"/>
+        <v>9901746</v>
+      </c>
+      <c r="AB236" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE236">
+        <f t="shared" si="109"/>
+        <v>1</v>
+      </c>
+      <c r="AG236" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI236" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="237" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W237">
+        <f t="shared" si="112"/>
+        <v>2</v>
+      </c>
+      <c r="X237">
+        <f>MOD(X236,26)</f>
+        <v>10</v>
+      </c>
+      <c r="Y237">
+        <f t="shared" si="110"/>
+        <v>6</v>
+      </c>
+      <c r="Z237">
+        <f t="shared" si="111"/>
+        <v>9901746</v>
+      </c>
+      <c r="AB237" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE237">
+        <f t="shared" si="109"/>
+        <v>1</v>
+      </c>
+      <c r="AG237" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI237" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="238" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W238">
+        <f t="shared" si="112"/>
+        <v>2</v>
+      </c>
+      <c r="X238">
+        <f t="shared" ref="X238" si="113">X237</f>
+        <v>10</v>
+      </c>
+      <c r="Y238">
+        <f t="shared" si="110"/>
+        <v>6</v>
+      </c>
+      <c r="Z238">
+        <f>Z237/AD238</f>
+        <v>9901746</v>
+      </c>
+      <c r="AB238" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD238" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE238">
+        <f t="shared" si="109"/>
+        <v>1</v>
+      </c>
+      <c r="AG238" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI238" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="239" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W239">
+        <f t="shared" si="112"/>
+        <v>2</v>
+      </c>
+      <c r="X239">
+        <f>X238+AD239</f>
+        <v>23</v>
+      </c>
+      <c r="Y239">
+        <f t="shared" si="110"/>
+        <v>6</v>
+      </c>
+      <c r="Z239">
+        <f t="shared" ref="Z239:Z245" si="114">Z238</f>
+        <v>9901746</v>
+      </c>
+      <c r="AB239" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD239" s="4">
+        <v>13</v>
+      </c>
+      <c r="AG239" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI239" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="240" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W240">
+        <f t="shared" si="112"/>
+        <v>2</v>
+      </c>
+      <c r="X240">
+        <f>IF(X239=W239,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y240">
+        <f t="shared" si="110"/>
+        <v>6</v>
+      </c>
+      <c r="Z240">
+        <f t="shared" si="114"/>
+        <v>9901746</v>
+      </c>
+      <c r="AB240" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE240">
+        <f t="shared" ref="AE240:AE248" si="115">IF(AB240=AG240,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AG240" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI240" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="241" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W241">
+        <f t="shared" si="112"/>
+        <v>2</v>
+      </c>
+      <c r="X241">
+        <f>IF(X240=0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y241">
+        <f t="shared" si="110"/>
+        <v>6</v>
+      </c>
+      <c r="Z241">
+        <f t="shared" si="114"/>
+        <v>9901746</v>
+      </c>
+      <c r="AB241" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE241">
+        <f t="shared" si="115"/>
+        <v>1</v>
+      </c>
+      <c r="AG241" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI241" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="242" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W242">
+        <f t="shared" si="112"/>
+        <v>2</v>
+      </c>
+      <c r="X242">
+        <f t="shared" ref="X242:X253" si="116">X241</f>
+        <v>1</v>
+      </c>
+      <c r="Y242">
+        <f>Y241*0</f>
+        <v>0</v>
+      </c>
+      <c r="Z242">
+        <f t="shared" si="114"/>
+        <v>9901746</v>
+      </c>
+      <c r="AB242" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE242">
+        <f t="shared" si="115"/>
+        <v>1</v>
+      </c>
+      <c r="AG242" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI242" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="243" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W243">
+        <f t="shared" si="112"/>
+        <v>2</v>
+      </c>
+      <c r="X243">
+        <f t="shared" si="116"/>
+        <v>1</v>
+      </c>
+      <c r="Y243">
+        <f>Y242+25</f>
+        <v>25</v>
+      </c>
+      <c r="Z243">
+        <f t="shared" si="114"/>
+        <v>9901746</v>
+      </c>
+      <c r="AB243" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE243">
+        <f t="shared" si="115"/>
+        <v>1</v>
+      </c>
+      <c r="AG243" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI243" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="244" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W244">
+        <f t="shared" si="112"/>
+        <v>2</v>
+      </c>
+      <c r="X244">
+        <f t="shared" si="116"/>
+        <v>1</v>
+      </c>
+      <c r="Y244">
+        <f>Y243*X243</f>
+        <v>25</v>
+      </c>
+      <c r="Z244">
+        <f t="shared" si="114"/>
+        <v>9901746</v>
+      </c>
+      <c r="AB244" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE244">
+        <f t="shared" si="115"/>
+        <v>1</v>
+      </c>
+      <c r="AG244" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI244" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="245" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W245">
+        <f t="shared" si="112"/>
+        <v>2</v>
+      </c>
+      <c r="X245">
+        <f t="shared" si="116"/>
+        <v>1</v>
+      </c>
+      <c r="Y245">
+        <f>Y244+1</f>
+        <v>26</v>
+      </c>
+      <c r="Z245">
+        <f t="shared" si="114"/>
+        <v>9901746</v>
+      </c>
+      <c r="AB245" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE245">
+        <f t="shared" si="115"/>
+        <v>1</v>
+      </c>
+      <c r="AG245" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI245" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="246" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W246">
+        <f t="shared" si="112"/>
+        <v>2</v>
+      </c>
+      <c r="X246">
+        <f t="shared" si="116"/>
+        <v>1</v>
+      </c>
+      <c r="Y246">
+        <f t="shared" ref="Y246" si="117">Y245</f>
+        <v>26</v>
+      </c>
+      <c r="Z246">
+        <f>Z245*Y245</f>
+        <v>257445396</v>
+      </c>
+      <c r="AB246" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE246">
+        <f t="shared" si="115"/>
+        <v>1</v>
+      </c>
+      <c r="AG246" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI246" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="247" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W247">
+        <f t="shared" si="112"/>
+        <v>2</v>
+      </c>
+      <c r="X247">
+        <f t="shared" si="116"/>
+        <v>1</v>
+      </c>
+      <c r="Y247">
+        <f>Y246*0</f>
+        <v>0</v>
+      </c>
+      <c r="Z247">
+        <f t="shared" ref="Z247:Z250" si="118">Z246</f>
+        <v>257445396</v>
+      </c>
+      <c r="AB247" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE247">
+        <f t="shared" si="115"/>
+        <v>1</v>
+      </c>
+      <c r="AG247" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI247" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="248" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W248">
+        <f t="shared" si="112"/>
+        <v>2</v>
+      </c>
+      <c r="X248">
+        <f t="shared" si="116"/>
+        <v>1</v>
+      </c>
+      <c r="Y248">
+        <f>Y247+W247</f>
+        <v>2</v>
+      </c>
+      <c r="Z248">
+        <f t="shared" si="118"/>
+        <v>257445396</v>
+      </c>
+      <c r="AB248" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE248">
+        <f t="shared" si="115"/>
+        <v>1</v>
+      </c>
+      <c r="AG248" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI248" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="249" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W249">
+        <f t="shared" si="112"/>
+        <v>2</v>
+      </c>
+      <c r="X249">
+        <f t="shared" si="116"/>
+        <v>1</v>
+      </c>
+      <c r="Y249">
+        <f>Y248+AD249</f>
+        <v>12</v>
+      </c>
+      <c r="Z249">
+        <f t="shared" si="118"/>
+        <v>257445396</v>
+      </c>
+      <c r="AB249" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD249" s="4">
+        <v>10</v>
+      </c>
+      <c r="AG249" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI249" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="250" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W250">
+        <f t="shared" si="112"/>
+        <v>2</v>
+      </c>
+      <c r="X250">
+        <f t="shared" si="116"/>
+        <v>1</v>
+      </c>
+      <c r="Y250">
+        <f>Y249*X249</f>
+        <v>12</v>
+      </c>
+      <c r="Z250">
+        <f t="shared" si="118"/>
+        <v>257445396</v>
+      </c>
+      <c r="AB250" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE250">
+        <f t="shared" ref="AE250:AE257" si="119">IF(AB250=AG250,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AG250" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI250" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="251" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W251">
+        <f t="shared" si="112"/>
+        <v>2</v>
+      </c>
+      <c r="X251">
+        <f t="shared" si="116"/>
+        <v>1</v>
+      </c>
+      <c r="Y251">
+        <f t="shared" ref="Y251:Y260" si="120">Y250</f>
+        <v>12</v>
+      </c>
+      <c r="Z251">
+        <f>Z250+Y250</f>
+        <v>257445408</v>
+      </c>
+      <c r="AB251" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE251">
+        <f t="shared" si="119"/>
+        <v>1</v>
+      </c>
+      <c r="AG251" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI251" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="252" spans="21:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W252" s="3">
+        <f t="shared" si="112"/>
+        <v>2</v>
+      </c>
+      <c r="X252" s="3">
+        <f t="shared" si="116"/>
+        <v>1</v>
+      </c>
+      <c r="Y252" s="3">
+        <f t="shared" si="120"/>
+        <v>12</v>
+      </c>
+      <c r="Z252" s="3">
+        <f t="shared" ref="Z252:Z256" si="121">Z251</f>
+        <v>257445408</v>
+      </c>
+    </row>
+    <row r="253" spans="21:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U253" s="2">
+        <v>2</v>
+      </c>
+      <c r="W253">
+        <f>U253</f>
+        <v>2</v>
+      </c>
+      <c r="X253">
+        <f t="shared" si="116"/>
+        <v>1</v>
+      </c>
+      <c r="Y253">
+        <f t="shared" si="120"/>
+        <v>12</v>
+      </c>
+      <c r="Z253">
+        <f t="shared" si="121"/>
+        <v>257445408</v>
+      </c>
+      <c r="AB253" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE253">
+        <f t="shared" si="119"/>
+        <v>1</v>
+      </c>
+      <c r="AG253" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI253" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="254" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W254">
+        <f t="shared" ref="W254:W271" si="122">W253</f>
+        <v>2</v>
+      </c>
+      <c r="X254">
+        <f>X253*0</f>
+        <v>0</v>
+      </c>
+      <c r="Y254">
+        <f t="shared" si="120"/>
+        <v>12</v>
+      </c>
+      <c r="Z254">
+        <f t="shared" si="121"/>
+        <v>257445408</v>
+      </c>
+      <c r="AB254" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE254">
+        <f t="shared" si="119"/>
+        <v>1</v>
+      </c>
+      <c r="AG254" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI254" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="255" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W255">
+        <f t="shared" si="122"/>
+        <v>2</v>
+      </c>
+      <c r="X255">
+        <f>X254+Z254</f>
+        <v>257445408</v>
+      </c>
+      <c r="Y255">
+        <f t="shared" si="120"/>
+        <v>12</v>
+      </c>
+      <c r="Z255">
+        <f t="shared" si="121"/>
+        <v>257445408</v>
+      </c>
+      <c r="AB255" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE255">
+        <f t="shared" si="119"/>
+        <v>1</v>
+      </c>
+      <c r="AG255" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI255" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="256" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="W256">
+        <f t="shared" si="122"/>
+        <v>2</v>
+      </c>
+      <c r="X256">
+        <f>MOD(X255,26)</f>
+        <v>12</v>
+      </c>
+      <c r="Y256">
+        <f t="shared" si="120"/>
+        <v>12</v>
+      </c>
+      <c r="Z256">
+        <f t="shared" si="121"/>
+        <v>257445408</v>
+      </c>
+      <c r="AB256" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE256">
+        <f t="shared" si="119"/>
+        <v>1</v>
+      </c>
+      <c r="AG256" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI256" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="257" spans="23:35" x14ac:dyDescent="0.25">
+      <c r="W257">
+        <f t="shared" si="122"/>
+        <v>2</v>
+      </c>
+      <c r="X257">
+        <f t="shared" ref="X257" si="123">X256</f>
+        <v>12</v>
+      </c>
+      <c r="Y257">
+        <f t="shared" si="120"/>
+        <v>12</v>
+      </c>
+      <c r="Z257">
+        <f>Z256/AD257</f>
+        <v>9901746.461538462</v>
+      </c>
+      <c r="AB257" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD257" s="4">
+        <v>26</v>
+      </c>
+      <c r="AE257">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="AG257" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI257" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="258" spans="23:35" x14ac:dyDescent="0.25">
+      <c r="W258">
+        <f t="shared" si="122"/>
+        <v>2</v>
+      </c>
+      <c r="X258">
+        <f>X257+AD258</f>
+        <v>1</v>
+      </c>
+      <c r="Y258">
+        <f t="shared" si="120"/>
+        <v>12</v>
+      </c>
+      <c r="Z258">
+        <f t="shared" ref="Z258:Z264" si="124">Z257</f>
+        <v>9901746.461538462</v>
+      </c>
+      <c r="AB258" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD258" s="4">
+        <v>-11</v>
+      </c>
+      <c r="AG258" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI258" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="259" spans="23:35" x14ac:dyDescent="0.25">
+      <c r="W259">
+        <f t="shared" si="122"/>
+        <v>2</v>
+      </c>
+      <c r="X259">
+        <f>IF(X258=W258,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y259">
+        <f t="shared" si="120"/>
+        <v>12</v>
+      </c>
+      <c r="Z259">
+        <f t="shared" si="124"/>
+        <v>9901746.461538462</v>
+      </c>
+      <c r="AB259" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE259">
+        <f t="shared" ref="AE259:AE270" si="125">IF(AB259=AG259,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AG259" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI259" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="260" spans="23:35" x14ac:dyDescent="0.25">
+      <c r="W260">
+        <f t="shared" si="122"/>
+        <v>2</v>
+      </c>
+      <c r="X260">
+        <f>IF(X259=0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y260">
+        <f t="shared" si="120"/>
+        <v>12</v>
+      </c>
+      <c r="Z260">
+        <f t="shared" si="124"/>
+        <v>9901746.461538462</v>
+      </c>
+      <c r="AB260" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE260">
+        <f t="shared" si="125"/>
+        <v>1</v>
+      </c>
+      <c r="AG260" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI260" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="261" spans="23:35" x14ac:dyDescent="0.25">
+      <c r="W261">
+        <f t="shared" si="122"/>
+        <v>2</v>
+      </c>
+      <c r="X261">
+        <f t="shared" ref="X261:X271" si="126">X260</f>
+        <v>1</v>
+      </c>
+      <c r="Y261">
+        <f>Y260*0</f>
+        <v>0</v>
+      </c>
+      <c r="Z261">
+        <f t="shared" si="124"/>
+        <v>9901746.461538462</v>
+      </c>
+      <c r="AB261" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE261">
+        <f t="shared" si="125"/>
+        <v>1</v>
+      </c>
+      <c r="AG261" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI261" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="262" spans="23:35" x14ac:dyDescent="0.25">
+      <c r="W262">
+        <f t="shared" si="122"/>
+        <v>2</v>
+      </c>
+      <c r="X262">
+        <f t="shared" si="126"/>
+        <v>1</v>
+      </c>
+      <c r="Y262">
+        <f>Y261+25</f>
+        <v>25</v>
+      </c>
+      <c r="Z262">
+        <f t="shared" si="124"/>
+        <v>9901746.461538462</v>
+      </c>
+      <c r="AB262" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE262">
+        <f t="shared" si="125"/>
+        <v>1</v>
+      </c>
+      <c r="AG262" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI262" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="263" spans="23:35" x14ac:dyDescent="0.25">
+      <c r="W263">
+        <f t="shared" si="122"/>
+        <v>2</v>
+      </c>
+      <c r="X263">
+        <f t="shared" si="126"/>
+        <v>1</v>
+      </c>
+      <c r="Y263">
+        <f>Y262*X262</f>
+        <v>25</v>
+      </c>
+      <c r="Z263">
+        <f t="shared" si="124"/>
+        <v>9901746.461538462</v>
+      </c>
+      <c r="AB263" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE263">
+        <f t="shared" si="125"/>
+        <v>1</v>
+      </c>
+      <c r="AG263" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI263" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="264" spans="23:35" x14ac:dyDescent="0.25">
+      <c r="W264">
+        <f t="shared" si="122"/>
+        <v>2</v>
+      </c>
+      <c r="X264">
+        <f t="shared" si="126"/>
+        <v>1</v>
+      </c>
+      <c r="Y264">
+        <f>Y263+1</f>
+        <v>26</v>
+      </c>
+      <c r="Z264">
+        <f t="shared" si="124"/>
+        <v>9901746.461538462</v>
+      </c>
+      <c r="AB264" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE264">
+        <f t="shared" si="125"/>
+        <v>1</v>
+      </c>
+      <c r="AG264" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI264" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="265" spans="23:35" x14ac:dyDescent="0.25">
+      <c r="W265">
+        <f t="shared" si="122"/>
+        <v>2</v>
+      </c>
+      <c r="X265">
+        <f t="shared" si="126"/>
+        <v>1</v>
+      </c>
+      <c r="Y265">
+        <f t="shared" ref="Y265" si="127">Y264</f>
+        <v>26</v>
+      </c>
+      <c r="Z265">
+        <f>Z264*Y264</f>
+        <v>257445408</v>
+      </c>
+      <c r="AB265" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE265">
+        <f t="shared" si="125"/>
+        <v>1</v>
+      </c>
+      <c r="AG265" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI265" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="266" spans="23:35" x14ac:dyDescent="0.25">
+      <c r="W266">
+        <f t="shared" si="122"/>
+        <v>2</v>
+      </c>
+      <c r="X266">
+        <f t="shared" si="126"/>
+        <v>1</v>
+      </c>
+      <c r="Y266">
+        <f>Y265*0</f>
+        <v>0</v>
+      </c>
+      <c r="Z266">
+        <f t="shared" ref="Z266:Z269" si="128">Z265</f>
+        <v>257445408</v>
+      </c>
+      <c r="AB266" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE266">
+        <f t="shared" si="125"/>
+        <v>1</v>
+      </c>
+      <c r="AG266" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI266" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="267" spans="23:35" x14ac:dyDescent="0.25">
+      <c r="W267">
+        <f t="shared" si="122"/>
+        <v>2</v>
+      </c>
+      <c r="X267">
+        <f t="shared" si="126"/>
+        <v>1</v>
+      </c>
+      <c r="Y267">
+        <f>Y266+W266</f>
+        <v>2</v>
+      </c>
+      <c r="Z267">
+        <f t="shared" si="128"/>
+        <v>257445408</v>
+      </c>
+      <c r="AB267" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE267">
+        <f t="shared" si="125"/>
+        <v>1</v>
+      </c>
+      <c r="AG267" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI267" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="268" spans="23:35" x14ac:dyDescent="0.25">
+      <c r="W268">
+        <f t="shared" si="122"/>
+        <v>2</v>
+      </c>
+      <c r="X268">
+        <f t="shared" si="126"/>
+        <v>1</v>
+      </c>
+      <c r="Y268">
+        <f>Y267+AD268</f>
+        <v>11</v>
+      </c>
+      <c r="Z268">
+        <f t="shared" si="128"/>
+        <v>257445408</v>
+      </c>
+      <c r="AB268" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD268" s="4">
+        <v>9</v>
+      </c>
+      <c r="AG268" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI268" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="269" spans="23:35" x14ac:dyDescent="0.25">
+      <c r="W269">
+        <f t="shared" si="122"/>
+        <v>2</v>
+      </c>
+      <c r="X269">
+        <f t="shared" si="126"/>
+        <v>1</v>
+      </c>
+      <c r="Y269">
+        <f>Y268*X268</f>
+        <v>11</v>
+      </c>
+      <c r="Z269">
+        <f t="shared" si="128"/>
+        <v>257445408</v>
+      </c>
+      <c r="AB269" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE269">
+        <f t="shared" ref="AE269:AE270" si="129">IF(AB269=AG269,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AG269" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI269" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="270" spans="23:35" x14ac:dyDescent="0.25">
+      <c r="W270">
+        <f t="shared" si="122"/>
+        <v>2</v>
+      </c>
+      <c r="X270">
+        <f t="shared" si="126"/>
+        <v>1</v>
+      </c>
+      <c r="Y270">
+        <f t="shared" ref="Y270:Y271" si="130">Y269</f>
+        <v>11</v>
+      </c>
+      <c r="Z270">
+        <f>Z269+Y269</f>
+        <v>257445419</v>
+      </c>
+      <c r="AB270" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE270">
+        <f t="shared" si="129"/>
+        <v>1</v>
+      </c>
+      <c r="AG270" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI270" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="271" spans="23:35" x14ac:dyDescent="0.25">
+      <c r="W271" s="3">
+        <f t="shared" si="122"/>
+        <v>2</v>
+      </c>
+      <c r="X271" s="3">
+        <f t="shared" si="126"/>
+        <v>1</v>
+      </c>
+      <c r="Y271" s="3">
+        <f t="shared" si="130"/>
+        <v>11</v>
+      </c>
+      <c r="Z271" s="3">
+        <f t="shared" ref="Z271" si="131">Z270</f>
+        <v>257445419</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/2021day24/alu2021day24.xlsx
+++ b/2021day24/alu2021day24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\feri\git\AdventOfCode\2021day24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E513C41-C81B-486C-9653-1146C26C46CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CDC3C7-45C7-42F3-AF90-6D2EB3E42E8E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{56EE513B-A1A9-4F6D-A498-8BB4479BB114}"/>
   </bookViews>
@@ -547,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7033259C-CD9B-4E2A-BEA6-C711622595CA}">
   <dimension ref="B4:AI271"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AD269" sqref="AD269"/>
+    <sheetView tabSelected="1" topLeftCell="A250" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Z257" sqref="Z257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="Z10">
-        <f>Z9/AD10</f>
+        <f>TRUNC(Z9/AD10,0)</f>
         <v>0</v>
       </c>
       <c r="AB10" s="4" t="s">
@@ -1193,7 +1193,7 @@
         <v>21</v>
       </c>
       <c r="Z29">
-        <f>Z28/AD29</f>
+        <f>TRUNC(Z28/AD29,0)</f>
         <v>21</v>
       </c>
       <c r="AB29" s="4" t="s">
@@ -1683,7 +1683,7 @@
         <v>17</v>
       </c>
       <c r="Z48">
-        <f>Z47/AD48</f>
+        <f>TRUNC(Z47/AD48,0)</f>
         <v>563</v>
       </c>
       <c r="AB48" s="4" t="s">
@@ -2263,7 +2263,7 @@
         <v>9</v>
       </c>
       <c r="Z67">
-        <f>Z66/AD67</f>
+        <f>TRUNC(Z66/AD67,0)</f>
         <v>14647</v>
       </c>
       <c r="AB67" t="s">
@@ -2843,8 +2843,8 @@
         <v>6</v>
       </c>
       <c r="Z86">
-        <f>Z85/AD86</f>
-        <v>14647.23076923077</v>
+        <f>TRUNC(Z85/AD86,0)</f>
+        <v>14647</v>
       </c>
       <c r="AB86" s="6" t="s">
         <v>27</v>
@@ -2878,7 +2878,7 @@
       </c>
       <c r="Z87">
         <f t="shared" ref="Z87:Z93" si="34">Z86</f>
-        <v>14647.23076923077</v>
+        <v>14647</v>
       </c>
       <c r="AB87" t="s">
         <v>28</v>
@@ -2908,7 +2908,7 @@
       </c>
       <c r="Z88">
         <f t="shared" si="34"/>
-        <v>14647.23076923077</v>
+        <v>14647</v>
       </c>
       <c r="AB88" t="s">
         <v>10</v>
@@ -2939,7 +2939,7 @@
       </c>
       <c r="Z89">
         <f t="shared" si="34"/>
-        <v>14647.23076923077</v>
+        <v>14647</v>
       </c>
       <c r="AB89" t="s">
         <v>11</v>
@@ -2970,7 +2970,7 @@
       </c>
       <c r="Z90">
         <f t="shared" si="34"/>
-        <v>14647.23076923077</v>
+        <v>14647</v>
       </c>
       <c r="AB90" t="s">
         <v>12</v>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="Z91">
         <f t="shared" si="34"/>
-        <v>14647.23076923077</v>
+        <v>14647</v>
       </c>
       <c r="AB91" t="s">
         <v>13</v>
@@ -3032,7 +3032,7 @@
       </c>
       <c r="Z92">
         <f t="shared" si="34"/>
-        <v>14647.23076923077</v>
+        <v>14647</v>
       </c>
       <c r="AB92" t="s">
         <v>14</v>
@@ -3063,7 +3063,7 @@
       </c>
       <c r="Z93">
         <f t="shared" si="34"/>
-        <v>14647.23076923077</v>
+        <v>14647</v>
       </c>
       <c r="AB93" t="s">
         <v>15</v>
@@ -3094,7 +3094,7 @@
       </c>
       <c r="Z94">
         <f>Z93*Y93</f>
-        <v>380828</v>
+        <v>380822</v>
       </c>
       <c r="AB94" t="s">
         <v>16</v>
@@ -3125,7 +3125,7 @@
       </c>
       <c r="Z95">
         <f t="shared" ref="Z95:Z98" si="38">Z94</f>
-        <v>380828</v>
+        <v>380822</v>
       </c>
       <c r="AB95" t="s">
         <v>12</v>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="Z96">
         <f t="shared" si="38"/>
-        <v>380828</v>
+        <v>380822</v>
       </c>
       <c r="AB96" t="s">
         <v>17</v>
@@ -3187,7 +3187,7 @@
       </c>
       <c r="Z97">
         <f t="shared" si="38"/>
-        <v>380828</v>
+        <v>380822</v>
       </c>
       <c r="AB97" t="s">
         <v>26</v>
@@ -3217,7 +3217,7 @@
       </c>
       <c r="Z98">
         <f t="shared" si="38"/>
-        <v>380828</v>
+        <v>380822</v>
       </c>
       <c r="AB98" t="s">
         <v>14</v>
@@ -3248,7 +3248,7 @@
       </c>
       <c r="Z99">
         <f>Z98+Y98</f>
-        <v>380834</v>
+        <v>380828</v>
       </c>
       <c r="AB99" t="s">
         <v>19</v>
@@ -3279,7 +3279,7 @@
       </c>
       <c r="Z100" s="3">
         <f t="shared" ref="Z100:Z104" si="41">Z99</f>
-        <v>380834</v>
+        <v>380828</v>
       </c>
     </row>
     <row r="101" spans="21:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3300,7 +3300,7 @@
       </c>
       <c r="Z101">
         <f t="shared" si="41"/>
-        <v>380834</v>
+        <v>380828</v>
       </c>
       <c r="AB101" t="s">
         <v>4</v>
@@ -3331,7 +3331,7 @@
       </c>
       <c r="Z102">
         <f t="shared" si="41"/>
-        <v>380834</v>
+        <v>380828</v>
       </c>
       <c r="AB102" t="s">
         <v>5</v>
@@ -3354,7 +3354,7 @@
       </c>
       <c r="X103">
         <f>X102+Z102</f>
-        <v>380834</v>
+        <v>380828</v>
       </c>
       <c r="Y103">
         <f t="shared" si="40"/>
@@ -3362,7 +3362,7 @@
       </c>
       <c r="Z103">
         <f t="shared" si="41"/>
-        <v>380834</v>
+        <v>380828</v>
       </c>
       <c r="AB103" t="s">
         <v>6</v>
@@ -3385,7 +3385,7 @@
       </c>
       <c r="X104">
         <f>MOD(X103,26)</f>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="Y104">
         <f t="shared" si="40"/>
@@ -3393,7 +3393,7 @@
       </c>
       <c r="Z104">
         <f t="shared" si="41"/>
-        <v>380834</v>
+        <v>380828</v>
       </c>
       <c r="AB104" t="s">
         <v>7</v>
@@ -3416,15 +3416,15 @@
       </c>
       <c r="X105">
         <f t="shared" ref="X105" si="43">X104</f>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="Y105">
         <f t="shared" si="40"/>
         <v>6</v>
       </c>
       <c r="Z105">
-        <f>Z104/AD105</f>
-        <v>380834</v>
+        <f>TRUNC(Z104/AD105,0)</f>
+        <v>380828</v>
       </c>
       <c r="AB105" t="s">
         <v>8</v>
@@ -3450,7 +3450,7 @@
       </c>
       <c r="X106">
         <f>X105+AD106</f>
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="Y106">
         <f t="shared" si="40"/>
@@ -3458,7 +3458,7 @@
       </c>
       <c r="Z106">
         <f t="shared" ref="Z106:Z112" si="44">Z105</f>
-        <v>380834</v>
+        <v>380828</v>
       </c>
       <c r="AB106" t="s">
         <v>29</v>
@@ -3488,7 +3488,7 @@
       </c>
       <c r="Z107">
         <f t="shared" si="44"/>
-        <v>380834</v>
+        <v>380828</v>
       </c>
       <c r="AB107" t="s">
         <v>10</v>
@@ -3519,7 +3519,7 @@
       </c>
       <c r="Z108">
         <f t="shared" si="44"/>
-        <v>380834</v>
+        <v>380828</v>
       </c>
       <c r="AB108" t="s">
         <v>11</v>
@@ -3550,7 +3550,7 @@
       </c>
       <c r="Z109">
         <f t="shared" si="44"/>
-        <v>380834</v>
+        <v>380828</v>
       </c>
       <c r="AB109" t="s">
         <v>12</v>
@@ -3581,7 +3581,7 @@
       </c>
       <c r="Z110">
         <f t="shared" si="44"/>
-        <v>380834</v>
+        <v>380828</v>
       </c>
       <c r="AB110" t="s">
         <v>13</v>
@@ -3612,7 +3612,7 @@
       </c>
       <c r="Z111">
         <f t="shared" si="44"/>
-        <v>380834</v>
+        <v>380828</v>
       </c>
       <c r="AB111" t="s">
         <v>14</v>
@@ -3643,7 +3643,7 @@
       </c>
       <c r="Z112">
         <f t="shared" si="44"/>
-        <v>380834</v>
+        <v>380828</v>
       </c>
       <c r="AB112" t="s">
         <v>15</v>
@@ -3674,7 +3674,7 @@
       </c>
       <c r="Z113">
         <f>Z112*Y112</f>
-        <v>9901684</v>
+        <v>9901528</v>
       </c>
       <c r="AB113" t="s">
         <v>16</v>
@@ -3705,7 +3705,7 @@
       </c>
       <c r="Z114">
         <f t="shared" ref="Z114:Z117" si="48">Z113</f>
-        <v>9901684</v>
+        <v>9901528</v>
       </c>
       <c r="AB114" t="s">
         <v>12</v>
@@ -3736,7 +3736,7 @@
       </c>
       <c r="Z115">
         <f t="shared" si="48"/>
-        <v>9901684</v>
+        <v>9901528</v>
       </c>
       <c r="AB115" t="s">
         <v>17</v>
@@ -3767,7 +3767,7 @@
       </c>
       <c r="Z116">
         <f t="shared" si="48"/>
-        <v>9901684</v>
+        <v>9901528</v>
       </c>
       <c r="AB116" t="s">
         <v>15</v>
@@ -3797,7 +3797,7 @@
       </c>
       <c r="Z117">
         <f t="shared" si="48"/>
-        <v>9901684</v>
+        <v>9901528</v>
       </c>
       <c r="AB117" t="s">
         <v>14</v>
@@ -3828,7 +3828,7 @@
       </c>
       <c r="Z118">
         <f>Z117+Y117</f>
-        <v>9901687</v>
+        <v>9901531</v>
       </c>
       <c r="AB118" t="s">
         <v>19</v>
@@ -3859,7 +3859,7 @@
       </c>
       <c r="Z119" s="3">
         <f t="shared" ref="Z119:Z123" si="51">Z118</f>
-        <v>9901687</v>
+        <v>9901531</v>
       </c>
     </row>
     <row r="120" spans="21:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="Z120">
         <f t="shared" si="51"/>
-        <v>9901687</v>
+        <v>9901531</v>
       </c>
       <c r="AB120" t="s">
         <v>4</v>
@@ -3911,7 +3911,7 @@
       </c>
       <c r="Z121">
         <f t="shared" si="51"/>
-        <v>9901687</v>
+        <v>9901531</v>
       </c>
       <c r="AB121" t="s">
         <v>5</v>
@@ -3934,7 +3934,7 @@
       </c>
       <c r="X122">
         <f>X121+Z121</f>
-        <v>9901687</v>
+        <v>9901531</v>
       </c>
       <c r="Y122">
         <f t="shared" si="50"/>
@@ -3942,7 +3942,7 @@
       </c>
       <c r="Z122">
         <f t="shared" si="51"/>
-        <v>9901687</v>
+        <v>9901531</v>
       </c>
       <c r="AB122" t="s">
         <v>6</v>
@@ -3973,7 +3973,7 @@
       </c>
       <c r="Z123">
         <f t="shared" si="51"/>
-        <v>9901687</v>
+        <v>9901531</v>
       </c>
       <c r="AB123" t="s">
         <v>7</v>
@@ -4003,8 +4003,8 @@
         <v>3</v>
       </c>
       <c r="Z124">
-        <f>Z123/AD124</f>
-        <v>380834.11538461538</v>
+        <f>TRUNC(Z123/AD124,0)</f>
+        <v>380828</v>
       </c>
       <c r="AB124" s="6" t="s">
         <v>27</v>
@@ -4038,7 +4038,7 @@
       </c>
       <c r="Z125">
         <f t="shared" ref="Z125:Z131" si="54">Z124</f>
-        <v>380834.11538461538</v>
+        <v>380828</v>
       </c>
       <c r="AB125" t="s">
         <v>30</v>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="Z126">
         <f t="shared" si="54"/>
-        <v>380834.11538461538</v>
+        <v>380828</v>
       </c>
       <c r="AB126" t="s">
         <v>10</v>
@@ -4099,7 +4099,7 @@
       </c>
       <c r="Z127">
         <f t="shared" si="54"/>
-        <v>380834.11538461538</v>
+        <v>380828</v>
       </c>
       <c r="AB127" t="s">
         <v>11</v>
@@ -4130,7 +4130,7 @@
       </c>
       <c r="Z128">
         <f t="shared" si="54"/>
-        <v>380834.11538461538</v>
+        <v>380828</v>
       </c>
       <c r="AB128" t="s">
         <v>12</v>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="Z129">
         <f t="shared" si="54"/>
-        <v>380834.11538461538</v>
+        <v>380828</v>
       </c>
       <c r="AB129" t="s">
         <v>13</v>
@@ -4192,7 +4192,7 @@
       </c>
       <c r="Z130">
         <f t="shared" si="54"/>
-        <v>380834.11538461538</v>
+        <v>380828</v>
       </c>
       <c r="AB130" t="s">
         <v>14</v>
@@ -4223,7 +4223,7 @@
       </c>
       <c r="Z131">
         <f t="shared" si="54"/>
-        <v>380834.11538461538</v>
+        <v>380828</v>
       </c>
       <c r="AB131" t="s">
         <v>15</v>
@@ -4254,7 +4254,7 @@
       </c>
       <c r="Z132">
         <f>Z131*Y131</f>
-        <v>380834.11538461538</v>
+        <v>380828</v>
       </c>
       <c r="AB132" t="s">
         <v>16</v>
@@ -4285,7 +4285,7 @@
       </c>
       <c r="Z133">
         <f t="shared" ref="Z133:Z136" si="58">Z132</f>
-        <v>380834.11538461538</v>
+        <v>380828</v>
       </c>
       <c r="AB133" t="s">
         <v>12</v>
@@ -4316,7 +4316,7 @@
       </c>
       <c r="Z134">
         <f t="shared" si="58"/>
-        <v>380834.11538461538</v>
+        <v>380828</v>
       </c>
       <c r="AB134" t="s">
         <v>17</v>
@@ -4347,7 +4347,7 @@
       </c>
       <c r="Z135">
         <f t="shared" si="58"/>
-        <v>380834.11538461538</v>
+        <v>380828</v>
       </c>
       <c r="AB135" t="s">
         <v>31</v>
@@ -4377,7 +4377,7 @@
       </c>
       <c r="Z136">
         <f t="shared" si="58"/>
-        <v>380834.11538461538</v>
+        <v>380828</v>
       </c>
       <c r="AB136" t="s">
         <v>14</v>
@@ -4408,7 +4408,7 @@
       </c>
       <c r="Z137">
         <f>Z136+Y136</f>
-        <v>380834.11538461538</v>
+        <v>380828</v>
       </c>
       <c r="AB137" t="s">
         <v>19</v>
@@ -4439,7 +4439,7 @@
       </c>
       <c r="Z138" s="3">
         <f t="shared" ref="Z138:Z142" si="61">Z137</f>
-        <v>380834.11538461538</v>
+        <v>380828</v>
       </c>
     </row>
     <row r="139" spans="21:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4460,7 +4460,7 @@
       </c>
       <c r="Z139">
         <f t="shared" si="61"/>
-        <v>380834.11538461538</v>
+        <v>380828</v>
       </c>
       <c r="AB139" t="s">
         <v>4</v>
@@ -4491,7 +4491,7 @@
       </c>
       <c r="Z140">
         <f t="shared" si="61"/>
-        <v>380834.11538461538</v>
+        <v>380828</v>
       </c>
       <c r="AB140" t="s">
         <v>5</v>
@@ -4514,7 +4514,7 @@
       </c>
       <c r="X141">
         <f>X140+Z140</f>
-        <v>380834.11538461538</v>
+        <v>380828</v>
       </c>
       <c r="Y141">
         <f t="shared" si="60"/>
@@ -4522,7 +4522,7 @@
       </c>
       <c r="Z141">
         <f t="shared" si="61"/>
-        <v>380834.11538461538</v>
+        <v>380828</v>
       </c>
       <c r="AB141" t="s">
         <v>6</v>
@@ -4545,7 +4545,7 @@
       </c>
       <c r="X142">
         <f>MOD(X141,26)</f>
-        <v>12.11538461537566</v>
+        <v>6</v>
       </c>
       <c r="Y142">
         <f t="shared" si="60"/>
@@ -4553,7 +4553,7 @@
       </c>
       <c r="Z142">
         <f t="shared" si="61"/>
-        <v>380834.11538461538</v>
+        <v>380828</v>
       </c>
       <c r="AB142" t="s">
         <v>7</v>
@@ -4576,15 +4576,15 @@
       </c>
       <c r="X143">
         <f t="shared" ref="X143" si="63">X142</f>
-        <v>12.11538461537566</v>
+        <v>6</v>
       </c>
       <c r="Y143">
         <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="Z143">
-        <f>Z142/AD143</f>
-        <v>380834.11538461538</v>
+        <f>TRUNC(Z142/AD143,0)</f>
+        <v>380828</v>
       </c>
       <c r="AB143" t="s">
         <v>8</v>
@@ -4610,7 +4610,7 @@
       </c>
       <c r="X144">
         <f>X143+AD144</f>
-        <v>22.11538461537566</v>
+        <v>16</v>
       </c>
       <c r="Y144">
         <f t="shared" si="60"/>
@@ -4618,7 +4618,7 @@
       </c>
       <c r="Z144">
         <f t="shared" ref="Z144:Z150" si="64">Z143</f>
-        <v>380834.11538461538</v>
+        <v>380828</v>
       </c>
       <c r="AB144" t="s">
         <v>32</v>
@@ -4648,7 +4648,7 @@
       </c>
       <c r="Z145">
         <f t="shared" si="64"/>
-        <v>380834.11538461538</v>
+        <v>380828</v>
       </c>
       <c r="AB145" t="s">
         <v>10</v>
@@ -4679,7 +4679,7 @@
       </c>
       <c r="Z146">
         <f t="shared" si="64"/>
-        <v>380834.11538461538</v>
+        <v>380828</v>
       </c>
       <c r="AB146" t="s">
         <v>11</v>
@@ -4710,7 +4710,7 @@
       </c>
       <c r="Z147">
         <f t="shared" si="64"/>
-        <v>380834.11538461538</v>
+        <v>380828</v>
       </c>
       <c r="AB147" t="s">
         <v>12</v>
@@ -4741,7 +4741,7 @@
       </c>
       <c r="Z148">
         <f t="shared" si="64"/>
-        <v>380834.11538461538</v>
+        <v>380828</v>
       </c>
       <c r="AB148" t="s">
         <v>13</v>
@@ -4772,7 +4772,7 @@
       </c>
       <c r="Z149">
         <f t="shared" si="64"/>
-        <v>380834.11538461538</v>
+        <v>380828</v>
       </c>
       <c r="AB149" t="s">
         <v>14</v>
@@ -4803,7 +4803,7 @@
       </c>
       <c r="Z150">
         <f t="shared" si="64"/>
-        <v>380834.11538461538</v>
+        <v>380828</v>
       </c>
       <c r="AB150" t="s">
         <v>15</v>
@@ -4834,7 +4834,7 @@
       </c>
       <c r="Z151">
         <f>Z150*Y150</f>
-        <v>9901687</v>
+        <v>9901528</v>
       </c>
       <c r="AB151" t="s">
         <v>16</v>
@@ -4865,7 +4865,7 @@
       </c>
       <c r="Z152">
         <f t="shared" ref="Z152:Z155" si="68">Z151</f>
-        <v>9901687</v>
+        <v>9901528</v>
       </c>
       <c r="AB152" t="s">
         <v>12</v>
@@ -4896,7 +4896,7 @@
       </c>
       <c r="Z153">
         <f t="shared" si="68"/>
-        <v>9901687</v>
+        <v>9901528</v>
       </c>
       <c r="AB153" t="s">
         <v>17</v>
@@ -4927,7 +4927,7 @@
       </c>
       <c r="Z154">
         <f t="shared" si="68"/>
-        <v>9901687</v>
+        <v>9901528</v>
       </c>
       <c r="AB154" t="s">
         <v>22</v>
@@ -4957,7 +4957,7 @@
       </c>
       <c r="Z155">
         <f t="shared" si="68"/>
-        <v>9901687</v>
+        <v>9901528</v>
       </c>
       <c r="AB155" t="s">
         <v>14</v>
@@ -4988,7 +4988,7 @@
       </c>
       <c r="Z156">
         <f>Z155+Y155</f>
-        <v>9901697</v>
+        <v>9901538</v>
       </c>
       <c r="AB156" t="s">
         <v>19</v>
@@ -5019,7 +5019,7 @@
       </c>
       <c r="Z157" s="3">
         <f t="shared" ref="Z157:Z161" si="71">Z156</f>
-        <v>9901697</v>
+        <v>9901538</v>
       </c>
     </row>
     <row r="158" spans="21:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5040,7 +5040,7 @@
       </c>
       <c r="Z158">
         <f t="shared" si="71"/>
-        <v>9901697</v>
+        <v>9901538</v>
       </c>
       <c r="AB158" t="s">
         <v>4</v>
@@ -5071,7 +5071,7 @@
       </c>
       <c r="Z159">
         <f t="shared" si="71"/>
-        <v>9901697</v>
+        <v>9901538</v>
       </c>
       <c r="AB159" t="s">
         <v>5</v>
@@ -5094,7 +5094,7 @@
       </c>
       <c r="X160">
         <f>X159+Z159</f>
-        <v>9901697</v>
+        <v>9901538</v>
       </c>
       <c r="Y160">
         <f t="shared" si="70"/>
@@ -5102,7 +5102,7 @@
       </c>
       <c r="Z160">
         <f t="shared" si="71"/>
-        <v>9901697</v>
+        <v>9901538</v>
       </c>
       <c r="AB160" t="s">
         <v>6</v>
@@ -5125,7 +5125,7 @@
       </c>
       <c r="X161">
         <f>MOD(X160,26)</f>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Y161">
         <f t="shared" si="70"/>
@@ -5133,7 +5133,7 @@
       </c>
       <c r="Z161">
         <f t="shared" si="71"/>
-        <v>9901697</v>
+        <v>9901538</v>
       </c>
       <c r="AB161" t="s">
         <v>7</v>
@@ -5156,15 +5156,15 @@
       </c>
       <c r="X162">
         <f t="shared" ref="X162" si="73">X161</f>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Y162">
         <f t="shared" si="70"/>
         <v>10</v>
       </c>
       <c r="Z162">
-        <f>Z161/AD162</f>
-        <v>380834.5</v>
+        <f>TRUNC(Z161/AD162,0)</f>
+        <v>380828</v>
       </c>
       <c r="AB162" s="6" t="s">
         <v>27</v>
@@ -5190,7 +5190,7 @@
       </c>
       <c r="X163">
         <f>X162+AD163</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Y163">
         <f t="shared" si="70"/>
@@ -5198,7 +5198,7 @@
       </c>
       <c r="Z163">
         <f t="shared" ref="Z163:Z169" si="74">Z162</f>
-        <v>380834.5</v>
+        <v>380828</v>
       </c>
       <c r="AB163" t="s">
         <v>33</v>
@@ -5228,7 +5228,7 @@
       </c>
       <c r="Z164">
         <f t="shared" si="74"/>
-        <v>380834.5</v>
+        <v>380828</v>
       </c>
       <c r="AB164" t="s">
         <v>10</v>
@@ -5259,7 +5259,7 @@
       </c>
       <c r="Z165">
         <f t="shared" si="74"/>
-        <v>380834.5</v>
+        <v>380828</v>
       </c>
       <c r="AB165" t="s">
         <v>11</v>
@@ -5290,7 +5290,7 @@
       </c>
       <c r="Z166">
         <f t="shared" si="74"/>
-        <v>380834.5</v>
+        <v>380828</v>
       </c>
       <c r="AB166" t="s">
         <v>12</v>
@@ -5321,7 +5321,7 @@
       </c>
       <c r="Z167">
         <f t="shared" si="74"/>
-        <v>380834.5</v>
+        <v>380828</v>
       </c>
       <c r="AB167" t="s">
         <v>13</v>
@@ -5352,7 +5352,7 @@
       </c>
       <c r="Z168">
         <f t="shared" si="74"/>
-        <v>380834.5</v>
+        <v>380828</v>
       </c>
       <c r="AB168" t="s">
         <v>14</v>
@@ -5383,7 +5383,7 @@
       </c>
       <c r="Z169">
         <f t="shared" si="74"/>
-        <v>380834.5</v>
+        <v>380828</v>
       </c>
       <c r="AB169" t="s">
         <v>15</v>
@@ -5414,7 +5414,7 @@
       </c>
       <c r="Z170">
         <f>Z169*Y169</f>
-        <v>9901697</v>
+        <v>9901528</v>
       </c>
       <c r="AB170" t="s">
         <v>16</v>
@@ -5445,7 +5445,7 @@
       </c>
       <c r="Z171">
         <f t="shared" ref="Z171:Z174" si="78">Z170</f>
-        <v>9901697</v>
+        <v>9901528</v>
       </c>
       <c r="AB171" t="s">
         <v>12</v>
@@ -5476,7 +5476,7 @@
       </c>
       <c r="Z172">
         <f t="shared" si="78"/>
-        <v>9901697</v>
+        <v>9901528</v>
       </c>
       <c r="AB172" t="s">
         <v>17</v>
@@ -5507,7 +5507,7 @@
       </c>
       <c r="Z173">
         <f t="shared" si="78"/>
-        <v>9901697</v>
+        <v>9901528</v>
       </c>
       <c r="AB173" t="s">
         <v>18</v>
@@ -5537,7 +5537,7 @@
       </c>
       <c r="Z174">
         <f t="shared" si="78"/>
-        <v>9901697</v>
+        <v>9901528</v>
       </c>
       <c r="AB174" t="s">
         <v>14</v>
@@ -5568,7 +5568,7 @@
       </c>
       <c r="Z175">
         <f>Z174+Y174</f>
-        <v>9901711</v>
+        <v>9901542</v>
       </c>
       <c r="AB175" t="s">
         <v>19</v>
@@ -5599,7 +5599,7 @@
       </c>
       <c r="Z176" s="3">
         <f t="shared" ref="Z176:Z180" si="81">Z175</f>
-        <v>9901711</v>
+        <v>9901542</v>
       </c>
     </row>
     <row r="177" spans="21:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5620,7 +5620,7 @@
       </c>
       <c r="Z177">
         <f t="shared" si="81"/>
-        <v>9901711</v>
+        <v>9901542</v>
       </c>
       <c r="AB177" t="s">
         <v>4</v>
@@ -5651,7 +5651,7 @@
       </c>
       <c r="Z178">
         <f t="shared" si="81"/>
-        <v>9901711</v>
+        <v>9901542</v>
       </c>
       <c r="AB178" t="s">
         <v>5</v>
@@ -5674,7 +5674,7 @@
       </c>
       <c r="X179">
         <f>X178+Z178</f>
-        <v>9901711</v>
+        <v>9901542</v>
       </c>
       <c r="Y179">
         <f t="shared" si="80"/>
@@ -5682,7 +5682,7 @@
       </c>
       <c r="Z179">
         <f t="shared" si="81"/>
-        <v>9901711</v>
+        <v>9901542</v>
       </c>
       <c r="AB179" t="s">
         <v>6</v>
@@ -5705,7 +5705,7 @@
       </c>
       <c r="X180">
         <f>MOD(X179,26)</f>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="Y180">
         <f t="shared" si="80"/>
@@ -5713,7 +5713,7 @@
       </c>
       <c r="Z180">
         <f t="shared" si="81"/>
-        <v>9901711</v>
+        <v>9901542</v>
       </c>
       <c r="AB180" t="s">
         <v>7</v>
@@ -5736,15 +5736,15 @@
       </c>
       <c r="X181">
         <f t="shared" ref="X181" si="83">X180</f>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="Y181">
         <f t="shared" si="80"/>
         <v>14</v>
       </c>
       <c r="Z181">
-        <f>Z180/AD181</f>
-        <v>380835.03846153844</v>
+        <f>TRUNC(Z180/AD181,0)</f>
+        <v>380828</v>
       </c>
       <c r="AB181" s="6" t="s">
         <v>27</v>
@@ -5770,7 +5770,7 @@
       </c>
       <c r="X182">
         <f>X181+AD182</f>
-        <v>-3</v>
+        <v>10</v>
       </c>
       <c r="Y182">
         <f t="shared" si="80"/>
@@ -5778,7 +5778,7 @@
       </c>
       <c r="Z182">
         <f t="shared" ref="Z182:Z188" si="84">Z181</f>
-        <v>380835.03846153844</v>
+        <v>380828</v>
       </c>
       <c r="AB182" t="s">
         <v>34</v>
@@ -5808,7 +5808,7 @@
       </c>
       <c r="Z183">
         <f t="shared" si="84"/>
-        <v>380835.03846153844</v>
+        <v>380828</v>
       </c>
       <c r="AB183" t="s">
         <v>10</v>
@@ -5839,7 +5839,7 @@
       </c>
       <c r="Z184">
         <f t="shared" si="84"/>
-        <v>380835.03846153844</v>
+        <v>380828</v>
       </c>
       <c r="AB184" t="s">
         <v>11</v>
@@ -5870,7 +5870,7 @@
       </c>
       <c r="Z185">
         <f t="shared" si="84"/>
-        <v>380835.03846153844</v>
+        <v>380828</v>
       </c>
       <c r="AB185" t="s">
         <v>12</v>
@@ -5901,7 +5901,7 @@
       </c>
       <c r="Z186">
         <f t="shared" si="84"/>
-        <v>380835.03846153844</v>
+        <v>380828</v>
       </c>
       <c r="AB186" t="s">
         <v>13</v>
@@ -5932,7 +5932,7 @@
       </c>
       <c r="Z187">
         <f t="shared" si="84"/>
-        <v>380835.03846153844</v>
+        <v>380828</v>
       </c>
       <c r="AB187" t="s">
         <v>14</v>
@@ -5963,7 +5963,7 @@
       </c>
       <c r="Z188">
         <f t="shared" si="84"/>
-        <v>380835.03846153844</v>
+        <v>380828</v>
       </c>
       <c r="AB188" t="s">
         <v>15</v>
@@ -5994,7 +5994,7 @@
       </c>
       <c r="Z189">
         <f>Z188*Y188</f>
-        <v>9901711</v>
+        <v>9901528</v>
       </c>
       <c r="AB189" t="s">
         <v>16</v>
@@ -6025,7 +6025,7 @@
       </c>
       <c r="Z190">
         <f t="shared" ref="Z190:Z193" si="88">Z189</f>
-        <v>9901711</v>
+        <v>9901528</v>
       </c>
       <c r="AB190" t="s">
         <v>12</v>
@@ -6056,7 +6056,7 @@
       </c>
       <c r="Z191">
         <f t="shared" si="88"/>
-        <v>9901711</v>
+        <v>9901528</v>
       </c>
       <c r="AB191" t="s">
         <v>17</v>
@@ -6087,7 +6087,7 @@
       </c>
       <c r="Z192">
         <f t="shared" si="88"/>
-        <v>9901711</v>
+        <v>9901528</v>
       </c>
       <c r="AB192" t="s">
         <v>31</v>
@@ -6117,7 +6117,7 @@
       </c>
       <c r="Z193">
         <f t="shared" si="88"/>
-        <v>9901711</v>
+        <v>9901528</v>
       </c>
       <c r="AB193" t="s">
         <v>14</v>
@@ -6148,7 +6148,7 @@
       </c>
       <c r="Z194">
         <f>Z193+Y193</f>
-        <v>9901723</v>
+        <v>9901540</v>
       </c>
       <c r="AB194" t="s">
         <v>19</v>
@@ -6179,7 +6179,7 @@
       </c>
       <c r="Z195" s="3">
         <f t="shared" ref="Z195:Z199" si="91">Z194</f>
-        <v>9901723</v>
+        <v>9901540</v>
       </c>
     </row>
     <row r="196" spans="21:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6200,7 +6200,7 @@
       </c>
       <c r="Z196">
         <f t="shared" si="91"/>
-        <v>9901723</v>
+        <v>9901540</v>
       </c>
       <c r="AB196" t="s">
         <v>4</v>
@@ -6231,7 +6231,7 @@
       </c>
       <c r="Z197">
         <f t="shared" si="91"/>
-        <v>9901723</v>
+        <v>9901540</v>
       </c>
       <c r="AB197" t="s">
         <v>5</v>
@@ -6254,7 +6254,7 @@
       </c>
       <c r="X198">
         <f>X197+Z197</f>
-        <v>9901723</v>
+        <v>9901540</v>
       </c>
       <c r="Y198">
         <f t="shared" si="90"/>
@@ -6262,7 +6262,7 @@
       </c>
       <c r="Z198">
         <f t="shared" si="91"/>
-        <v>9901723</v>
+        <v>9901540</v>
       </c>
       <c r="AB198" t="s">
         <v>6</v>
@@ -6285,7 +6285,7 @@
       </c>
       <c r="X199">
         <f>MOD(X198,26)</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y199">
         <f t="shared" si="90"/>
@@ -6293,7 +6293,7 @@
       </c>
       <c r="Z199">
         <f t="shared" si="91"/>
-        <v>9901723</v>
+        <v>9901540</v>
       </c>
       <c r="AB199" t="s">
         <v>7</v>
@@ -6316,15 +6316,15 @@
       </c>
       <c r="X200">
         <f t="shared" ref="X200" si="93">X199</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y200">
         <f t="shared" si="90"/>
         <v>12</v>
       </c>
       <c r="Z200">
-        <f>Z199/AD200</f>
-        <v>380835.5</v>
+        <f>TRUNC(Z199/AD200,0)</f>
+        <v>380828</v>
       </c>
       <c r="AB200" s="6" t="s">
         <v>27</v>
@@ -6350,7 +6350,7 @@
       </c>
       <c r="X201">
         <f>X200+AD201</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y201">
         <f t="shared" si="90"/>
@@ -6358,7 +6358,7 @@
       </c>
       <c r="Z201">
         <f t="shared" ref="Z201:Z207" si="94">Z200</f>
-        <v>380835.5</v>
+        <v>380828</v>
       </c>
       <c r="AB201" t="s">
         <v>35</v>
@@ -6388,7 +6388,7 @@
       </c>
       <c r="Z202">
         <f t="shared" si="94"/>
-        <v>380835.5</v>
+        <v>380828</v>
       </c>
       <c r="AB202" t="s">
         <v>10</v>
@@ -6419,7 +6419,7 @@
       </c>
       <c r="Z203">
         <f t="shared" si="94"/>
-        <v>380835.5</v>
+        <v>380828</v>
       </c>
       <c r="AB203" t="s">
         <v>11</v>
@@ -6450,7 +6450,7 @@
       </c>
       <c r="Z204">
         <f t="shared" si="94"/>
-        <v>380835.5</v>
+        <v>380828</v>
       </c>
       <c r="AB204" t="s">
         <v>12</v>
@@ -6481,7 +6481,7 @@
       </c>
       <c r="Z205">
         <f t="shared" si="94"/>
-        <v>380835.5</v>
+        <v>380828</v>
       </c>
       <c r="AB205" t="s">
         <v>13</v>
@@ -6512,7 +6512,7 @@
       </c>
       <c r="Z206">
         <f t="shared" si="94"/>
-        <v>380835.5</v>
+        <v>380828</v>
       </c>
       <c r="AB206" t="s">
         <v>14</v>
@@ -6543,7 +6543,7 @@
       </c>
       <c r="Z207">
         <f t="shared" si="94"/>
-        <v>380835.5</v>
+        <v>380828</v>
       </c>
       <c r="AB207" t="s">
         <v>15</v>
@@ -6574,7 +6574,7 @@
       </c>
       <c r="Z208">
         <f>Z207*Y207</f>
-        <v>9901723</v>
+        <v>9901528</v>
       </c>
       <c r="AB208" t="s">
         <v>16</v>
@@ -6605,7 +6605,7 @@
       </c>
       <c r="Z209">
         <f t="shared" ref="Z209:Z212" si="98">Z208</f>
-        <v>9901723</v>
+        <v>9901528</v>
       </c>
       <c r="AB209" t="s">
         <v>12</v>
@@ -6636,7 +6636,7 @@
       </c>
       <c r="Z210">
         <f t="shared" si="98"/>
-        <v>9901723</v>
+        <v>9901528</v>
       </c>
       <c r="AB210" t="s">
         <v>17</v>
@@ -6667,7 +6667,7 @@
       </c>
       <c r="Z211">
         <f t="shared" si="98"/>
-        <v>9901723</v>
+        <v>9901528</v>
       </c>
       <c r="AB211" t="s">
         <v>36</v>
@@ -6697,7 +6697,7 @@
       </c>
       <c r="Z212">
         <f t="shared" si="98"/>
-        <v>9901723</v>
+        <v>9901528</v>
       </c>
       <c r="AB212" t="s">
         <v>14</v>
@@ -6728,7 +6728,7 @@
       </c>
       <c r="Z213">
         <f>Z212+Y212</f>
-        <v>9901740</v>
+        <v>9901545</v>
       </c>
       <c r="AB213" t="s">
         <v>19</v>
@@ -6759,7 +6759,7 @@
       </c>
       <c r="Z214" s="3">
         <f t="shared" ref="Z214:Z218" si="101">Z213</f>
-        <v>9901740</v>
+        <v>9901545</v>
       </c>
     </row>
     <row r="215" spans="21:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6780,7 +6780,7 @@
       </c>
       <c r="Z215">
         <f t="shared" si="101"/>
-        <v>9901740</v>
+        <v>9901545</v>
       </c>
       <c r="AB215" t="s">
         <v>4</v>
@@ -6811,7 +6811,7 @@
       </c>
       <c r="Z216">
         <f t="shared" si="101"/>
-        <v>9901740</v>
+        <v>9901545</v>
       </c>
       <c r="AB216" t="s">
         <v>5</v>
@@ -6834,7 +6834,7 @@
       </c>
       <c r="X217">
         <f>X216+Z216</f>
-        <v>9901740</v>
+        <v>9901545</v>
       </c>
       <c r="Y217">
         <f t="shared" si="100"/>
@@ -6842,7 +6842,7 @@
       </c>
       <c r="Z217">
         <f t="shared" si="101"/>
-        <v>9901740</v>
+        <v>9901545</v>
       </c>
       <c r="AB217" t="s">
         <v>6</v>
@@ -6865,7 +6865,7 @@
       </c>
       <c r="X218">
         <f>MOD(X217,26)</f>
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="Y218">
         <f t="shared" si="100"/>
@@ -6873,7 +6873,7 @@
       </c>
       <c r="Z218">
         <f t="shared" si="101"/>
-        <v>9901740</v>
+        <v>9901545</v>
       </c>
       <c r="AB218" t="s">
         <v>7</v>
@@ -6896,15 +6896,15 @@
       </c>
       <c r="X219">
         <f t="shared" ref="X219" si="103">X218</f>
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="Y219">
         <f t="shared" si="100"/>
         <v>17</v>
       </c>
       <c r="Z219">
-        <f>Z218/AD219</f>
-        <v>380836.15384615387</v>
+        <f>TRUNC(Z218/AD219,0)</f>
+        <v>380828</v>
       </c>
       <c r="AB219" s="6" t="s">
         <v>27</v>
@@ -6930,7 +6930,7 @@
       </c>
       <c r="X220">
         <f>X219+AD220</f>
-        <v>-4</v>
+        <v>9</v>
       </c>
       <c r="Y220">
         <f t="shared" si="100"/>
@@ -6938,7 +6938,7 @@
       </c>
       <c r="Z220">
         <f t="shared" ref="Z220:Z226" si="104">Z219</f>
-        <v>380836.15384615387</v>
+        <v>380828</v>
       </c>
       <c r="AB220" t="s">
         <v>37</v>
@@ -6968,7 +6968,7 @@
       </c>
       <c r="Z221">
         <f t="shared" si="104"/>
-        <v>380836.15384615387</v>
+        <v>380828</v>
       </c>
       <c r="AB221" t="s">
         <v>10</v>
@@ -6999,7 +6999,7 @@
       </c>
       <c r="Z222">
         <f t="shared" si="104"/>
-        <v>380836.15384615387</v>
+        <v>380828</v>
       </c>
       <c r="AB222" t="s">
         <v>11</v>
@@ -7030,7 +7030,7 @@
       </c>
       <c r="Z223">
         <f t="shared" si="104"/>
-        <v>380836.15384615387</v>
+        <v>380828</v>
       </c>
       <c r="AB223" t="s">
         <v>12</v>
@@ -7061,7 +7061,7 @@
       </c>
       <c r="Z224">
         <f t="shared" si="104"/>
-        <v>380836.15384615387</v>
+        <v>380828</v>
       </c>
       <c r="AB224" t="s">
         <v>13</v>
@@ -7092,7 +7092,7 @@
       </c>
       <c r="Z225">
         <f t="shared" si="104"/>
-        <v>380836.15384615387</v>
+        <v>380828</v>
       </c>
       <c r="AB225" t="s">
         <v>14</v>
@@ -7123,7 +7123,7 @@
       </c>
       <c r="Z226">
         <f t="shared" si="104"/>
-        <v>380836.15384615387</v>
+        <v>380828</v>
       </c>
       <c r="AB226" t="s">
         <v>15</v>
@@ -7154,7 +7154,7 @@
       </c>
       <c r="Z227">
         <f>Z226*Y226</f>
-        <v>9901740</v>
+        <v>9901528</v>
       </c>
       <c r="AB227" t="s">
         <v>16</v>
@@ -7185,7 +7185,7 @@
       </c>
       <c r="Z228">
         <f t="shared" ref="Z228:Z231" si="108">Z227</f>
-        <v>9901740</v>
+        <v>9901528</v>
       </c>
       <c r="AB228" t="s">
         <v>12</v>
@@ -7216,7 +7216,7 @@
       </c>
       <c r="Z229">
         <f t="shared" si="108"/>
-        <v>9901740</v>
+        <v>9901528</v>
       </c>
       <c r="AB229" t="s">
         <v>17</v>
@@ -7247,7 +7247,7 @@
       </c>
       <c r="Z230">
         <f t="shared" si="108"/>
-        <v>9901740</v>
+        <v>9901528</v>
       </c>
       <c r="AB230" t="s">
         <v>26</v>
@@ -7277,7 +7277,7 @@
       </c>
       <c r="Z231">
         <f t="shared" si="108"/>
-        <v>9901740</v>
+        <v>9901528</v>
       </c>
       <c r="AB231" t="s">
         <v>14</v>
@@ -7308,7 +7308,7 @@
       </c>
       <c r="Z232">
         <f>Z231+Y231</f>
-        <v>9901746</v>
+        <v>9901534</v>
       </c>
       <c r="AB232" t="s">
         <v>19</v>
@@ -7339,7 +7339,7 @@
       </c>
       <c r="Z233" s="3">
         <f t="shared" ref="Z233:Z237" si="111">Z232</f>
-        <v>9901746</v>
+        <v>9901534</v>
       </c>
     </row>
     <row r="234" spans="21:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7360,7 +7360,7 @@
       </c>
       <c r="Z234">
         <f t="shared" si="111"/>
-        <v>9901746</v>
+        <v>9901534</v>
       </c>
       <c r="AB234" t="s">
         <v>4</v>
@@ -7391,7 +7391,7 @@
       </c>
       <c r="Z235">
         <f t="shared" si="111"/>
-        <v>9901746</v>
+        <v>9901534</v>
       </c>
       <c r="AB235" t="s">
         <v>5</v>
@@ -7414,7 +7414,7 @@
       </c>
       <c r="X236">
         <f>X235+Z235</f>
-        <v>9901746</v>
+        <v>9901534</v>
       </c>
       <c r="Y236">
         <f t="shared" si="110"/>
@@ -7422,7 +7422,7 @@
       </c>
       <c r="Z236">
         <f t="shared" si="111"/>
-        <v>9901746</v>
+        <v>9901534</v>
       </c>
       <c r="AB236" t="s">
         <v>6</v>
@@ -7445,7 +7445,7 @@
       </c>
       <c r="X237">
         <f>MOD(X236,26)</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Y237">
         <f t="shared" si="110"/>
@@ -7453,7 +7453,7 @@
       </c>
       <c r="Z237">
         <f t="shared" si="111"/>
-        <v>9901746</v>
+        <v>9901534</v>
       </c>
       <c r="AB237" t="s">
         <v>7</v>
@@ -7476,15 +7476,15 @@
       </c>
       <c r="X238">
         <f t="shared" ref="X238" si="113">X237</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Y238">
         <f t="shared" si="110"/>
         <v>6</v>
       </c>
       <c r="Z238">
-        <f>Z237/AD238</f>
-        <v>9901746</v>
+        <f>TRUNC(Z237/AD238,0)</f>
+        <v>9901534</v>
       </c>
       <c r="AB238" t="s">
         <v>8</v>
@@ -7510,7 +7510,7 @@
       </c>
       <c r="X239">
         <f>X238+AD239</f>
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="Y239">
         <f t="shared" si="110"/>
@@ -7518,7 +7518,7 @@
       </c>
       <c r="Z239">
         <f t="shared" ref="Z239:Z245" si="114">Z238</f>
-        <v>9901746</v>
+        <v>9901534</v>
       </c>
       <c r="AB239" t="s">
         <v>38</v>
@@ -7548,7 +7548,7 @@
       </c>
       <c r="Z240">
         <f t="shared" si="114"/>
-        <v>9901746</v>
+        <v>9901534</v>
       </c>
       <c r="AB240" t="s">
         <v>10</v>
@@ -7579,7 +7579,7 @@
       </c>
       <c r="Z241">
         <f t="shared" si="114"/>
-        <v>9901746</v>
+        <v>9901534</v>
       </c>
       <c r="AB241" t="s">
         <v>11</v>
@@ -7610,7 +7610,7 @@
       </c>
       <c r="Z242">
         <f t="shared" si="114"/>
-        <v>9901746</v>
+        <v>9901534</v>
       </c>
       <c r="AB242" t="s">
         <v>12</v>
@@ -7641,7 +7641,7 @@
       </c>
       <c r="Z243">
         <f t="shared" si="114"/>
-        <v>9901746</v>
+        <v>9901534</v>
       </c>
       <c r="AB243" t="s">
         <v>13</v>
@@ -7672,7 +7672,7 @@
       </c>
       <c r="Z244">
         <f t="shared" si="114"/>
-        <v>9901746</v>
+        <v>9901534</v>
       </c>
       <c r="AB244" t="s">
         <v>14</v>
@@ -7703,7 +7703,7 @@
       </c>
       <c r="Z245">
         <f t="shared" si="114"/>
-        <v>9901746</v>
+        <v>9901534</v>
       </c>
       <c r="AB245" t="s">
         <v>15</v>
@@ -7734,7 +7734,7 @@
       </c>
       <c r="Z246">
         <f>Z245*Y245</f>
-        <v>257445396</v>
+        <v>257439884</v>
       </c>
       <c r="AB246" t="s">
         <v>16</v>
@@ -7765,7 +7765,7 @@
       </c>
       <c r="Z247">
         <f t="shared" ref="Z247:Z250" si="118">Z246</f>
-        <v>257445396</v>
+        <v>257439884</v>
       </c>
       <c r="AB247" t="s">
         <v>12</v>
@@ -7796,7 +7796,7 @@
       </c>
       <c r="Z248">
         <f t="shared" si="118"/>
-        <v>257445396</v>
+        <v>257439884</v>
       </c>
       <c r="AB248" t="s">
         <v>17</v>
@@ -7827,7 +7827,7 @@
       </c>
       <c r="Z249">
         <f t="shared" si="118"/>
-        <v>257445396</v>
+        <v>257439884</v>
       </c>
       <c r="AB249" t="s">
         <v>31</v>
@@ -7857,7 +7857,7 @@
       </c>
       <c r="Z250">
         <f t="shared" si="118"/>
-        <v>257445396</v>
+        <v>257439884</v>
       </c>
       <c r="AB250" t="s">
         <v>14</v>
@@ -7888,7 +7888,7 @@
       </c>
       <c r="Z251">
         <f>Z250+Y250</f>
-        <v>257445408</v>
+        <v>257439896</v>
       </c>
       <c r="AB251" t="s">
         <v>19</v>
@@ -7919,7 +7919,7 @@
       </c>
       <c r="Z252" s="3">
         <f t="shared" ref="Z252:Z256" si="121">Z251</f>
-        <v>257445408</v>
+        <v>257439896</v>
       </c>
     </row>
     <row r="253" spans="21:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7940,7 +7940,7 @@
       </c>
       <c r="Z253">
         <f t="shared" si="121"/>
-        <v>257445408</v>
+        <v>257439896</v>
       </c>
       <c r="AB253" t="s">
         <v>4</v>
@@ -7971,7 +7971,7 @@
       </c>
       <c r="Z254">
         <f t="shared" si="121"/>
-        <v>257445408</v>
+        <v>257439896</v>
       </c>
       <c r="AB254" t="s">
         <v>5</v>
@@ -7994,7 +7994,7 @@
       </c>
       <c r="X255">
         <f>X254+Z254</f>
-        <v>257445408</v>
+        <v>257439896</v>
       </c>
       <c r="Y255">
         <f t="shared" si="120"/>
@@ -8002,7 +8002,7 @@
       </c>
       <c r="Z255">
         <f t="shared" si="121"/>
-        <v>257445408</v>
+        <v>257439896</v>
       </c>
       <c r="AB255" t="s">
         <v>6</v>
@@ -8033,7 +8033,7 @@
       </c>
       <c r="Z256">
         <f t="shared" si="121"/>
-        <v>257445408</v>
+        <v>257439896</v>
       </c>
       <c r="AB256" t="s">
         <v>7</v>
@@ -8063,8 +8063,8 @@
         <v>12</v>
       </c>
       <c r="Z257">
-        <f>Z256/AD257</f>
-        <v>9901746.461538462</v>
+        <f>TRUNC(Z256/AD257,0)</f>
+        <v>9901534</v>
       </c>
       <c r="AB257" s="6" t="s">
         <v>27</v>
@@ -8098,7 +8098,7 @@
       </c>
       <c r="Z258">
         <f t="shared" ref="Z258:Z264" si="124">Z257</f>
-        <v>9901746.461538462</v>
+        <v>9901534</v>
       </c>
       <c r="AB258" t="s">
         <v>28</v>
@@ -8128,13 +8128,13 @@
       </c>
       <c r="Z259">
         <f t="shared" si="124"/>
-        <v>9901746.461538462</v>
+        <v>9901534</v>
       </c>
       <c r="AB259" t="s">
         <v>10</v>
       </c>
       <c r="AE259">
-        <f t="shared" ref="AE259:AE270" si="125">IF(AB259=AG259,1,0)</f>
+        <f t="shared" ref="AE259:AE267" si="125">IF(AB259=AG259,1,0)</f>
         <v>1</v>
       </c>
       <c r="AG259" t="s">
@@ -8159,7 +8159,7 @@
       </c>
       <c r="Z260">
         <f t="shared" si="124"/>
-        <v>9901746.461538462</v>
+        <v>9901534</v>
       </c>
       <c r="AB260" t="s">
         <v>11</v>
@@ -8190,7 +8190,7 @@
       </c>
       <c r="Z261">
         <f t="shared" si="124"/>
-        <v>9901746.461538462</v>
+        <v>9901534</v>
       </c>
       <c r="AB261" t="s">
         <v>12</v>
@@ -8221,7 +8221,7 @@
       </c>
       <c r="Z262">
         <f t="shared" si="124"/>
-        <v>9901746.461538462</v>
+        <v>9901534</v>
       </c>
       <c r="AB262" t="s">
         <v>13</v>
@@ -8252,7 +8252,7 @@
       </c>
       <c r="Z263">
         <f t="shared" si="124"/>
-        <v>9901746.461538462</v>
+        <v>9901534</v>
       </c>
       <c r="AB263" t="s">
         <v>14</v>
@@ -8283,7 +8283,7 @@
       </c>
       <c r="Z264">
         <f t="shared" si="124"/>
-        <v>9901746.461538462</v>
+        <v>9901534</v>
       </c>
       <c r="AB264" t="s">
         <v>15</v>
@@ -8314,7 +8314,7 @@
       </c>
       <c r="Z265">
         <f>Z264*Y264</f>
-        <v>257445408</v>
+        <v>257439884</v>
       </c>
       <c r="AB265" t="s">
         <v>16</v>
@@ -8345,7 +8345,7 @@
       </c>
       <c r="Z266">
         <f t="shared" ref="Z266:Z269" si="128">Z265</f>
-        <v>257445408</v>
+        <v>257439884</v>
       </c>
       <c r="AB266" t="s">
         <v>12</v>
@@ -8376,7 +8376,7 @@
       </c>
       <c r="Z267">
         <f t="shared" si="128"/>
-        <v>257445408</v>
+        <v>257439884</v>
       </c>
       <c r="AB267" t="s">
         <v>17</v>
@@ -8407,7 +8407,7 @@
       </c>
       <c r="Z268">
         <f t="shared" si="128"/>
-        <v>257445408</v>
+        <v>257439884</v>
       </c>
       <c r="AB268" t="s">
         <v>39</v>
@@ -8437,7 +8437,7 @@
       </c>
       <c r="Z269">
         <f t="shared" si="128"/>
-        <v>257445408</v>
+        <v>257439884</v>
       </c>
       <c r="AB269" t="s">
         <v>14</v>
@@ -8468,7 +8468,7 @@
       </c>
       <c r="Z270">
         <f>Z269+Y269</f>
-        <v>257445419</v>
+        <v>257439895</v>
       </c>
       <c r="AB270" t="s">
         <v>19</v>
@@ -8499,7 +8499,7 @@
       </c>
       <c r="Z271" s="3">
         <f t="shared" ref="Z271" si="131">Z270</f>
-        <v>257445419</v>
+        <v>257439895</v>
       </c>
     </row>
   </sheetData>

--- a/2021day24/alu2021day24.xlsx
+++ b/2021day24/alu2021day24.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\feri\git\AdventOfCode\2021day24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CDC3C7-45C7-42F3-AF90-6D2EB3E42E8E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945BCEEF-E6DF-4BC0-AFA5-8709A111559E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{56EE513B-A1A9-4F6D-A498-8BB4479BB114}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="short" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="42">
   <si>
     <t>w</t>
   </si>
@@ -146,6 +147,12 @@
   <si>
     <t>y = add(y, 9);</t>
   </si>
+  <si>
+    <t>(z%26)-3 = inp --&gt; z=z*1+0</t>
+  </si>
+  <si>
+    <t>(z%26)-3 != inp --&gt; z=z*26+inp+N</t>
+  </si>
 </sst>
 </file>
 
@@ -160,7 +167,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -188,6 +195,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -219,7 +238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -231,6 +250,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -545,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7033259C-CD9B-4E2A-BEA6-C711622595CA}">
-  <dimension ref="B4:AI271"/>
+  <dimension ref="B4:AN271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A250" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Z257" sqref="Z257"/>
+    <sheetView tabSelected="1" topLeftCell="K223" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="U254" sqref="U254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,11 +582,18 @@
     <col min="28" max="28" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="3.140625" customWidth="1"/>
     <col min="30" max="30" width="5.85546875" customWidth="1"/>
-    <col min="33" max="33" width="16" customWidth="1"/>
+    <col min="31" max="31" width="5.28515625" customWidth="1"/>
+    <col min="32" max="32" width="4.42578125" customWidth="1"/>
+    <col min="33" max="33" width="4.28515625" customWidth="1"/>
+    <col min="34" max="34" width="4.7109375" customWidth="1"/>
     <col min="35" max="35" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="5" customWidth="1"/>
+    <col min="38" max="38" width="5.5703125" customWidth="1"/>
+    <col min="39" max="39" width="5.85546875" customWidth="1"/>
+    <col min="40" max="40" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -586,22 +614,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="4:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="4:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="U5" s="1"/>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="4:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W5" s="7">
+        <v>0</v>
+      </c>
+      <c r="X5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="5">
+        <f>MOD(Z5,26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="4:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="U6" s="2">
         <v>9</v>
       </c>
@@ -621,14 +653,30 @@
         <f t="shared" ref="Z6:Z22" si="2">Z5</f>
         <v>0</v>
       </c>
+      <c r="AA6">
+        <f>AA5+AD11</f>
+        <v>14</v>
+      </c>
       <c r="AB6" t="s">
         <v>4</v>
       </c>
       <c r="AI6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="4:35" x14ac:dyDescent="0.25">
+      <c r="AK6" s="8">
+        <f>AD10</f>
+        <v>1</v>
+      </c>
+      <c r="AL6" s="8">
+        <f>AD11</f>
+        <v>14</v>
+      </c>
+      <c r="AM6" s="8">
+        <f>AD21</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="4:39" x14ac:dyDescent="0.25">
       <c r="U7" s="1"/>
       <c r="W7">
         <f t="shared" ref="W7:W23" si="3">W6</f>
@@ -653,7 +701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="4:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:39" x14ac:dyDescent="0.25">
       <c r="U8" s="1"/>
       <c r="W8">
         <f t="shared" si="3"/>
@@ -678,7 +726,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="4:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:39" x14ac:dyDescent="0.25">
       <c r="U9" s="1"/>
       <c r="W9">
         <f t="shared" si="3"/>
@@ -703,7 +751,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="4:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:39" x14ac:dyDescent="0.25">
       <c r="U10" s="1"/>
       <c r="W10">
         <f t="shared" si="3"/>
@@ -731,7 +779,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="4:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:39" x14ac:dyDescent="0.25">
       <c r="U11" s="1"/>
       <c r="W11">
         <f t="shared" si="3"/>
@@ -759,7 +807,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="4:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:39" x14ac:dyDescent="0.25">
       <c r="U12" s="1"/>
       <c r="W12">
         <f t="shared" si="3"/>
@@ -784,7 +832,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="4:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:39" x14ac:dyDescent="0.25">
       <c r="U13" s="1"/>
       <c r="W13">
         <f t="shared" si="3"/>
@@ -809,7 +857,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="4:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:39" x14ac:dyDescent="0.25">
       <c r="U14" s="1"/>
       <c r="W14">
         <f t="shared" si="3"/>
@@ -834,7 +882,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="4:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:39" x14ac:dyDescent="0.25">
       <c r="U15" s="1"/>
       <c r="W15">
         <f t="shared" si="3"/>
@@ -859,7 +907,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="4:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:39" x14ac:dyDescent="0.25">
       <c r="U16" s="1"/>
       <c r="W16">
         <f t="shared" si="3"/>
@@ -884,7 +932,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="21:40" x14ac:dyDescent="0.25">
       <c r="U17" s="1"/>
       <c r="W17">
         <f t="shared" si="3"/>
@@ -909,7 +957,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="21:40" x14ac:dyDescent="0.25">
       <c r="U18" s="1"/>
       <c r="W18">
         <f t="shared" si="3"/>
@@ -934,7 +982,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="21:40" x14ac:dyDescent="0.25">
       <c r="U19" s="1"/>
       <c r="W19">
         <f t="shared" si="3"/>
@@ -959,7 +1007,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="21:40" x14ac:dyDescent="0.25">
       <c r="U20" s="1"/>
       <c r="W20">
         <f t="shared" si="3"/>
@@ -984,7 +1032,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="21:40" x14ac:dyDescent="0.25">
       <c r="U21" s="1"/>
       <c r="W21">
         <f t="shared" si="3"/>
@@ -1012,7 +1060,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="21:40" x14ac:dyDescent="0.25">
       <c r="U22" s="1"/>
       <c r="W22">
         <f t="shared" si="3"/>
@@ -1037,7 +1085,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="21:40" x14ac:dyDescent="0.25">
       <c r="U23" s="1"/>
       <c r="W23">
         <f t="shared" si="3"/>
@@ -1062,7 +1110,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="21:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="21:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="W24" s="3">
         <f>W23</f>
         <v>9</v>
@@ -1079,8 +1127,43 @@
         <f t="shared" ref="Z24" si="5">Z23</f>
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="21:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA24" s="5">
+        <f>MOD(Z24,26)</f>
+        <v>21</v>
+      </c>
+      <c r="AE24" s="7">
+        <f>U6</f>
+        <v>9</v>
+      </c>
+      <c r="AF24" s="7">
+        <v>1</v>
+      </c>
+      <c r="AG24" s="7">
+        <f>AE24+12</f>
+        <v>21</v>
+      </c>
+      <c r="AH24" s="7">
+        <f>AG24</f>
+        <v>21</v>
+      </c>
+      <c r="AK24">
+        <f>U6</f>
+        <v>9</v>
+      </c>
+      <c r="AL24">
+        <f>IF(MOD(Z5, 26)+AL6 = U6,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="AM24">
+        <f>AL24*(U6+AM6)</f>
+        <v>21</v>
+      </c>
+      <c r="AN24">
+        <f>TRUNC(Z5/AK6,0)*(1+25*AL24)+AM24</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="21:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="U25" s="2">
         <v>9</v>
       </c>
@@ -1100,14 +1183,30 @@
         <f t="shared" ref="Z25:Z66" si="8">Z24</f>
         <v>21</v>
       </c>
+      <c r="AA25">
+        <f>AA24+AD30</f>
+        <v>32</v>
+      </c>
       <c r="AB25" t="s">
         <v>4</v>
       </c>
       <c r="AI25" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="AK25" s="8">
+        <f>AD29</f>
+        <v>1</v>
+      </c>
+      <c r="AL25" s="8">
+        <f>AD30</f>
+        <v>11</v>
+      </c>
+      <c r="AM25" s="8">
+        <f>AD40</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W26">
         <f t="shared" ref="W26:W62" si="9">W25</f>
         <v>9</v>
@@ -1131,7 +1230,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W27">
         <f t="shared" si="9"/>
         <v>9</v>
@@ -1155,7 +1254,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W28">
         <f t="shared" si="9"/>
         <v>9</v>
@@ -1179,7 +1278,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W29">
         <f t="shared" si="9"/>
         <v>9</v>
@@ -1206,7 +1305,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W30">
         <f t="shared" si="9"/>
         <v>9</v>
@@ -1233,7 +1332,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W31">
         <f t="shared" si="9"/>
         <v>9</v>
@@ -1257,7 +1356,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W32">
         <f t="shared" si="9"/>
         <v>9</v>
@@ -1281,7 +1380,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="33" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W33">
         <f t="shared" si="9"/>
         <v>9</v>
@@ -1305,7 +1404,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="34" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W34">
         <f t="shared" si="9"/>
         <v>9</v>
@@ -1329,7 +1428,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="35" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W35">
         <f t="shared" si="9"/>
         <v>9</v>
@@ -1353,7 +1452,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="36" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W36">
         <f t="shared" si="9"/>
         <v>9</v>
@@ -1377,7 +1476,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="37" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W37">
         <f t="shared" si="9"/>
         <v>9</v>
@@ -1401,7 +1500,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="38" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W38">
         <f t="shared" si="9"/>
         <v>9</v>
@@ -1425,7 +1524,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="39" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W39">
         <f t="shared" si="9"/>
         <v>9</v>
@@ -1449,7 +1548,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="40" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W40">
         <f t="shared" si="9"/>
         <v>9</v>
@@ -1476,7 +1575,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="41" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W41">
         <f t="shared" si="9"/>
         <v>9</v>
@@ -1500,7 +1599,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="42" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W42">
         <f t="shared" si="9"/>
         <v>9</v>
@@ -1524,7 +1623,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="21:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="21:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="W43" s="3">
         <f t="shared" si="9"/>
         <v>9</v>
@@ -1541,8 +1640,28 @@
         <f t="shared" si="8"/>
         <v>563</v>
       </c>
-    </row>
-    <row r="44" spans="21:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA43" s="5">
+        <f>MOD(Z43,26)</f>
+        <v>17</v>
+      </c>
+      <c r="AK43">
+        <f>U25</f>
+        <v>9</v>
+      </c>
+      <c r="AL43">
+        <f>IF(MOD(Z24, 26)+AL25 = U25,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="AM43">
+        <f>AL43*(U25+AM25)</f>
+        <v>17</v>
+      </c>
+      <c r="AN43">
+        <f>TRUNC(Z24/AK25,0)*(1+25*AL43)+AM43</f>
+        <v>563</v>
+      </c>
+    </row>
+    <row r="44" spans="21:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="U44" s="2">
         <v>2</v>
       </c>
@@ -1562,6 +1681,10 @@
         <f t="shared" ref="Z44:Z47" si="12">Z43</f>
         <v>563</v>
       </c>
+      <c r="AA44">
+        <f>AA43+AD49</f>
+        <v>28</v>
+      </c>
       <c r="AB44" t="s">
         <v>4</v>
       </c>
@@ -1575,8 +1698,20 @@
       <c r="AI44" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="AK44" s="8">
+        <f>AD48</f>
+        <v>1</v>
+      </c>
+      <c r="AL44" s="8">
+        <f>AD49</f>
+        <v>11</v>
+      </c>
+      <c r="AM44" s="8">
+        <f>AD59</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W45">
         <f t="shared" ref="W45:W61" si="13">W44</f>
         <v>2</v>
@@ -1607,7 +1742,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="46" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W46">
         <f t="shared" si="13"/>
         <v>2</v>
@@ -1638,7 +1773,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="47" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W47">
         <f t="shared" si="13"/>
         <v>2</v>
@@ -1669,7 +1804,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="48" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W48">
         <f t="shared" si="13"/>
         <v>2</v>
@@ -1703,7 +1838,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="49" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W49">
         <f t="shared" si="13"/>
         <v>2</v>
@@ -1733,7 +1868,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="50" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W50">
         <f t="shared" si="13"/>
         <v>2</v>
@@ -1764,7 +1899,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="51" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W51">
         <f t="shared" si="13"/>
         <v>2</v>
@@ -1795,7 +1930,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="52" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W52">
         <f t="shared" si="13"/>
         <v>2</v>
@@ -1826,7 +1961,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="53" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W53">
         <f t="shared" si="13"/>
         <v>2</v>
@@ -1857,7 +1992,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="54" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W54">
         <f t="shared" si="13"/>
         <v>2</v>
@@ -1888,7 +2023,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="55" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W55">
         <f t="shared" si="13"/>
         <v>2</v>
@@ -1919,7 +2054,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="56" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W56">
         <f t="shared" si="13"/>
         <v>2</v>
@@ -1950,7 +2085,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="57" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W57">
         <f t="shared" si="13"/>
         <v>2</v>
@@ -1981,7 +2116,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="58" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W58">
         <f t="shared" si="13"/>
         <v>2</v>
@@ -2012,7 +2147,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="59" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W59">
         <f t="shared" si="13"/>
         <v>2</v>
@@ -2042,7 +2177,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="60" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W60">
         <f t="shared" si="13"/>
         <v>2</v>
@@ -2073,7 +2208,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="61" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W61">
         <f t="shared" si="13"/>
         <v>2</v>
@@ -2104,7 +2239,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="21:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="21:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="W62" s="3">
         <f t="shared" si="9"/>
         <v>2</v>
@@ -2121,14 +2256,34 @@
         <f t="shared" si="8"/>
         <v>14647</v>
       </c>
-    </row>
-    <row r="63" spans="21:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA62" s="5">
+        <f>MOD(Z62,26)</f>
+        <v>9</v>
+      </c>
+      <c r="AK62">
+        <f>U44</f>
+        <v>2</v>
+      </c>
+      <c r="AL62">
+        <f>IF(MOD(Z43, 26)+AL44 = U44,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="AM62">
+        <f>AL62*(U44+AM44)</f>
+        <v>9</v>
+      </c>
+      <c r="AN62">
+        <f>TRUNC(Z43/AK44,0)*(1+25*AL62)+AM62</f>
+        <v>14647</v>
+      </c>
+    </row>
+    <row r="63" spans="21:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="U63" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="W63">
         <f>U63</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="X63">
         <f t="shared" si="6"/>
@@ -2142,6 +2297,10 @@
         <f t="shared" si="8"/>
         <v>14647</v>
       </c>
+      <c r="AA63">
+        <f>AA62+AD68</f>
+        <v>23</v>
+      </c>
       <c r="AB63" t="s">
         <v>4</v>
       </c>
@@ -2155,11 +2314,23 @@
       <c r="AI63" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="64" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="AK63" s="8">
+        <f>AD67</f>
+        <v>1</v>
+      </c>
+      <c r="AL63" s="8">
+        <f>AD68</f>
+        <v>14</v>
+      </c>
+      <c r="AM63" s="8">
+        <f>AD78</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W64">
         <f t="shared" ref="W64:W81" si="21">W63</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="X64">
         <f>X63*0</f>
@@ -2190,7 +2361,7 @@
     <row r="65" spans="23:35" x14ac:dyDescent="0.25">
       <c r="W65">
         <f t="shared" si="21"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="X65">
         <f>X64+Z64</f>
@@ -2221,7 +2392,7 @@
     <row r="66" spans="23:35" x14ac:dyDescent="0.25">
       <c r="W66">
         <f t="shared" si="21"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="X66">
         <f>MOD(X65,26)</f>
@@ -2252,7 +2423,7 @@
     <row r="67" spans="23:35" x14ac:dyDescent="0.25">
       <c r="W67">
         <f t="shared" si="21"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="X67">
         <f t="shared" ref="X67" si="23">X66</f>
@@ -2286,7 +2457,7 @@
     <row r="68" spans="23:35" x14ac:dyDescent="0.25">
       <c r="W68">
         <f t="shared" si="21"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="X68">
         <f>X67+AD68</f>
@@ -2316,7 +2487,7 @@
     <row r="69" spans="23:35" x14ac:dyDescent="0.25">
       <c r="W69">
         <f t="shared" si="21"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="X69">
         <f>IF(X68=W68,1,0)</f>
@@ -2347,7 +2518,7 @@
     <row r="70" spans="23:35" x14ac:dyDescent="0.25">
       <c r="W70">
         <f t="shared" si="21"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="X70">
         <f>IF(X69=0,1,0)</f>
@@ -2378,7 +2549,7 @@
     <row r="71" spans="23:35" x14ac:dyDescent="0.25">
       <c r="W71">
         <f t="shared" si="21"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="X71">
         <f t="shared" ref="X71:X82" si="26">X70</f>
@@ -2409,7 +2580,7 @@
     <row r="72" spans="23:35" x14ac:dyDescent="0.25">
       <c r="W72">
         <f t="shared" si="21"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="X72">
         <f t="shared" si="26"/>
@@ -2440,7 +2611,7 @@
     <row r="73" spans="23:35" x14ac:dyDescent="0.25">
       <c r="W73">
         <f t="shared" si="21"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="X73">
         <f t="shared" si="26"/>
@@ -2471,7 +2642,7 @@
     <row r="74" spans="23:35" x14ac:dyDescent="0.25">
       <c r="W74">
         <f t="shared" si="21"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="X74">
         <f t="shared" si="26"/>
@@ -2502,7 +2673,7 @@
     <row r="75" spans="23:35" x14ac:dyDescent="0.25">
       <c r="W75">
         <f t="shared" si="21"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="X75">
         <f t="shared" si="26"/>
@@ -2533,7 +2704,7 @@
     <row r="76" spans="23:35" x14ac:dyDescent="0.25">
       <c r="W76">
         <f t="shared" si="21"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="X76">
         <f t="shared" si="26"/>
@@ -2564,7 +2735,7 @@
     <row r="77" spans="23:35" x14ac:dyDescent="0.25">
       <c r="W77">
         <f t="shared" si="21"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="X77">
         <f t="shared" si="26"/>
@@ -2572,7 +2743,7 @@
       </c>
       <c r="Y77">
         <f>Y76+W76</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="Z77">
         <f t="shared" si="28"/>
@@ -2595,7 +2766,7 @@
     <row r="78" spans="23:35" x14ac:dyDescent="0.25">
       <c r="W78">
         <f t="shared" si="21"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="X78">
         <f t="shared" si="26"/>
@@ -2603,7 +2774,7 @@
       </c>
       <c r="Y78">
         <f>Y77+AD78</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Z78">
         <f t="shared" si="28"/>
@@ -2625,7 +2796,7 @@
     <row r="79" spans="23:35" x14ac:dyDescent="0.25">
       <c r="W79">
         <f t="shared" si="21"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="X79">
         <f t="shared" si="26"/>
@@ -2633,7 +2804,7 @@
       </c>
       <c r="Y79">
         <f>Y78*X78</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Z79">
         <f t="shared" si="28"/>
@@ -2656,7 +2827,7 @@
     <row r="80" spans="23:35" x14ac:dyDescent="0.25">
       <c r="W80">
         <f t="shared" si="21"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="X80">
         <f t="shared" si="26"/>
@@ -2664,11 +2835,11 @@
       </c>
       <c r="Y80">
         <f t="shared" ref="Y80:Y89" si="30">Y79</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Z80">
         <f>Z79+Y79</f>
-        <v>380828</v>
+        <v>380834</v>
       </c>
       <c r="AB80" t="s">
         <v>19</v>
@@ -2684,10 +2855,10 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="21:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="21:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="W81" s="3">
         <f t="shared" si="21"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="X81" s="3">
         <f t="shared" si="26"/>
@@ -2695,20 +2866,40 @@
       </c>
       <c r="Y81" s="3">
         <f t="shared" si="30"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Z81" s="3">
         <f t="shared" ref="Z81:Z85" si="31">Z80</f>
-        <v>380828</v>
-      </c>
-    </row>
-    <row r="82" spans="21:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>380834</v>
+      </c>
+      <c r="AA81" s="5">
+        <f>MOD(Z81,26)</f>
+        <v>12</v>
+      </c>
+      <c r="AK81">
+        <f>U63</f>
+        <v>8</v>
+      </c>
+      <c r="AL81">
+        <f>IF(MOD(Z62, 26)+AL63 = U63,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="AM81">
+        <f>AL81*(U63+AM63)</f>
+        <v>12</v>
+      </c>
+      <c r="AN81">
+        <f>TRUNC(Z62/AK63,0)*(1+25*AL81)+AM81</f>
+        <v>380834</v>
+      </c>
+    </row>
+    <row r="82" spans="21:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="U82" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W82">
         <f>U82</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X82">
         <f t="shared" si="26"/>
@@ -2716,11 +2907,15 @@
       </c>
       <c r="Y82">
         <f t="shared" si="30"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Z82">
         <f t="shared" si="31"/>
-        <v>380828</v>
+        <v>380834</v>
+      </c>
+      <c r="AA82">
+        <f>AA81+AD87</f>
+        <v>1</v>
       </c>
       <c r="AB82" t="s">
         <v>4</v>
@@ -2735,11 +2930,23 @@
       <c r="AI82" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="83" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="AK82" s="8">
+        <f>AD86</f>
+        <v>26</v>
+      </c>
+      <c r="AL82" s="8">
+        <f>AD87</f>
+        <v>-11</v>
+      </c>
+      <c r="AM82" s="8">
+        <f>AD97</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W83">
         <f t="shared" ref="W83:W100" si="32">W82</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X83">
         <f>X82*0</f>
@@ -2747,11 +2954,11 @@
       </c>
       <c r="Y83">
         <f t="shared" si="30"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Z83">
         <f t="shared" si="31"/>
-        <v>380828</v>
+        <v>380834</v>
       </c>
       <c r="AB83" t="s">
         <v>5</v>
@@ -2767,22 +2974,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="84" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W84">
         <f t="shared" si="32"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X84">
         <f>X83+Z83</f>
-        <v>380828</v>
+        <v>380834</v>
       </c>
       <c r="Y84">
         <f t="shared" si="30"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Z84">
         <f t="shared" si="31"/>
-        <v>380828</v>
+        <v>380834</v>
       </c>
       <c r="AB84" t="s">
         <v>6</v>
@@ -2798,22 +3005,22 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="85" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W85">
         <f t="shared" si="32"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X85">
         <f>MOD(X84,26)</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Y85">
         <f t="shared" si="30"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Z85">
         <f t="shared" si="31"/>
-        <v>380828</v>
+        <v>380834</v>
       </c>
       <c r="AB85" t="s">
         <v>7</v>
@@ -2829,18 +3036,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="86" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W86">
         <f t="shared" si="32"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X86">
         <f t="shared" ref="X86" si="33">X85</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Y86">
         <f t="shared" si="30"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Z86">
         <f>TRUNC(Z85/AD86,0)</f>
@@ -2863,18 +3070,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="87" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W87">
         <f t="shared" si="32"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X87">
         <f>X86+AD87</f>
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="Y87">
         <f t="shared" si="30"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Z87">
         <f t="shared" ref="Z87:Z93" si="34">Z86</f>
@@ -2893,18 +3100,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="88" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="88" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W88">
         <f t="shared" si="32"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X88">
         <f>IF(X87=W87,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y88">
         <f t="shared" si="30"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Z88">
         <f t="shared" si="34"/>
@@ -2924,18 +3131,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="89" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W89">
         <f t="shared" si="32"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X89">
         <f>IF(X88=0,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y89">
         <f t="shared" si="30"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Z89">
         <f t="shared" si="34"/>
@@ -2955,14 +3162,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="90" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W90">
         <f t="shared" si="32"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X90">
         <f t="shared" ref="X90:X101" si="36">X89</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y90">
         <f>Y89*0</f>
@@ -2986,14 +3193,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="91" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W91">
         <f t="shared" si="32"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X91">
         <f t="shared" si="36"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y91">
         <f>Y90+25</f>
@@ -3017,18 +3224,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="92" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W92">
         <f t="shared" si="32"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X92">
         <f t="shared" si="36"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y92">
         <f>Y91*X91</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Z92">
         <f t="shared" si="34"/>
@@ -3048,18 +3255,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="93" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W93">
         <f t="shared" si="32"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X93">
         <f t="shared" si="36"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y93">
         <f>Y92+1</f>
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="Z93">
         <f t="shared" si="34"/>
@@ -3079,22 +3286,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="94" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W94">
         <f t="shared" si="32"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X94">
         <f t="shared" si="36"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y94">
         <f t="shared" ref="Y94" si="37">Y93</f>
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="Z94">
         <f>Z93*Y93</f>
-        <v>380822</v>
+        <v>14647</v>
       </c>
       <c r="AB94" t="s">
         <v>16</v>
@@ -3110,14 +3317,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="95" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="95" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W95">
         <f t="shared" si="32"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X95">
         <f t="shared" si="36"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y95">
         <f>Y94*0</f>
@@ -3125,7 +3332,7 @@
       </c>
       <c r="Z95">
         <f t="shared" ref="Z95:Z98" si="38">Z94</f>
-        <v>380822</v>
+        <v>14647</v>
       </c>
       <c r="AB95" t="s">
         <v>12</v>
@@ -3141,22 +3348,22 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="96" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W96">
         <f t="shared" si="32"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X96">
         <f t="shared" si="36"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y96">
         <f>Y95+W95</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z96">
         <f t="shared" si="38"/>
-        <v>380822</v>
+        <v>14647</v>
       </c>
       <c r="AB96" t="s">
         <v>17</v>
@@ -3172,22 +3379,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="97" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="97" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W97">
         <f t="shared" si="32"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X97">
         <f t="shared" si="36"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y97">
         <f>Y96+AD97</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z97">
         <f t="shared" si="38"/>
-        <v>380822</v>
+        <v>14647</v>
       </c>
       <c r="AB97" t="s">
         <v>26</v>
@@ -3202,22 +3409,22 @@
         <v>26</v>
       </c>
     </row>
-    <row r="98" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="98" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W98">
         <f t="shared" si="32"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X98">
         <f t="shared" si="36"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y98">
         <f>Y97*X97</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Z98">
         <f t="shared" si="38"/>
-        <v>380822</v>
+        <v>14647</v>
       </c>
       <c r="AB98" t="s">
         <v>14</v>
@@ -3233,22 +3440,22 @@
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="99" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W99">
         <f t="shared" si="32"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X99">
         <f t="shared" si="36"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y99">
         <f t="shared" ref="Y99:Y108" si="40">Y98</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Z99">
         <f>Z98+Y98</f>
-        <v>380828</v>
+        <v>14647</v>
       </c>
       <c r="AB99" t="s">
         <v>19</v>
@@ -3264,43 +3471,67 @@
         <v>19</v>
       </c>
     </row>
-    <row r="100" spans="21:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="21:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="W100" s="3">
         <f t="shared" si="32"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X100" s="3">
         <f t="shared" si="36"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y100" s="3">
         <f t="shared" si="40"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Z100" s="3">
         <f t="shared" ref="Z100:Z104" si="41">Z99</f>
-        <v>380828</v>
-      </c>
-    </row>
-    <row r="101" spans="21:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>14647</v>
+      </c>
+      <c r="AA100" s="5">
+        <f>MOD(Z100,26)</f>
+        <v>9</v>
+      </c>
+      <c r="AK100">
+        <f>U82</f>
+        <v>1</v>
+      </c>
+      <c r="AL100">
+        <f>IF(MOD(Z81, 26)+AL82 = U82,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AM100">
+        <f>AL100*(U82+AM82)</f>
+        <v>0</v>
+      </c>
+      <c r="AN100">
+        <f>TRUNC(Z81/AK82,0)*(1+25*AL100)+AM100</f>
+        <v>14647</v>
+      </c>
+    </row>
+    <row r="101" spans="21:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="U101" s="2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="W101">
         <f>U101</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="X101">
         <f t="shared" si="36"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y101">
         <f t="shared" si="40"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Z101">
         <f t="shared" si="41"/>
-        <v>380828</v>
+        <v>14647</v>
+      </c>
+      <c r="AA101">
+        <f>AA100+AD106</f>
+        <v>21</v>
       </c>
       <c r="AB101" t="s">
         <v>4</v>
@@ -3315,11 +3546,23 @@
       <c r="AI101" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="AK101" s="8">
+        <f>AD105</f>
+        <v>1</v>
+      </c>
+      <c r="AL101" s="8">
+        <f>AD106</f>
+        <v>12</v>
+      </c>
+      <c r="AM101" s="8">
+        <f>AD116</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W102">
         <f t="shared" ref="W102:W119" si="42">W101</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="X102">
         <f>X101*0</f>
@@ -3327,11 +3570,11 @@
       </c>
       <c r="Y102">
         <f t="shared" si="40"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Z102">
         <f t="shared" si="41"/>
-        <v>380828</v>
+        <v>14647</v>
       </c>
       <c r="AB102" t="s">
         <v>5</v>
@@ -3347,22 +3590,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="103" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W103">
         <f t="shared" si="42"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="X103">
         <f>X102+Z102</f>
-        <v>380828</v>
+        <v>14647</v>
       </c>
       <c r="Y103">
         <f t="shared" si="40"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Z103">
         <f t="shared" si="41"/>
-        <v>380828</v>
+        <v>14647</v>
       </c>
       <c r="AB103" t="s">
         <v>6</v>
@@ -3378,22 +3621,22 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="104" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W104">
         <f t="shared" si="42"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="X104">
         <f>MOD(X103,26)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Y104">
         <f t="shared" si="40"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Z104">
         <f t="shared" si="41"/>
-        <v>380828</v>
+        <v>14647</v>
       </c>
       <c r="AB104" t="s">
         <v>7</v>
@@ -3409,22 +3652,22 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="105" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W105">
         <f t="shared" si="42"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="X105">
         <f t="shared" ref="X105" si="43">X104</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Y105">
         <f t="shared" si="40"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Z105">
         <f>TRUNC(Z104/AD105,0)</f>
-        <v>380828</v>
+        <v>14647</v>
       </c>
       <c r="AB105" t="s">
         <v>8</v>
@@ -3443,22 +3686,22 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="106" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W106">
         <f t="shared" si="42"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="X106">
         <f>X105+AD106</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Y106">
         <f t="shared" si="40"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Z106">
         <f t="shared" ref="Z106:Z112" si="44">Z105</f>
-        <v>380828</v>
+        <v>14647</v>
       </c>
       <c r="AB106" t="s">
         <v>29</v>
@@ -3473,10 +3716,10 @@
         <v>29</v>
       </c>
     </row>
-    <row r="107" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="107" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W107">
         <f t="shared" si="42"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="X107">
         <f>IF(X106=W106,1,0)</f>
@@ -3484,11 +3727,11 @@
       </c>
       <c r="Y107">
         <f t="shared" si="40"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Z107">
         <f t="shared" si="44"/>
-        <v>380828</v>
+        <v>14647</v>
       </c>
       <c r="AB107" t="s">
         <v>10</v>
@@ -3504,10 +3747,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="108" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W108">
         <f t="shared" si="42"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="X108">
         <f>IF(X107=0,1,0)</f>
@@ -3515,11 +3758,11 @@
       </c>
       <c r="Y108">
         <f t="shared" si="40"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Z108">
         <f t="shared" si="44"/>
-        <v>380828</v>
+        <v>14647</v>
       </c>
       <c r="AB108" t="s">
         <v>11</v>
@@ -3535,10 +3778,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="109" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W109">
         <f t="shared" si="42"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="X109">
         <f t="shared" ref="X109:X120" si="46">X108</f>
@@ -3550,7 +3793,7 @@
       </c>
       <c r="Z109">
         <f t="shared" si="44"/>
-        <v>380828</v>
+        <v>14647</v>
       </c>
       <c r="AB109" t="s">
         <v>12</v>
@@ -3566,10 +3809,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="110" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="110" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W110">
         <f t="shared" si="42"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="X110">
         <f t="shared" si="46"/>
@@ -3581,7 +3824,7 @@
       </c>
       <c r="Z110">
         <f t="shared" si="44"/>
-        <v>380828</v>
+        <v>14647</v>
       </c>
       <c r="AB110" t="s">
         <v>13</v>
@@ -3597,10 +3840,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="111" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W111">
         <f t="shared" si="42"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="X111">
         <f t="shared" si="46"/>
@@ -3612,7 +3855,7 @@
       </c>
       <c r="Z111">
         <f t="shared" si="44"/>
-        <v>380828</v>
+        <v>14647</v>
       </c>
       <c r="AB111" t="s">
         <v>14</v>
@@ -3628,10 +3871,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="112" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="112" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W112">
         <f t="shared" si="42"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="X112">
         <f t="shared" si="46"/>
@@ -3643,7 +3886,7 @@
       </c>
       <c r="Z112">
         <f t="shared" si="44"/>
-        <v>380828</v>
+        <v>14647</v>
       </c>
       <c r="AB112" t="s">
         <v>15</v>
@@ -3659,10 +3902,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="113" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="113" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W113">
         <f t="shared" si="42"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="X113">
         <f t="shared" si="46"/>
@@ -3674,7 +3917,7 @@
       </c>
       <c r="Z113">
         <f>Z112*Y112</f>
-        <v>9901528</v>
+        <v>380822</v>
       </c>
       <c r="AB113" t="s">
         <v>16</v>
@@ -3690,10 +3933,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="114" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="114" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W114">
         <f t="shared" si="42"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="X114">
         <f t="shared" si="46"/>
@@ -3705,7 +3948,7 @@
       </c>
       <c r="Z114">
         <f t="shared" ref="Z114:Z117" si="48">Z113</f>
-        <v>9901528</v>
+        <v>380822</v>
       </c>
       <c r="AB114" t="s">
         <v>12</v>
@@ -3721,10 +3964,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="115" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="115" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W115">
         <f t="shared" si="42"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="X115">
         <f t="shared" si="46"/>
@@ -3732,11 +3975,11 @@
       </c>
       <c r="Y115">
         <f>Y114+W114</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="Z115">
         <f t="shared" si="48"/>
-        <v>9901528</v>
+        <v>380822</v>
       </c>
       <c r="AB115" t="s">
         <v>17</v>
@@ -3752,10 +3995,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="116" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="116" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W116">
         <f t="shared" si="42"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="X116">
         <f t="shared" si="46"/>
@@ -3763,11 +4006,11 @@
       </c>
       <c r="Y116">
         <f>Y115+AD116</f>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="Z116">
         <f t="shared" si="48"/>
-        <v>9901528</v>
+        <v>380822</v>
       </c>
       <c r="AB116" t="s">
         <v>15</v>
@@ -3782,10 +4025,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="117" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="117" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W117">
         <f t="shared" si="42"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="X117">
         <f t="shared" si="46"/>
@@ -3793,11 +4036,11 @@
       </c>
       <c r="Y117">
         <f>Y116*X116</f>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="Z117">
         <f t="shared" si="48"/>
-        <v>9901528</v>
+        <v>380822</v>
       </c>
       <c r="AB117" t="s">
         <v>14</v>
@@ -3813,10 +4056,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="118" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="118" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W118">
         <f t="shared" si="42"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="X118">
         <f t="shared" si="46"/>
@@ -3824,11 +4067,11 @@
       </c>
       <c r="Y118">
         <f t="shared" ref="Y118:Y127" si="50">Y117</f>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="Z118">
         <f>Z117+Y117</f>
-        <v>9901531</v>
+        <v>380832</v>
       </c>
       <c r="AB118" t="s">
         <v>19</v>
@@ -3844,10 +4087,10 @@
         <v>19</v>
       </c>
     </row>
-    <row r="119" spans="21:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="21:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="W119" s="3">
         <f t="shared" si="42"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="X119" s="3">
         <f t="shared" si="46"/>
@@ -3855,20 +4098,40 @@
       </c>
       <c r="Y119" s="3">
         <f t="shared" si="50"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="Z119" s="3">
         <f t="shared" ref="Z119:Z123" si="51">Z118</f>
-        <v>9901531</v>
-      </c>
-    </row>
-    <row r="120" spans="21:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>380832</v>
+      </c>
+      <c r="AA119" s="5">
+        <f>MOD(Z119,26)</f>
+        <v>10</v>
+      </c>
+      <c r="AK119">
+        <f>U101</f>
+        <v>9</v>
+      </c>
+      <c r="AL119">
+        <f>IF(MOD(Z100, 26)+AL101 = U101,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="AM119">
+        <f>AL119*(U101+AM101)</f>
+        <v>10</v>
+      </c>
+      <c r="AN119">
+        <f>TRUNC(Z100/AK101,0)*(1+25*AL119)+AM119</f>
+        <v>380832</v>
+      </c>
+    </row>
+    <row r="120" spans="21:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="U120" s="2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="W120">
         <f>U120</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="X120">
         <f t="shared" si="46"/>
@@ -3876,11 +4139,15 @@
       </c>
       <c r="Y120">
         <f t="shared" si="50"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="Z120">
         <f t="shared" si="51"/>
-        <v>9901531</v>
+        <v>380832</v>
+      </c>
+      <c r="AA120">
+        <f>AA119+AD125</f>
+        <v>9</v>
       </c>
       <c r="AB120" t="s">
         <v>4</v>
@@ -3895,11 +4162,23 @@
       <c r="AI120" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="121" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="AK120" s="8">
+        <f>AD124</f>
+        <v>26</v>
+      </c>
+      <c r="AL120" s="8">
+        <f>AD125</f>
+        <v>-1</v>
+      </c>
+      <c r="AM120" s="8">
+        <f>AD135</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W121">
         <f t="shared" ref="W121:W138" si="52">W120</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="X121">
         <f>X120*0</f>
@@ -3907,11 +4186,11 @@
       </c>
       <c r="Y121">
         <f t="shared" si="50"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="Z121">
         <f t="shared" si="51"/>
-        <v>9901531</v>
+        <v>380832</v>
       </c>
       <c r="AB121" t="s">
         <v>5</v>
@@ -3927,22 +4206,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="122" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W122">
         <f t="shared" si="52"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="X122">
         <f>X121+Z121</f>
-        <v>9901531</v>
+        <v>380832</v>
       </c>
       <c r="Y122">
         <f t="shared" si="50"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="Z122">
         <f t="shared" si="51"/>
-        <v>9901531</v>
+        <v>380832</v>
       </c>
       <c r="AB122" t="s">
         <v>6</v>
@@ -3958,22 +4237,22 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="123" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W123">
         <f t="shared" si="52"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="X123">
         <f>MOD(X122,26)</f>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="Y123">
         <f t="shared" si="50"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="Z123">
         <f t="shared" si="51"/>
-        <v>9901531</v>
+        <v>380832</v>
       </c>
       <c r="AB123" t="s">
         <v>7</v>
@@ -3989,27 +4268,27 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="124" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W124">
         <f t="shared" si="52"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="X124">
         <f t="shared" ref="X124" si="53">X123</f>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="Y124">
         <f t="shared" si="50"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="Z124">
         <f>TRUNC(Z123/AD124,0)</f>
-        <v>380828</v>
+        <v>14647</v>
       </c>
       <c r="AB124" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AD124" s="4">
+      <c r="AD124" s="6">
         <v>26</v>
       </c>
       <c r="AE124">
@@ -4023,22 +4302,22 @@
         <v>27</v>
       </c>
     </row>
-    <row r="125" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="125" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W125">
         <f t="shared" si="52"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="X125">
         <f>X124+AD125</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="Y125">
         <f t="shared" si="50"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="Z125">
         <f t="shared" ref="Z125:Z131" si="54">Z124</f>
-        <v>380828</v>
+        <v>14647</v>
       </c>
       <c r="AB125" t="s">
         <v>30</v>
@@ -4053,10 +4332,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="126" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="126" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W126">
         <f t="shared" si="52"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="X126">
         <f>IF(X125=W125,1,0)</f>
@@ -4064,11 +4343,11 @@
       </c>
       <c r="Y126">
         <f t="shared" si="50"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="Z126">
         <f t="shared" si="54"/>
-        <v>380828</v>
+        <v>14647</v>
       </c>
       <c r="AB126" t="s">
         <v>10</v>
@@ -4084,10 +4363,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="127" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W127">
         <f t="shared" si="52"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="X127">
         <f>IF(X126=0,1,0)</f>
@@ -4095,11 +4374,11 @@
       </c>
       <c r="Y127">
         <f t="shared" si="50"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="Z127">
         <f t="shared" si="54"/>
-        <v>380828</v>
+        <v>14647</v>
       </c>
       <c r="AB127" t="s">
         <v>11</v>
@@ -4115,10 +4394,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="128" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="128" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W128">
         <f t="shared" si="52"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="X128">
         <f t="shared" ref="X128:X139" si="56">X127</f>
@@ -4130,7 +4409,7 @@
       </c>
       <c r="Z128">
         <f t="shared" si="54"/>
-        <v>380828</v>
+        <v>14647</v>
       </c>
       <c r="AB128" t="s">
         <v>12</v>
@@ -4146,10 +4425,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="129" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="129" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W129">
         <f t="shared" si="52"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="X129">
         <f t="shared" si="56"/>
@@ -4161,7 +4440,7 @@
       </c>
       <c r="Z129">
         <f t="shared" si="54"/>
-        <v>380828</v>
+        <v>14647</v>
       </c>
       <c r="AB129" t="s">
         <v>13</v>
@@ -4177,10 +4456,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="130" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="130" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W130">
         <f t="shared" si="52"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="X130">
         <f t="shared" si="56"/>
@@ -4192,7 +4471,7 @@
       </c>
       <c r="Z130">
         <f t="shared" si="54"/>
-        <v>380828</v>
+        <v>14647</v>
       </c>
       <c r="AB130" t="s">
         <v>14</v>
@@ -4208,10 +4487,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="131" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="131" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W131">
         <f t="shared" si="52"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="X131">
         <f t="shared" si="56"/>
@@ -4223,7 +4502,7 @@
       </c>
       <c r="Z131">
         <f t="shared" si="54"/>
-        <v>380828</v>
+        <v>14647</v>
       </c>
       <c r="AB131" t="s">
         <v>15</v>
@@ -4239,10 +4518,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="132" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="132" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W132">
         <f t="shared" si="52"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="X132">
         <f t="shared" si="56"/>
@@ -4254,7 +4533,7 @@
       </c>
       <c r="Z132">
         <f>Z131*Y131</f>
-        <v>380828</v>
+        <v>14647</v>
       </c>
       <c r="AB132" t="s">
         <v>16</v>
@@ -4270,10 +4549,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="133" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="133" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W133">
         <f t="shared" si="52"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="X133">
         <f t="shared" si="56"/>
@@ -4285,7 +4564,7 @@
       </c>
       <c r="Z133">
         <f t="shared" ref="Z133:Z136" si="58">Z132</f>
-        <v>380828</v>
+        <v>14647</v>
       </c>
       <c r="AB133" t="s">
         <v>12</v>
@@ -4301,10 +4580,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="134" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="134" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W134">
         <f t="shared" si="52"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="X134">
         <f t="shared" si="56"/>
@@ -4312,11 +4591,11 @@
       </c>
       <c r="Y134">
         <f>Y133+W133</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="Z134">
         <f t="shared" si="58"/>
-        <v>380828</v>
+        <v>14647</v>
       </c>
       <c r="AB134" t="s">
         <v>17</v>
@@ -4332,10 +4611,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="135" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="135" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W135">
         <f t="shared" si="52"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="X135">
         <f t="shared" si="56"/>
@@ -4343,11 +4622,11 @@
       </c>
       <c r="Y135">
         <f>Y134+AD135</f>
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="Z135">
         <f t="shared" si="58"/>
-        <v>380828</v>
+        <v>14647</v>
       </c>
       <c r="AB135" t="s">
         <v>31</v>
@@ -4362,10 +4641,10 @@
         <v>31</v>
       </c>
     </row>
-    <row r="136" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="136" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W136">
         <f t="shared" si="52"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="X136">
         <f t="shared" si="56"/>
@@ -4377,7 +4656,7 @@
       </c>
       <c r="Z136">
         <f t="shared" si="58"/>
-        <v>380828</v>
+        <v>14647</v>
       </c>
       <c r="AB136" t="s">
         <v>14</v>
@@ -4393,10 +4672,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="137" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="137" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W137">
         <f t="shared" si="52"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="X137">
         <f t="shared" si="56"/>
@@ -4408,7 +4687,7 @@
       </c>
       <c r="Z137">
         <f>Z136+Y136</f>
-        <v>380828</v>
+        <v>14647</v>
       </c>
       <c r="AB137" t="s">
         <v>19</v>
@@ -4424,10 +4703,10 @@
         <v>19</v>
       </c>
     </row>
-    <row r="138" spans="21:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="21:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="W138" s="3">
         <f t="shared" si="52"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="X138" s="3">
         <f t="shared" si="56"/>
@@ -4439,16 +4718,36 @@
       </c>
       <c r="Z138" s="3">
         <f t="shared" ref="Z138:Z142" si="61">Z137</f>
-        <v>380828</v>
-      </c>
-    </row>
-    <row r="139" spans="21:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>14647</v>
+      </c>
+      <c r="AA138" s="5">
+        <f>MOD(Z138,26)</f>
+        <v>9</v>
+      </c>
+      <c r="AK138">
+        <f>U120</f>
+        <v>9</v>
+      </c>
+      <c r="AL138">
+        <f>IF(MOD(Z119, 26)+AL120 = U120,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AM138">
+        <f>AL138*(U120+AM120)</f>
+        <v>0</v>
+      </c>
+      <c r="AN138">
+        <f>TRUNC(Z119/AK120,0)*(1+25*AL138)+AM138</f>
+        <v>14647</v>
+      </c>
+    </row>
+    <row r="139" spans="21:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="U139" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W139">
         <f>U139</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X139">
         <f t="shared" si="56"/>
@@ -4460,7 +4759,11 @@
       </c>
       <c r="Z139">
         <f t="shared" si="61"/>
-        <v>380828</v>
+        <v>14647</v>
+      </c>
+      <c r="AA139">
+        <f>AA138+AD144</f>
+        <v>19</v>
       </c>
       <c r="AB139" t="s">
         <v>4</v>
@@ -4475,11 +4778,23 @@
       <c r="AI139" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="140" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="AK139" s="8">
+        <f>AD143</f>
+        <v>1</v>
+      </c>
+      <c r="AL139" s="8">
+        <f>AD144</f>
+        <v>10</v>
+      </c>
+      <c r="AM139" s="8">
+        <f>AD154</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W140">
         <f t="shared" ref="W140:W157" si="62">W139</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X140">
         <f>X139*0</f>
@@ -4491,7 +4806,7 @@
       </c>
       <c r="Z140">
         <f t="shared" si="61"/>
-        <v>380828</v>
+        <v>14647</v>
       </c>
       <c r="AB140" t="s">
         <v>5</v>
@@ -4507,14 +4822,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="141" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W141">
         <f t="shared" si="62"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X141">
         <f>X140+Z140</f>
-        <v>380828</v>
+        <v>14647</v>
       </c>
       <c r="Y141">
         <f t="shared" si="60"/>
@@ -4522,7 +4837,7 @@
       </c>
       <c r="Z141">
         <f t="shared" si="61"/>
-        <v>380828</v>
+        <v>14647</v>
       </c>
       <c r="AB141" t="s">
         <v>6</v>
@@ -4538,14 +4853,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="142" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="142" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W142">
         <f t="shared" si="62"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X142">
         <f>MOD(X141,26)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Y142">
         <f t="shared" si="60"/>
@@ -4553,7 +4868,7 @@
       </c>
       <c r="Z142">
         <f t="shared" si="61"/>
-        <v>380828</v>
+        <v>14647</v>
       </c>
       <c r="AB142" t="s">
         <v>7</v>
@@ -4569,14 +4884,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="143" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W143">
         <f t="shared" si="62"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X143">
         <f t="shared" ref="X143" si="63">X142</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Y143">
         <f t="shared" si="60"/>
@@ -4584,7 +4899,7 @@
       </c>
       <c r="Z143">
         <f>TRUNC(Z142/AD143,0)</f>
-        <v>380828</v>
+        <v>14647</v>
       </c>
       <c r="AB143" t="s">
         <v>8</v>
@@ -4603,14 +4918,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="144" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W144">
         <f t="shared" si="62"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X144">
         <f>X143+AD144</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Y144">
         <f t="shared" si="60"/>
@@ -4618,7 +4933,7 @@
       </c>
       <c r="Z144">
         <f t="shared" ref="Z144:Z150" si="64">Z143</f>
-        <v>380828</v>
+        <v>14647</v>
       </c>
       <c r="AB144" t="s">
         <v>32</v>
@@ -4633,10 +4948,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="145" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="145" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W145">
         <f t="shared" si="62"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X145">
         <f>IF(X144=W144,1,0)</f>
@@ -4648,7 +4963,7 @@
       </c>
       <c r="Z145">
         <f t="shared" si="64"/>
-        <v>380828</v>
+        <v>14647</v>
       </c>
       <c r="AB145" t="s">
         <v>10</v>
@@ -4664,10 +4979,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="146" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W146">
         <f t="shared" si="62"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X146">
         <f>IF(X145=0,1,0)</f>
@@ -4679,7 +4994,7 @@
       </c>
       <c r="Z146">
         <f t="shared" si="64"/>
-        <v>380828</v>
+        <v>14647</v>
       </c>
       <c r="AB146" t="s">
         <v>11</v>
@@ -4695,10 +5010,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="147" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="147" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W147">
         <f t="shared" si="62"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X147">
         <f t="shared" ref="X147:X158" si="66">X146</f>
@@ -4710,7 +5025,7 @@
       </c>
       <c r="Z147">
         <f t="shared" si="64"/>
-        <v>380828</v>
+        <v>14647</v>
       </c>
       <c r="AB147" t="s">
         <v>12</v>
@@ -4726,10 +5041,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="148" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="148" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W148">
         <f t="shared" si="62"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X148">
         <f t="shared" si="66"/>
@@ -4741,7 +5056,7 @@
       </c>
       <c r="Z148">
         <f t="shared" si="64"/>
-        <v>380828</v>
+        <v>14647</v>
       </c>
       <c r="AB148" t="s">
         <v>13</v>
@@ -4757,10 +5072,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="149" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="149" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W149">
         <f t="shared" si="62"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X149">
         <f t="shared" si="66"/>
@@ -4772,7 +5087,7 @@
       </c>
       <c r="Z149">
         <f t="shared" si="64"/>
-        <v>380828</v>
+        <v>14647</v>
       </c>
       <c r="AB149" t="s">
         <v>14</v>
@@ -4788,10 +5103,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="150" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="150" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W150">
         <f t="shared" si="62"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X150">
         <f t="shared" si="66"/>
@@ -4803,7 +5118,7 @@
       </c>
       <c r="Z150">
         <f t="shared" si="64"/>
-        <v>380828</v>
+        <v>14647</v>
       </c>
       <c r="AB150" t="s">
         <v>15</v>
@@ -4819,10 +5134,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="151" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="151" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W151">
         <f t="shared" si="62"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X151">
         <f t="shared" si="66"/>
@@ -4834,7 +5149,7 @@
       </c>
       <c r="Z151">
         <f>Z150*Y150</f>
-        <v>9901528</v>
+        <v>380822</v>
       </c>
       <c r="AB151" t="s">
         <v>16</v>
@@ -4850,10 +5165,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="152" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="152" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W152">
         <f t="shared" si="62"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X152">
         <f t="shared" si="66"/>
@@ -4865,7 +5180,7 @@
       </c>
       <c r="Z152">
         <f t="shared" ref="Z152:Z155" si="68">Z151</f>
-        <v>9901528</v>
+        <v>380822</v>
       </c>
       <c r="AB152" t="s">
         <v>12</v>
@@ -4881,10 +5196,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="153" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="153" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W153">
         <f t="shared" si="62"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X153">
         <f t="shared" si="66"/>
@@ -4892,11 +5207,11 @@
       </c>
       <c r="Y153">
         <f>Y152+W152</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z153">
         <f t="shared" si="68"/>
-        <v>9901528</v>
+        <v>380822</v>
       </c>
       <c r="AB153" t="s">
         <v>17</v>
@@ -4912,10 +5227,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="154" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="154" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W154">
         <f t="shared" si="62"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X154">
         <f t="shared" si="66"/>
@@ -4923,11 +5238,11 @@
       </c>
       <c r="Y154">
         <f>Y153+AD154</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Z154">
         <f t="shared" si="68"/>
-        <v>9901528</v>
+        <v>380822</v>
       </c>
       <c r="AB154" t="s">
         <v>22</v>
@@ -4942,10 +5257,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="155" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="155" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W155">
         <f t="shared" si="62"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X155">
         <f t="shared" si="66"/>
@@ -4953,11 +5268,11 @@
       </c>
       <c r="Y155">
         <f>Y154*X154</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Z155">
         <f t="shared" si="68"/>
-        <v>9901528</v>
+        <v>380822</v>
       </c>
       <c r="AB155" t="s">
         <v>14</v>
@@ -4973,10 +5288,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="156" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="156" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W156">
         <f t="shared" si="62"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X156">
         <f t="shared" si="66"/>
@@ -4984,11 +5299,11 @@
       </c>
       <c r="Y156">
         <f t="shared" ref="Y156:Y165" si="70">Y155</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Z156">
         <f>Z155+Y155</f>
-        <v>9901538</v>
+        <v>380834</v>
       </c>
       <c r="AB156" t="s">
         <v>19</v>
@@ -5004,10 +5319,10 @@
         <v>19</v>
       </c>
     </row>
-    <row r="157" spans="21:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="21:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="W157" s="3">
         <f t="shared" si="62"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X157" s="3">
         <f t="shared" si="66"/>
@@ -5015,20 +5330,40 @@
       </c>
       <c r="Y157" s="3">
         <f t="shared" si="70"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Z157" s="3">
         <f t="shared" ref="Z157:Z161" si="71">Z156</f>
-        <v>9901538</v>
-      </c>
-    </row>
-    <row r="158" spans="21:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>380834</v>
+      </c>
+      <c r="AA157" s="5">
+        <f>MOD(Z157,26)</f>
+        <v>12</v>
+      </c>
+      <c r="AK157">
+        <f>U139</f>
+        <v>4</v>
+      </c>
+      <c r="AL157">
+        <f>IF(MOD(Z138, 26)+AL139 = U139,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="AM157">
+        <f>AL157*(U139+AM139)</f>
+        <v>12</v>
+      </c>
+      <c r="AN157">
+        <f>TRUNC(Z138/AK139,0)*(1+25*AL157)+AM157</f>
+        <v>380834</v>
+      </c>
+    </row>
+    <row r="158" spans="21:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="U158" s="2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="W158">
         <f>U158</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="X158">
         <f t="shared" si="66"/>
@@ -5036,11 +5371,15 @@
       </c>
       <c r="Y158">
         <f t="shared" si="70"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Z158">
         <f t="shared" si="71"/>
-        <v>9901538</v>
+        <v>380834</v>
+      </c>
+      <c r="AA158">
+        <f>AA157+AD163</f>
+        <v>9</v>
       </c>
       <c r="AB158" t="s">
         <v>4</v>
@@ -5055,11 +5394,23 @@
       <c r="AI158" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="159" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="AK158" s="8">
+        <f>AD162</f>
+        <v>26</v>
+      </c>
+      <c r="AL158" s="8">
+        <f>AD163</f>
+        <v>-3</v>
+      </c>
+      <c r="AM158" s="8">
+        <f>AD173</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="159" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W159">
         <f t="shared" ref="W159:W176" si="72">W158</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="X159">
         <f>X158*0</f>
@@ -5067,11 +5418,11 @@
       </c>
       <c r="Y159">
         <f t="shared" si="70"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Z159">
         <f t="shared" si="71"/>
-        <v>9901538</v>
+        <v>380834</v>
       </c>
       <c r="AB159" t="s">
         <v>5</v>
@@ -5087,22 +5438,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="160" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W160">
         <f t="shared" si="72"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="X160">
         <f>X159+Z159</f>
-        <v>9901538</v>
+        <v>380834</v>
       </c>
       <c r="Y160">
         <f t="shared" si="70"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Z160">
         <f t="shared" si="71"/>
-        <v>9901538</v>
+        <v>380834</v>
       </c>
       <c r="AB160" t="s">
         <v>6</v>
@@ -5118,22 +5469,22 @@
         <v>6</v>
       </c>
     </row>
-    <row r="161" spans="23:35" x14ac:dyDescent="0.25">
+    <row r="161" spans="23:40" x14ac:dyDescent="0.25">
       <c r="W161">
         <f t="shared" si="72"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="X161">
         <f>MOD(X160,26)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Y161">
         <f t="shared" si="70"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Z161">
         <f t="shared" si="71"/>
-        <v>9901538</v>
+        <v>380834</v>
       </c>
       <c r="AB161" t="s">
         <v>7</v>
@@ -5149,27 +5500,27 @@
         <v>7</v>
       </c>
     </row>
-    <row r="162" spans="23:35" x14ac:dyDescent="0.25">
+    <row r="162" spans="23:40" x14ac:dyDescent="0.25">
       <c r="W162">
         <f t="shared" si="72"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="X162">
         <f t="shared" ref="X162" si="73">X161</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Y162">
         <f t="shared" si="70"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Z162">
         <f>TRUNC(Z161/AD162,0)</f>
-        <v>380828</v>
+        <v>14647</v>
       </c>
       <c r="AB162" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AD162" s="4">
+      <c r="AD162" s="6">
         <v>26</v>
       </c>
       <c r="AE162">
@@ -5183,22 +5534,22 @@
         <v>27</v>
       </c>
     </row>
-    <row r="163" spans="23:35" x14ac:dyDescent="0.25">
+    <row r="163" spans="23:40" x14ac:dyDescent="0.25">
       <c r="W163">
         <f t="shared" si="72"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="X163">
         <f>X162+AD163</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Y163">
         <f t="shared" si="70"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Z163">
         <f t="shared" ref="Z163:Z169" si="74">Z162</f>
-        <v>380828</v>
+        <v>14647</v>
       </c>
       <c r="AB163" t="s">
         <v>33</v>
@@ -5213,22 +5564,22 @@
         <v>33</v>
       </c>
     </row>
-    <row r="164" spans="23:35" x14ac:dyDescent="0.25">
+    <row r="164" spans="23:40" x14ac:dyDescent="0.25">
       <c r="W164">
         <f t="shared" si="72"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="X164">
         <f>IF(X163=W163,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y164">
         <f t="shared" si="70"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Z164">
         <f t="shared" si="74"/>
-        <v>380828</v>
+        <v>14647</v>
       </c>
       <c r="AB164" t="s">
         <v>10</v>
@@ -5244,22 +5595,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="165" spans="23:35" x14ac:dyDescent="0.25">
+    <row r="165" spans="23:40" x14ac:dyDescent="0.25">
       <c r="W165">
         <f t="shared" si="72"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="X165">
         <f>IF(X164=0,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y165">
         <f t="shared" si="70"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Z165">
         <f t="shared" si="74"/>
-        <v>380828</v>
+        <v>14647</v>
       </c>
       <c r="AB165" t="s">
         <v>11</v>
@@ -5275,14 +5626,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="166" spans="23:35" x14ac:dyDescent="0.25">
+    <row r="166" spans="23:40" x14ac:dyDescent="0.25">
       <c r="W166">
         <f t="shared" si="72"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="X166">
         <f t="shared" ref="X166:X177" si="76">X165</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y166">
         <f>Y165*0</f>
@@ -5290,7 +5641,7 @@
       </c>
       <c r="Z166">
         <f t="shared" si="74"/>
-        <v>380828</v>
+        <v>14647</v>
       </c>
       <c r="AB166" t="s">
         <v>12</v>
@@ -5306,14 +5657,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="167" spans="23:35" x14ac:dyDescent="0.25">
+    <row r="167" spans="23:40" x14ac:dyDescent="0.25">
       <c r="W167">
         <f t="shared" si="72"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="X167">
         <f t="shared" si="76"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y167">
         <f>Y166+25</f>
@@ -5321,7 +5672,7 @@
       </c>
       <c r="Z167">
         <f t="shared" si="74"/>
-        <v>380828</v>
+        <v>14647</v>
       </c>
       <c r="AB167" t="s">
         <v>13</v>
@@ -5337,22 +5688,22 @@
         <v>13</v>
       </c>
     </row>
-    <row r="168" spans="23:35" x14ac:dyDescent="0.25">
+    <row r="168" spans="23:40" x14ac:dyDescent="0.25">
       <c r="W168">
         <f t="shared" si="72"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="X168">
         <f t="shared" si="76"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y168">
         <f>Y167*X167</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Z168">
         <f t="shared" si="74"/>
-        <v>380828</v>
+        <v>14647</v>
       </c>
       <c r="AB168" t="s">
         <v>14</v>
@@ -5368,22 +5719,22 @@
         <v>14</v>
       </c>
     </row>
-    <row r="169" spans="23:35" x14ac:dyDescent="0.25">
+    <row r="169" spans="23:40" x14ac:dyDescent="0.25">
       <c r="W169">
         <f t="shared" si="72"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="X169">
         <f t="shared" si="76"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y169">
         <f>Y168+1</f>
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="Z169">
         <f t="shared" si="74"/>
-        <v>380828</v>
+        <v>14647</v>
       </c>
       <c r="AB169" t="s">
         <v>15</v>
@@ -5399,22 +5750,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="170" spans="23:35" x14ac:dyDescent="0.25">
+    <row r="170" spans="23:40" x14ac:dyDescent="0.25">
       <c r="W170">
         <f t="shared" si="72"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="X170">
         <f t="shared" si="76"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y170">
         <f t="shared" ref="Y170" si="77">Y169</f>
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="Z170">
         <f>Z169*Y169</f>
-        <v>9901528</v>
+        <v>14647</v>
       </c>
       <c r="AB170" t="s">
         <v>16</v>
@@ -5429,15 +5780,18 @@
       <c r="AI170" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="171" spans="23:35" x14ac:dyDescent="0.25">
+      <c r="AJ170" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="171" spans="23:40" x14ac:dyDescent="0.25">
       <c r="W171">
         <f t="shared" si="72"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="X171">
         <f t="shared" si="76"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y171">
         <f>Y170*0</f>
@@ -5445,7 +5799,7 @@
       </c>
       <c r="Z171">
         <f t="shared" ref="Z171:Z174" si="78">Z170</f>
-        <v>9901528</v>
+        <v>14647</v>
       </c>
       <c r="AB171" t="s">
         <v>12</v>
@@ -5461,22 +5815,22 @@
         <v>12</v>
       </c>
     </row>
-    <row r="172" spans="23:35" x14ac:dyDescent="0.25">
+    <row r="172" spans="23:40" x14ac:dyDescent="0.25">
       <c r="W172">
         <f t="shared" si="72"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="X172">
         <f t="shared" si="76"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y172">
         <f>Y171+W171</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="Z172">
         <f t="shared" si="78"/>
-        <v>9901528</v>
+        <v>14647</v>
       </c>
       <c r="AB172" t="s">
         <v>17</v>
@@ -5492,22 +5846,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="173" spans="23:35" x14ac:dyDescent="0.25">
+    <row r="173" spans="23:40" x14ac:dyDescent="0.25">
       <c r="W173">
         <f t="shared" si="72"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="X173">
         <f t="shared" si="76"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y173">
         <f>Y172+AD173</f>
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="Z173">
         <f t="shared" si="78"/>
-        <v>9901528</v>
+        <v>14647</v>
       </c>
       <c r="AB173" t="s">
         <v>18</v>
@@ -5522,22 +5876,22 @@
         <v>18</v>
       </c>
     </row>
-    <row r="174" spans="23:35" x14ac:dyDescent="0.25">
+    <row r="174" spans="23:40" x14ac:dyDescent="0.25">
       <c r="W174">
         <f t="shared" si="72"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="X174">
         <f t="shared" si="76"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y174">
         <f>Y173*X173</f>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Z174">
         <f t="shared" si="78"/>
-        <v>9901528</v>
+        <v>14647</v>
       </c>
       <c r="AB174" t="s">
         <v>14</v>
@@ -5553,22 +5907,22 @@
         <v>14</v>
       </c>
     </row>
-    <row r="175" spans="23:35" x14ac:dyDescent="0.25">
+    <row r="175" spans="23:40" x14ac:dyDescent="0.25">
       <c r="W175">
         <f t="shared" si="72"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="X175">
         <f t="shared" si="76"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y175">
         <f t="shared" ref="Y175:Y184" si="80">Y174</f>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Z175">
         <f>Z174+Y174</f>
-        <v>9901542</v>
+        <v>14647</v>
       </c>
       <c r="AB175" t="s">
         <v>19</v>
@@ -5583,44 +5937,71 @@
       <c r="AI175" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="176" spans="23:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AJ175" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="176" spans="23:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="W176" s="3">
         <f t="shared" si="72"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="X176" s="3">
         <f t="shared" si="76"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y176" s="3">
         <f t="shared" si="80"/>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Z176" s="3">
         <f t="shared" ref="Z176:Z180" si="81">Z175</f>
-        <v>9901542</v>
-      </c>
-    </row>
-    <row r="177" spans="21:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>14647</v>
+      </c>
+      <c r="AA176" s="5">
+        <f>MOD(Z176,26)</f>
+        <v>9</v>
+      </c>
+      <c r="AK176">
+        <f>U158</f>
+        <v>9</v>
+      </c>
+      <c r="AL176">
+        <f>IF(MOD(Z157, 26)+AL158 = U158,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AM176">
+        <f>AL176*(U158+AM158)</f>
+        <v>0</v>
+      </c>
+      <c r="AN176">
+        <f>TRUNC(Z157/AK158,0)*(1+25*AL176)+AM176</f>
+        <v>14647</v>
+      </c>
+    </row>
+    <row r="177" spans="21:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="U177" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W177">
         <f>U177</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="X177">
         <f t="shared" si="76"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y177">
         <f t="shared" si="80"/>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Z177">
         <f t="shared" si="81"/>
-        <v>9901542</v>
+        <v>14647</v>
+      </c>
+      <c r="AA177">
+        <f>AA176+AD182</f>
+        <v>5</v>
       </c>
       <c r="AB177" t="s">
         <v>4</v>
@@ -5635,11 +6016,23 @@
       <c r="AI177" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="178" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="AK177" s="8">
+        <f>AD181</f>
+        <v>26</v>
+      </c>
+      <c r="AL177" s="8">
+        <f>AD182</f>
+        <v>-4</v>
+      </c>
+      <c r="AM177" s="8">
+        <f>AD192</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178" spans="21:39" x14ac:dyDescent="0.25">
       <c r="W178">
         <f t="shared" ref="W178:W195" si="82">W177</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="X178">
         <f>X177*0</f>
@@ -5647,11 +6040,11 @@
       </c>
       <c r="Y178">
         <f t="shared" si="80"/>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Z178">
         <f t="shared" si="81"/>
-        <v>9901542</v>
+        <v>14647</v>
       </c>
       <c r="AB178" t="s">
         <v>5</v>
@@ -5667,22 +6060,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="179" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="179" spans="21:39" x14ac:dyDescent="0.25">
       <c r="W179">
         <f t="shared" si="82"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="X179">
         <f>X178+Z178</f>
-        <v>9901542</v>
+        <v>14647</v>
       </c>
       <c r="Y179">
         <f t="shared" si="80"/>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Z179">
         <f t="shared" si="81"/>
-        <v>9901542</v>
+        <v>14647</v>
       </c>
       <c r="AB179" t="s">
         <v>6</v>
@@ -5698,22 +6091,22 @@
         <v>6</v>
       </c>
     </row>
-    <row r="180" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="180" spans="21:39" x14ac:dyDescent="0.25">
       <c r="W180">
         <f t="shared" si="82"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="X180">
         <f>MOD(X179,26)</f>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="Y180">
         <f t="shared" si="80"/>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Z180">
         <f t="shared" si="81"/>
-        <v>9901542</v>
+        <v>14647</v>
       </c>
       <c r="AB180" t="s">
         <v>7</v>
@@ -5729,27 +6122,27 @@
         <v>7</v>
       </c>
     </row>
-    <row r="181" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="181" spans="21:39" x14ac:dyDescent="0.25">
       <c r="W181">
         <f t="shared" si="82"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="X181">
         <f t="shared" ref="X181" si="83">X180</f>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="Y181">
         <f t="shared" si="80"/>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Z181">
         <f>TRUNC(Z180/AD181,0)</f>
-        <v>380828</v>
+        <v>563</v>
       </c>
       <c r="AB181" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AD181" s="4">
+      <c r="AD181" s="6">
         <v>26</v>
       </c>
       <c r="AE181">
@@ -5763,22 +6156,22 @@
         <v>27</v>
       </c>
     </row>
-    <row r="182" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="182" spans="21:39" x14ac:dyDescent="0.25">
       <c r="W182">
         <f t="shared" si="82"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="X182">
         <f>X181+AD182</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Y182">
         <f t="shared" si="80"/>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Z182">
         <f t="shared" ref="Z182:Z188" si="84">Z181</f>
-        <v>380828</v>
+        <v>563</v>
       </c>
       <c r="AB182" t="s">
         <v>34</v>
@@ -5793,22 +6186,22 @@
         <v>34</v>
       </c>
     </row>
-    <row r="183" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="183" spans="21:39" x14ac:dyDescent="0.25">
       <c r="W183">
         <f t="shared" si="82"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="X183">
         <f>IF(X182=W182,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y183">
         <f t="shared" si="80"/>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Z183">
         <f t="shared" si="84"/>
-        <v>380828</v>
+        <v>563</v>
       </c>
       <c r="AB183" t="s">
         <v>10</v>
@@ -5824,22 +6217,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="184" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="184" spans="21:39" x14ac:dyDescent="0.25">
       <c r="W184">
         <f t="shared" si="82"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="X184">
         <f>IF(X183=0,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y184">
         <f t="shared" si="80"/>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Z184">
         <f t="shared" si="84"/>
-        <v>380828</v>
+        <v>563</v>
       </c>
       <c r="AB184" t="s">
         <v>11</v>
@@ -5855,14 +6248,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="185" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="185" spans="21:39" x14ac:dyDescent="0.25">
       <c r="W185">
         <f t="shared" si="82"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="X185">
         <f t="shared" ref="X185:X196" si="86">X184</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y185">
         <f>Y184*0</f>
@@ -5870,7 +6263,7 @@
       </c>
       <c r="Z185">
         <f t="shared" si="84"/>
-        <v>380828</v>
+        <v>563</v>
       </c>
       <c r="AB185" t="s">
         <v>12</v>
@@ -5886,14 +6279,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="186" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="186" spans="21:39" x14ac:dyDescent="0.25">
       <c r="W186">
         <f t="shared" si="82"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="X186">
         <f t="shared" si="86"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y186">
         <f>Y185+25</f>
@@ -5901,7 +6294,7 @@
       </c>
       <c r="Z186">
         <f t="shared" si="84"/>
-        <v>380828</v>
+        <v>563</v>
       </c>
       <c r="AB186" t="s">
         <v>13</v>
@@ -5917,22 +6310,22 @@
         <v>13</v>
       </c>
     </row>
-    <row r="187" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="187" spans="21:39" x14ac:dyDescent="0.25">
       <c r="W187">
         <f t="shared" si="82"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="X187">
         <f t="shared" si="86"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y187">
         <f>Y186*X186</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Z187">
         <f t="shared" si="84"/>
-        <v>380828</v>
+        <v>563</v>
       </c>
       <c r="AB187" t="s">
         <v>14</v>
@@ -5948,22 +6341,22 @@
         <v>14</v>
       </c>
     </row>
-    <row r="188" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="188" spans="21:39" x14ac:dyDescent="0.25">
       <c r="W188">
         <f t="shared" si="82"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="X188">
         <f t="shared" si="86"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y188">
         <f>Y187+1</f>
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="Z188">
         <f t="shared" si="84"/>
-        <v>380828</v>
+        <v>563</v>
       </c>
       <c r="AB188" t="s">
         <v>15</v>
@@ -5979,22 +6372,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="189" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="189" spans="21:39" x14ac:dyDescent="0.25">
       <c r="W189">
         <f t="shared" si="82"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="X189">
         <f t="shared" si="86"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y189">
         <f t="shared" ref="Y189" si="87">Y188</f>
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="Z189">
         <f>Z188*Y188</f>
-        <v>9901528</v>
+        <v>563</v>
       </c>
       <c r="AB189" t="s">
         <v>16</v>
@@ -6010,14 +6403,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="190" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="190" spans="21:39" x14ac:dyDescent="0.25">
       <c r="W190">
         <f t="shared" si="82"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="X190">
         <f t="shared" si="86"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y190">
         <f>Y189*0</f>
@@ -6025,7 +6418,7 @@
       </c>
       <c r="Z190">
         <f t="shared" ref="Z190:Z193" si="88">Z189</f>
-        <v>9901528</v>
+        <v>563</v>
       </c>
       <c r="AB190" t="s">
         <v>12</v>
@@ -6041,22 +6434,22 @@
         <v>12</v>
       </c>
     </row>
-    <row r="191" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="191" spans="21:39" x14ac:dyDescent="0.25">
       <c r="W191">
         <f t="shared" si="82"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="X191">
         <f t="shared" si="86"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y191">
         <f>Y190+W190</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Z191">
         <f t="shared" si="88"/>
-        <v>9901528</v>
+        <v>563</v>
       </c>
       <c r="AB191" t="s">
         <v>17</v>
@@ -6072,22 +6465,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="192" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="192" spans="21:39" x14ac:dyDescent="0.25">
       <c r="W192">
         <f t="shared" si="82"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="X192">
         <f t="shared" si="86"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y192">
         <f>Y191+AD192</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Z192">
         <f t="shared" si="88"/>
-        <v>9901528</v>
+        <v>563</v>
       </c>
       <c r="AB192" t="s">
         <v>31</v>
@@ -6102,22 +6495,22 @@
         <v>31</v>
       </c>
     </row>
-    <row r="193" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="193" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W193">
         <f t="shared" si="82"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="X193">
         <f t="shared" si="86"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y193">
         <f>Y192*X192</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Z193">
         <f t="shared" si="88"/>
-        <v>9901528</v>
+        <v>563</v>
       </c>
       <c r="AB193" t="s">
         <v>14</v>
@@ -6133,22 +6526,22 @@
         <v>14</v>
       </c>
     </row>
-    <row r="194" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="194" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W194">
         <f t="shared" si="82"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="X194">
         <f t="shared" si="86"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y194">
         <f t="shared" ref="Y194:Y203" si="90">Y193</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Z194">
         <f>Z193+Y193</f>
-        <v>9901540</v>
+        <v>563</v>
       </c>
       <c r="AB194" t="s">
         <v>19</v>
@@ -6164,43 +6557,67 @@
         <v>19</v>
       </c>
     </row>
-    <row r="195" spans="21:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="21:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="W195" s="3">
         <f t="shared" si="82"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="X195" s="3">
         <f t="shared" si="86"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y195" s="3">
         <f t="shared" si="90"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Z195" s="3">
         <f t="shared" ref="Z195:Z199" si="91">Z194</f>
-        <v>9901540</v>
-      </c>
-    </row>
-    <row r="196" spans="21:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>563</v>
+      </c>
+      <c r="AA195" s="5">
+        <f>MOD(Z195,26)</f>
+        <v>17</v>
+      </c>
+      <c r="AK195">
+        <f>U177</f>
+        <v>5</v>
+      </c>
+      <c r="AL195">
+        <f>IF(MOD(Z176, 26)+AL177 = U177,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AM195">
+        <f>AL195*(U177+AM177)</f>
+        <v>0</v>
+      </c>
+      <c r="AN195">
+        <f>TRUNC(Z176/AK177,0)*(1+25*AL195)+AM195</f>
+        <v>563</v>
+      </c>
+    </row>
+    <row r="196" spans="21:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="U196" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W196">
         <f>U196</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X196">
         <f t="shared" si="86"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y196">
         <f t="shared" si="90"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Z196">
         <f t="shared" si="91"/>
-        <v>9901540</v>
+        <v>563</v>
+      </c>
+      <c r="AA196">
+        <f>AA195+AD201</f>
+        <v>4</v>
       </c>
       <c r="AB196" t="s">
         <v>4</v>
@@ -6215,11 +6632,23 @@
       <c r="AI196" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="197" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="AK196" s="8">
+        <f>AD200</f>
+        <v>26</v>
+      </c>
+      <c r="AL196" s="8">
+        <f>AD201</f>
+        <v>-13</v>
+      </c>
+      <c r="AM196" s="8">
+        <f>AD211</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="197" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W197">
         <f t="shared" ref="W197:W214" si="92">W196</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X197">
         <f>X196*0</f>
@@ -6227,11 +6656,11 @@
       </c>
       <c r="Y197">
         <f t="shared" si="90"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Z197">
         <f t="shared" si="91"/>
-        <v>9901540</v>
+        <v>563</v>
       </c>
       <c r="AB197" t="s">
         <v>5</v>
@@ -6247,22 +6676,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="198" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W198">
         <f t="shared" si="92"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X198">
         <f>X197+Z197</f>
-        <v>9901540</v>
+        <v>563</v>
       </c>
       <c r="Y198">
         <f t="shared" si="90"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Z198">
         <f t="shared" si="91"/>
-        <v>9901540</v>
+        <v>563</v>
       </c>
       <c r="AB198" t="s">
         <v>6</v>
@@ -6278,22 +6707,22 @@
         <v>6</v>
       </c>
     </row>
-    <row r="199" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="199" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W199">
         <f t="shared" si="92"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X199">
         <f>MOD(X198,26)</f>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="Y199">
         <f t="shared" si="90"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Z199">
         <f t="shared" si="91"/>
-        <v>9901540</v>
+        <v>563</v>
       </c>
       <c r="AB199" t="s">
         <v>7</v>
@@ -6309,27 +6738,27 @@
         <v>7</v>
       </c>
     </row>
-    <row r="200" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="200" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W200">
         <f t="shared" si="92"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X200">
         <f t="shared" ref="X200" si="93">X199</f>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="Y200">
         <f t="shared" si="90"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Z200">
         <f>TRUNC(Z199/AD200,0)</f>
-        <v>380828</v>
+        <v>21</v>
       </c>
       <c r="AB200" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AD200" s="4">
+      <c r="AD200" s="6">
         <v>26</v>
       </c>
       <c r="AE200">
@@ -6343,22 +6772,22 @@
         <v>27</v>
       </c>
     </row>
-    <row r="201" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="201" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W201">
         <f t="shared" si="92"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X201">
         <f>X200+AD201</f>
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y201">
         <f t="shared" si="90"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Z201">
         <f t="shared" ref="Z201:Z207" si="94">Z200</f>
-        <v>380828</v>
+        <v>21</v>
       </c>
       <c r="AB201" t="s">
         <v>35</v>
@@ -6373,22 +6802,22 @@
         <v>35</v>
       </c>
     </row>
-    <row r="202" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="202" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W202">
         <f t="shared" si="92"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X202">
         <f>IF(X201=W201,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y202">
         <f t="shared" si="90"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Z202">
         <f t="shared" si="94"/>
-        <v>380828</v>
+        <v>21</v>
       </c>
       <c r="AB202" t="s">
         <v>10</v>
@@ -6404,22 +6833,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="203" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="203" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W203">
         <f t="shared" si="92"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X203">
         <f>IF(X202=0,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y203">
         <f t="shared" si="90"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Z203">
         <f t="shared" si="94"/>
-        <v>380828</v>
+        <v>21</v>
       </c>
       <c r="AB203" t="s">
         <v>11</v>
@@ -6435,14 +6864,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="204" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="204" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W204">
         <f t="shared" si="92"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X204">
         <f t="shared" ref="X204:X215" si="96">X203</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y204">
         <f>Y203*0</f>
@@ -6450,7 +6879,7 @@
       </c>
       <c r="Z204">
         <f t="shared" si="94"/>
-        <v>380828</v>
+        <v>21</v>
       </c>
       <c r="AB204" t="s">
         <v>12</v>
@@ -6466,14 +6895,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="205" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="205" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W205">
         <f t="shared" si="92"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X205">
         <f t="shared" si="96"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y205">
         <f>Y204+25</f>
@@ -6481,7 +6910,7 @@
       </c>
       <c r="Z205">
         <f t="shared" si="94"/>
-        <v>380828</v>
+        <v>21</v>
       </c>
       <c r="AB205" t="s">
         <v>13</v>
@@ -6497,22 +6926,22 @@
         <v>13</v>
       </c>
     </row>
-    <row r="206" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="206" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W206">
         <f t="shared" si="92"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X206">
         <f t="shared" si="96"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y206">
         <f>Y205*X205</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Z206">
         <f t="shared" si="94"/>
-        <v>380828</v>
+        <v>21</v>
       </c>
       <c r="AB206" t="s">
         <v>14</v>
@@ -6528,22 +6957,22 @@
         <v>14</v>
       </c>
     </row>
-    <row r="207" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="207" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W207">
         <f t="shared" si="92"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X207">
         <f t="shared" si="96"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y207">
         <f>Y206+1</f>
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="Z207">
         <f t="shared" si="94"/>
-        <v>380828</v>
+        <v>21</v>
       </c>
       <c r="AB207" t="s">
         <v>15</v>
@@ -6559,22 +6988,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="208" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="208" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W208">
         <f t="shared" si="92"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X208">
         <f t="shared" si="96"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y208">
         <f t="shared" ref="Y208" si="97">Y207</f>
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="Z208">
         <f>Z207*Y207</f>
-        <v>9901528</v>
+        <v>21</v>
       </c>
       <c r="AB208" t="s">
         <v>16</v>
@@ -6590,14 +7019,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="209" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="209" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W209">
         <f t="shared" si="92"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X209">
         <f t="shared" si="96"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y209">
         <f>Y208*0</f>
@@ -6605,7 +7034,7 @@
       </c>
       <c r="Z209">
         <f t="shared" ref="Z209:Z212" si="98">Z208</f>
-        <v>9901528</v>
+        <v>21</v>
       </c>
       <c r="AB209" t="s">
         <v>12</v>
@@ -6621,22 +7050,22 @@
         <v>12</v>
       </c>
     </row>
-    <row r="210" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="210" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W210">
         <f t="shared" si="92"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X210">
         <f t="shared" si="96"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y210">
         <f>Y209+W209</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z210">
         <f t="shared" si="98"/>
-        <v>9901528</v>
+        <v>21</v>
       </c>
       <c r="AB210" t="s">
         <v>17</v>
@@ -6652,22 +7081,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="211" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="211" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W211">
         <f t="shared" si="92"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X211">
         <f t="shared" si="96"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y211">
         <f>Y210+AD211</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Z211">
         <f t="shared" si="98"/>
-        <v>9901528</v>
+        <v>21</v>
       </c>
       <c r="AB211" t="s">
         <v>36</v>
@@ -6682,22 +7111,22 @@
         <v>36</v>
       </c>
     </row>
-    <row r="212" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="212" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W212">
         <f t="shared" si="92"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X212">
         <f t="shared" si="96"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y212">
         <f>Y211*X211</f>
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="Z212">
         <f t="shared" si="98"/>
-        <v>9901528</v>
+        <v>21</v>
       </c>
       <c r="AB212" t="s">
         <v>14</v>
@@ -6713,22 +7142,22 @@
         <v>14</v>
       </c>
     </row>
-    <row r="213" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="213" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W213">
         <f t="shared" si="92"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X213">
         <f t="shared" si="96"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y213">
         <f t="shared" ref="Y213:Y222" si="100">Y212</f>
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="Z213">
         <f>Z212+Y212</f>
-        <v>9901545</v>
+        <v>21</v>
       </c>
       <c r="AB213" t="s">
         <v>19</v>
@@ -6744,43 +7173,67 @@
         <v>19</v>
       </c>
     </row>
-    <row r="214" spans="21:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="21:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="W214" s="3">
         <f t="shared" si="92"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X214" s="3">
         <f t="shared" si="96"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y214" s="3">
         <f t="shared" si="100"/>
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="Z214" s="3">
         <f t="shared" ref="Z214:Z218" si="101">Z213</f>
-        <v>9901545</v>
-      </c>
-    </row>
-    <row r="215" spans="21:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="AA214" s="5">
+        <f>MOD(Z214,26)</f>
+        <v>21</v>
+      </c>
+      <c r="AK214">
+        <f>U196</f>
+        <v>4</v>
+      </c>
+      <c r="AL214">
+        <f>IF(MOD(Z195, 26)+AL196 = U196,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AM214">
+        <f>AL214*(U196+AM196)</f>
+        <v>0</v>
+      </c>
+      <c r="AN214">
+        <f>TRUNC(Z195/AK196,0)*(1+25*AL214)+AM214</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="215" spans="21:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="U215" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W215">
         <f>U215</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X215">
         <f t="shared" si="96"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y215">
         <f t="shared" si="100"/>
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="Z215">
         <f t="shared" si="101"/>
-        <v>9901545</v>
+        <v>21</v>
+      </c>
+      <c r="AA215">
+        <f>AA214+AD220</f>
+        <v>13</v>
       </c>
       <c r="AB215" t="s">
         <v>4</v>
@@ -6795,11 +7248,23 @@
       <c r="AI215" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="216" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="AK215" s="8">
+        <f>AD219</f>
+        <v>26</v>
+      </c>
+      <c r="AL215" s="8">
+        <f>AD220</f>
+        <v>-8</v>
+      </c>
+      <c r="AM215" s="8">
+        <f>AD230</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="216" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W216">
         <f t="shared" ref="W216:W233" si="102">W215</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X216">
         <f>X215*0</f>
@@ -6807,11 +7272,11 @@
       </c>
       <c r="Y216">
         <f t="shared" si="100"/>
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="Z216">
         <f t="shared" si="101"/>
-        <v>9901545</v>
+        <v>21</v>
       </c>
       <c r="AB216" t="s">
         <v>5</v>
@@ -6827,22 +7292,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="217" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W217">
         <f t="shared" si="102"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X217">
         <f>X216+Z216</f>
-        <v>9901545</v>
+        <v>21</v>
       </c>
       <c r="Y217">
         <f t="shared" si="100"/>
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="Z217">
         <f t="shared" si="101"/>
-        <v>9901545</v>
+        <v>21</v>
       </c>
       <c r="AB217" t="s">
         <v>6</v>
@@ -6858,22 +7323,22 @@
         <v>6</v>
       </c>
     </row>
-    <row r="218" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="218" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W218">
         <f t="shared" si="102"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X218">
         <f>MOD(X217,26)</f>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Y218">
         <f t="shared" si="100"/>
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="Z218">
         <f t="shared" si="101"/>
-        <v>9901545</v>
+        <v>21</v>
       </c>
       <c r="AB218" t="s">
         <v>7</v>
@@ -6889,27 +7354,27 @@
         <v>7</v>
       </c>
     </row>
-    <row r="219" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="219" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W219">
         <f t="shared" si="102"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X219">
         <f t="shared" ref="X219" si="103">X218</f>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Y219">
         <f t="shared" si="100"/>
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="Z219">
         <f>TRUNC(Z218/AD219,0)</f>
-        <v>380828</v>
+        <v>0</v>
       </c>
       <c r="AB219" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AD219" s="4">
+      <c r="AD219" s="6">
         <v>26</v>
       </c>
       <c r="AE219">
@@ -6923,22 +7388,22 @@
         <v>27</v>
       </c>
     </row>
-    <row r="220" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="220" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W220">
         <f t="shared" si="102"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X220">
         <f>X219+AD220</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Y220">
         <f t="shared" si="100"/>
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="Z220">
         <f t="shared" ref="Z220:Z226" si="104">Z219</f>
-        <v>380828</v>
+        <v>0</v>
       </c>
       <c r="AB220" t="s">
         <v>37</v>
@@ -6953,10 +7418,10 @@
         <v>37</v>
       </c>
     </row>
-    <row r="221" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="221" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W221">
         <f t="shared" si="102"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X221">
         <f>IF(X220=W220,1,0)</f>
@@ -6964,11 +7429,11 @@
       </c>
       <c r="Y221">
         <f t="shared" si="100"/>
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="Z221">
         <f t="shared" si="104"/>
-        <v>380828</v>
+        <v>0</v>
       </c>
       <c r="AB221" t="s">
         <v>10</v>
@@ -6984,10 +7449,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="222" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="222" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W222">
         <f t="shared" si="102"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X222">
         <f>IF(X221=0,1,0)</f>
@@ -6995,11 +7460,11 @@
       </c>
       <c r="Y222">
         <f t="shared" si="100"/>
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="Z222">
         <f t="shared" si="104"/>
-        <v>380828</v>
+        <v>0</v>
       </c>
       <c r="AB222" t="s">
         <v>11</v>
@@ -7015,10 +7480,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="223" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="223" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W223">
         <f t="shared" si="102"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X223">
         <f t="shared" ref="X223:X234" si="106">X222</f>
@@ -7030,7 +7495,7 @@
       </c>
       <c r="Z223">
         <f t="shared" si="104"/>
-        <v>380828</v>
+        <v>0</v>
       </c>
       <c r="AB223" t="s">
         <v>12</v>
@@ -7046,10 +7511,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="224" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="224" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W224">
         <f t="shared" si="102"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X224">
         <f t="shared" si="106"/>
@@ -7061,7 +7526,7 @@
       </c>
       <c r="Z224">
         <f t="shared" si="104"/>
-        <v>380828</v>
+        <v>0</v>
       </c>
       <c r="AB224" t="s">
         <v>13</v>
@@ -7077,10 +7542,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="225" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="225" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W225">
         <f t="shared" si="102"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X225">
         <f t="shared" si="106"/>
@@ -7092,7 +7557,7 @@
       </c>
       <c r="Z225">
         <f t="shared" si="104"/>
-        <v>380828</v>
+        <v>0</v>
       </c>
       <c r="AB225" t="s">
         <v>14</v>
@@ -7108,10 +7573,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="226" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="226" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W226">
         <f t="shared" si="102"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X226">
         <f t="shared" si="106"/>
@@ -7123,7 +7588,7 @@
       </c>
       <c r="Z226">
         <f t="shared" si="104"/>
-        <v>380828</v>
+        <v>0</v>
       </c>
       <c r="AB226" t="s">
         <v>15</v>
@@ -7139,10 +7604,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="227" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="227" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W227">
         <f t="shared" si="102"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X227">
         <f t="shared" si="106"/>
@@ -7154,7 +7619,7 @@
       </c>
       <c r="Z227">
         <f>Z226*Y226</f>
-        <v>9901528</v>
+        <v>0</v>
       </c>
       <c r="AB227" t="s">
         <v>16</v>
@@ -7170,10 +7635,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="228" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="228" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W228">
         <f t="shared" si="102"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X228">
         <f t="shared" si="106"/>
@@ -7185,7 +7650,7 @@
       </c>
       <c r="Z228">
         <f t="shared" ref="Z228:Z231" si="108">Z227</f>
-        <v>9901528</v>
+        <v>0</v>
       </c>
       <c r="AB228" t="s">
         <v>12</v>
@@ -7201,10 +7666,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="229" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="229" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W229">
         <f t="shared" si="102"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X229">
         <f t="shared" si="106"/>
@@ -7212,11 +7677,11 @@
       </c>
       <c r="Y229">
         <f>Y228+W228</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z229">
         <f t="shared" si="108"/>
-        <v>9901528</v>
+        <v>0</v>
       </c>
       <c r="AB229" t="s">
         <v>17</v>
@@ -7232,10 +7697,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="230" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="230" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W230">
         <f t="shared" si="102"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X230">
         <f t="shared" si="106"/>
@@ -7243,11 +7708,11 @@
       </c>
       <c r="Y230">
         <f>Y229+AD230</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z230">
         <f t="shared" si="108"/>
-        <v>9901528</v>
+        <v>0</v>
       </c>
       <c r="AB230" t="s">
         <v>26</v>
@@ -7262,10 +7727,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="231" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="231" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W231">
         <f t="shared" si="102"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X231">
         <f t="shared" si="106"/>
@@ -7273,11 +7738,11 @@
       </c>
       <c r="Y231">
         <f>Y230*X230</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z231">
         <f t="shared" si="108"/>
-        <v>9901528</v>
+        <v>0</v>
       </c>
       <c r="AB231" t="s">
         <v>14</v>
@@ -7293,10 +7758,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="232" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="232" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W232">
         <f t="shared" si="102"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X232">
         <f t="shared" si="106"/>
@@ -7304,11 +7769,11 @@
       </c>
       <c r="Y232">
         <f t="shared" ref="Y232:Y241" si="110">Y231</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z232">
         <f>Z231+Y231</f>
-        <v>9901534</v>
+        <v>5</v>
       </c>
       <c r="AB232" t="s">
         <v>19</v>
@@ -7324,10 +7789,10 @@
         <v>19</v>
       </c>
     </row>
-    <row r="233" spans="21:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="21:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="W233" s="3">
         <f t="shared" si="102"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X233" s="3">
         <f t="shared" si="106"/>
@@ -7335,20 +7800,40 @@
       </c>
       <c r="Y233" s="3">
         <f t="shared" si="110"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z233" s="3">
         <f t="shared" ref="Z233:Z237" si="111">Z232</f>
-        <v>9901534</v>
-      </c>
-    </row>
-    <row r="234" spans="21:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="AA233" s="5">
+        <f>MOD(Z233,26)</f>
+        <v>5</v>
+      </c>
+      <c r="AK233">
+        <f>U215</f>
+        <v>1</v>
+      </c>
+      <c r="AL233">
+        <f>IF(MOD(Z214, 26)+AL215 = U215,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="AM233">
+        <f>AL233*(U215+AM215)</f>
+        <v>5</v>
+      </c>
+      <c r="AN233">
+        <f>TRUNC(Z214/AK215,0)*(1+25*AL233)+AM233</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="234" spans="21:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="U234" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W234">
         <f>U234</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X234">
         <f t="shared" si="106"/>
@@ -7356,11 +7841,15 @@
       </c>
       <c r="Y234">
         <f t="shared" si="110"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z234">
         <f t="shared" si="111"/>
-        <v>9901534</v>
+        <v>5</v>
+      </c>
+      <c r="AA234">
+        <f>AA233+AD239</f>
+        <v>18</v>
       </c>
       <c r="AB234" t="s">
         <v>4</v>
@@ -7375,11 +7864,23 @@
       <c r="AI234" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="235" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="AK234" s="8">
+        <f>AD238</f>
+        <v>1</v>
+      </c>
+      <c r="AL234" s="8">
+        <f>AD239</f>
+        <v>13</v>
+      </c>
+      <c r="AM234" s="8">
+        <f>AD249</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="235" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W235">
         <f t="shared" ref="W235:W252" si="112">W234</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X235">
         <f>X234*0</f>
@@ -7387,11 +7888,11 @@
       </c>
       <c r="Y235">
         <f t="shared" si="110"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z235">
         <f t="shared" si="111"/>
-        <v>9901534</v>
+        <v>5</v>
       </c>
       <c r="AB235" t="s">
         <v>5</v>
@@ -7407,22 +7908,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="236" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W236">
         <f t="shared" si="112"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X236">
         <f>X235+Z235</f>
-        <v>9901534</v>
+        <v>5</v>
       </c>
       <c r="Y236">
         <f t="shared" si="110"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z236">
         <f t="shared" si="111"/>
-        <v>9901534</v>
+        <v>5</v>
       </c>
       <c r="AB236" t="s">
         <v>6</v>
@@ -7438,22 +7939,22 @@
         <v>6</v>
       </c>
     </row>
-    <row r="237" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="237" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W237">
         <f t="shared" si="112"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X237">
         <f>MOD(X236,26)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y237">
         <f t="shared" si="110"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z237">
         <f t="shared" si="111"/>
-        <v>9901534</v>
+        <v>5</v>
       </c>
       <c r="AB237" t="s">
         <v>7</v>
@@ -7469,22 +7970,22 @@
         <v>7</v>
       </c>
     </row>
-    <row r="238" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="238" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W238">
         <f t="shared" si="112"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X238">
         <f t="shared" ref="X238" si="113">X237</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y238">
         <f t="shared" si="110"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z238">
         <f>TRUNC(Z237/AD238,0)</f>
-        <v>9901534</v>
+        <v>5</v>
       </c>
       <c r="AB238" t="s">
         <v>8</v>
@@ -7503,22 +8004,22 @@
         <v>8</v>
       </c>
     </row>
-    <row r="239" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="239" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W239">
         <f t="shared" si="112"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X239">
         <f>X238+AD239</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y239">
         <f t="shared" si="110"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z239">
         <f t="shared" ref="Z239:Z245" si="114">Z238</f>
-        <v>9901534</v>
+        <v>5</v>
       </c>
       <c r="AB239" t="s">
         <v>38</v>
@@ -7533,10 +8034,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="240" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="240" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W240">
         <f t="shared" si="112"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X240">
         <f>IF(X239=W239,1,0)</f>
@@ -7544,11 +8045,11 @@
       </c>
       <c r="Y240">
         <f t="shared" si="110"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z240">
         <f t="shared" si="114"/>
-        <v>9901534</v>
+        <v>5</v>
       </c>
       <c r="AB240" t="s">
         <v>10</v>
@@ -7564,10 +8065,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="241" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="241" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W241">
         <f t="shared" si="112"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X241">
         <f>IF(X240=0,1,0)</f>
@@ -7575,11 +8076,11 @@
       </c>
       <c r="Y241">
         <f t="shared" si="110"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z241">
         <f t="shared" si="114"/>
-        <v>9901534</v>
+        <v>5</v>
       </c>
       <c r="AB241" t="s">
         <v>11</v>
@@ -7595,10 +8096,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="242" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="242" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W242">
         <f t="shared" si="112"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X242">
         <f t="shared" ref="X242:X253" si="116">X241</f>
@@ -7610,7 +8111,7 @@
       </c>
       <c r="Z242">
         <f t="shared" si="114"/>
-        <v>9901534</v>
+        <v>5</v>
       </c>
       <c r="AB242" t="s">
         <v>12</v>
@@ -7626,10 +8127,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="243" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="243" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W243">
         <f t="shared" si="112"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X243">
         <f t="shared" si="116"/>
@@ -7641,7 +8142,7 @@
       </c>
       <c r="Z243">
         <f t="shared" si="114"/>
-        <v>9901534</v>
+        <v>5</v>
       </c>
       <c r="AB243" t="s">
         <v>13</v>
@@ -7657,10 +8158,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="244" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="244" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W244">
         <f t="shared" si="112"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X244">
         <f t="shared" si="116"/>
@@ -7672,7 +8173,7 @@
       </c>
       <c r="Z244">
         <f t="shared" si="114"/>
-        <v>9901534</v>
+        <v>5</v>
       </c>
       <c r="AB244" t="s">
         <v>14</v>
@@ -7688,10 +8189,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="245" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="245" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W245">
         <f t="shared" si="112"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X245">
         <f t="shared" si="116"/>
@@ -7703,7 +8204,7 @@
       </c>
       <c r="Z245">
         <f t="shared" si="114"/>
-        <v>9901534</v>
+        <v>5</v>
       </c>
       <c r="AB245" t="s">
         <v>15</v>
@@ -7719,10 +8220,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="246" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="246" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W246">
         <f t="shared" si="112"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X246">
         <f t="shared" si="116"/>
@@ -7734,7 +8235,7 @@
       </c>
       <c r="Z246">
         <f>Z245*Y245</f>
-        <v>257439884</v>
+        <v>130</v>
       </c>
       <c r="AB246" t="s">
         <v>16</v>
@@ -7750,10 +8251,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="247" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="247" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W247">
         <f t="shared" si="112"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X247">
         <f t="shared" si="116"/>
@@ -7765,7 +8266,7 @@
       </c>
       <c r="Z247">
         <f t="shared" ref="Z247:Z250" si="118">Z246</f>
-        <v>257439884</v>
+        <v>130</v>
       </c>
       <c r="AB247" t="s">
         <v>12</v>
@@ -7781,10 +8282,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="248" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="248" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W248">
         <f t="shared" si="112"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X248">
         <f t="shared" si="116"/>
@@ -7792,11 +8293,11 @@
       </c>
       <c r="Y248">
         <f>Y247+W247</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z248">
         <f t="shared" si="118"/>
-        <v>257439884</v>
+        <v>130</v>
       </c>
       <c r="AB248" t="s">
         <v>17</v>
@@ -7812,10 +8313,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="249" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="249" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W249">
         <f t="shared" si="112"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X249">
         <f t="shared" si="116"/>
@@ -7823,11 +8324,11 @@
       </c>
       <c r="Y249">
         <f>Y248+AD249</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Z249">
         <f t="shared" si="118"/>
-        <v>257439884</v>
+        <v>130</v>
       </c>
       <c r="AB249" t="s">
         <v>31</v>
@@ -7842,10 +8343,10 @@
         <v>31</v>
       </c>
     </row>
-    <row r="250" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="250" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W250">
         <f t="shared" si="112"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X250">
         <f t="shared" si="116"/>
@@ -7853,11 +8354,11 @@
       </c>
       <c r="Y250">
         <f>Y249*X249</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Z250">
         <f t="shared" si="118"/>
-        <v>257439884</v>
+        <v>130</v>
       </c>
       <c r="AB250" t="s">
         <v>14</v>
@@ -7873,10 +8374,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="251" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="251" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W251">
         <f t="shared" si="112"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X251">
         <f t="shared" si="116"/>
@@ -7884,11 +8385,11 @@
       </c>
       <c r="Y251">
         <f t="shared" ref="Y251:Y260" si="120">Y250</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Z251">
         <f>Z250+Y250</f>
-        <v>257439896</v>
+        <v>144</v>
       </c>
       <c r="AB251" t="s">
         <v>19</v>
@@ -7904,10 +8405,10 @@
         <v>19</v>
       </c>
     </row>
-    <row r="252" spans="21:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="21:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="W252" s="3">
         <f t="shared" si="112"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X252" s="3">
         <f t="shared" si="116"/>
@@ -7915,20 +8416,40 @@
       </c>
       <c r="Y252" s="3">
         <f t="shared" si="120"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Z252" s="3">
         <f t="shared" ref="Z252:Z256" si="121">Z251</f>
-        <v>257439896</v>
-      </c>
-    </row>
-    <row r="253" spans="21:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+      <c r="AA252" s="5">
+        <f>MOD(Z252,26)</f>
+        <v>14</v>
+      </c>
+      <c r="AK252">
+        <f>U234</f>
+        <v>4</v>
+      </c>
+      <c r="AL252">
+        <f>IF(MOD(Z233, 26)+AL234 = U234,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="AM252">
+        <f>AL252*(U234+AM234)</f>
+        <v>14</v>
+      </c>
+      <c r="AN252">
+        <f>TRUNC(Z233/AK234,0)*(1+25*AL252)+AM252</f>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="253" spans="21:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="U253" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W253">
         <f>U253</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X253">
         <f t="shared" si="116"/>
@@ -7936,11 +8457,15 @@
       </c>
       <c r="Y253">
         <f t="shared" si="120"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Z253">
         <f t="shared" si="121"/>
-        <v>257439896</v>
+        <v>144</v>
+      </c>
+      <c r="AA253">
+        <f>AA252+AD258</f>
+        <v>3</v>
       </c>
       <c r="AB253" t="s">
         <v>4</v>
@@ -7955,11 +8480,23 @@
       <c r="AI253" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="254" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="AK253" s="8">
+        <f>AD257</f>
+        <v>26</v>
+      </c>
+      <c r="AL253" s="8">
+        <f>AD258</f>
+        <v>-11</v>
+      </c>
+      <c r="AM253" s="8">
+        <f>AD268</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="254" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W254">
         <f t="shared" ref="W254:W271" si="122">W253</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X254">
         <f>X253*0</f>
@@ -7967,11 +8504,11 @@
       </c>
       <c r="Y254">
         <f t="shared" si="120"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Z254">
         <f t="shared" si="121"/>
-        <v>257439896</v>
+        <v>144</v>
       </c>
       <c r="AB254" t="s">
         <v>5</v>
@@ -7987,22 +8524,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="255" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W255">
         <f t="shared" si="122"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X255">
         <f>X254+Z254</f>
-        <v>257439896</v>
+        <v>144</v>
       </c>
       <c r="Y255">
         <f t="shared" si="120"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Z255">
         <f t="shared" si="121"/>
-        <v>257439896</v>
+        <v>144</v>
       </c>
       <c r="AB255" t="s">
         <v>6</v>
@@ -8018,22 +8555,22 @@
         <v>6</v>
       </c>
     </row>
-    <row r="256" spans="21:35" x14ac:dyDescent="0.25">
+    <row r="256" spans="21:40" x14ac:dyDescent="0.25">
       <c r="W256">
         <f t="shared" si="122"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X256">
         <f>MOD(X255,26)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Y256">
         <f t="shared" si="120"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Z256">
         <f t="shared" si="121"/>
-        <v>257439896</v>
+        <v>144</v>
       </c>
       <c r="AB256" t="s">
         <v>7</v>
@@ -8049,27 +8586,27 @@
         <v>7</v>
       </c>
     </row>
-    <row r="257" spans="23:35" x14ac:dyDescent="0.25">
+    <row r="257" spans="23:40" x14ac:dyDescent="0.25">
       <c r="W257">
         <f t="shared" si="122"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X257">
         <f t="shared" ref="X257" si="123">X256</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Y257">
         <f t="shared" si="120"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Z257">
         <f>TRUNC(Z256/AD257,0)</f>
-        <v>9901534</v>
+        <v>5</v>
       </c>
       <c r="AB257" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AD257" s="4">
+      <c r="AD257" s="6">
         <v>26</v>
       </c>
       <c r="AE257">
@@ -8083,22 +8620,22 @@
         <v>27</v>
       </c>
     </row>
-    <row r="258" spans="23:35" x14ac:dyDescent="0.25">
+    <row r="258" spans="23:40" x14ac:dyDescent="0.25">
       <c r="W258">
         <f t="shared" si="122"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X258">
         <f>X257+AD258</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y258">
         <f t="shared" si="120"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Z258">
         <f t="shared" ref="Z258:Z264" si="124">Z257</f>
-        <v>9901534</v>
+        <v>5</v>
       </c>
       <c r="AB258" t="s">
         <v>28</v>
@@ -8113,22 +8650,22 @@
         <v>28</v>
       </c>
     </row>
-    <row r="259" spans="23:35" x14ac:dyDescent="0.25">
+    <row r="259" spans="23:40" x14ac:dyDescent="0.25">
       <c r="W259">
         <f t="shared" si="122"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X259">
         <f>IF(X258=W258,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y259">
         <f t="shared" si="120"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Z259">
         <f t="shared" si="124"/>
-        <v>9901534</v>
+        <v>5</v>
       </c>
       <c r="AB259" t="s">
         <v>10</v>
@@ -8144,22 +8681,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="260" spans="23:35" x14ac:dyDescent="0.25">
+    <row r="260" spans="23:40" x14ac:dyDescent="0.25">
       <c r="W260">
         <f t="shared" si="122"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X260">
         <f>IF(X259=0,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y260">
         <f t="shared" si="120"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Z260">
         <f t="shared" si="124"/>
-        <v>9901534</v>
+        <v>5</v>
       </c>
       <c r="AB260" t="s">
         <v>11</v>
@@ -8175,14 +8712,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="261" spans="23:35" x14ac:dyDescent="0.25">
+    <row r="261" spans="23:40" x14ac:dyDescent="0.25">
       <c r="W261">
         <f t="shared" si="122"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X261">
         <f t="shared" ref="X261:X271" si="126">X260</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y261">
         <f>Y260*0</f>
@@ -8190,7 +8727,7 @@
       </c>
       <c r="Z261">
         <f t="shared" si="124"/>
-        <v>9901534</v>
+        <v>5</v>
       </c>
       <c r="AB261" t="s">
         <v>12</v>
@@ -8206,14 +8743,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="262" spans="23:35" x14ac:dyDescent="0.25">
+    <row r="262" spans="23:40" x14ac:dyDescent="0.25">
       <c r="W262">
         <f t="shared" si="122"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X262">
         <f t="shared" si="126"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y262">
         <f>Y261+25</f>
@@ -8221,7 +8758,7 @@
       </c>
       <c r="Z262">
         <f t="shared" si="124"/>
-        <v>9901534</v>
+        <v>5</v>
       </c>
       <c r="AB262" t="s">
         <v>13</v>
@@ -8237,22 +8774,22 @@
         <v>13</v>
       </c>
     </row>
-    <row r="263" spans="23:35" x14ac:dyDescent="0.25">
+    <row r="263" spans="23:40" x14ac:dyDescent="0.25">
       <c r="W263">
         <f t="shared" si="122"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X263">
         <f t="shared" si="126"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y263">
         <f>Y262*X262</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Z263">
         <f t="shared" si="124"/>
-        <v>9901534</v>
+        <v>5</v>
       </c>
       <c r="AB263" t="s">
         <v>14</v>
@@ -8268,22 +8805,22 @@
         <v>14</v>
       </c>
     </row>
-    <row r="264" spans="23:35" x14ac:dyDescent="0.25">
+    <row r="264" spans="23:40" x14ac:dyDescent="0.25">
       <c r="W264">
         <f t="shared" si="122"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X264">
         <f t="shared" si="126"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y264">
         <f>Y263+1</f>
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="Z264">
         <f t="shared" si="124"/>
-        <v>9901534</v>
+        <v>5</v>
       </c>
       <c r="AB264" t="s">
         <v>15</v>
@@ -8299,22 +8836,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="265" spans="23:35" x14ac:dyDescent="0.25">
+    <row r="265" spans="23:40" x14ac:dyDescent="0.25">
       <c r="W265">
         <f t="shared" si="122"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X265">
         <f t="shared" si="126"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y265">
         <f t="shared" ref="Y265" si="127">Y264</f>
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="Z265">
         <f>Z264*Y264</f>
-        <v>257439884</v>
+        <v>5</v>
       </c>
       <c r="AB265" t="s">
         <v>16</v>
@@ -8330,14 +8867,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="266" spans="23:35" x14ac:dyDescent="0.25">
+    <row r="266" spans="23:40" x14ac:dyDescent="0.25">
       <c r="W266">
         <f t="shared" si="122"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X266">
         <f t="shared" si="126"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y266">
         <f>Y265*0</f>
@@ -8345,7 +8882,7 @@
       </c>
       <c r="Z266">
         <f t="shared" ref="Z266:Z269" si="128">Z265</f>
-        <v>257439884</v>
+        <v>5</v>
       </c>
       <c r="AB266" t="s">
         <v>12</v>
@@ -8361,22 +8898,22 @@
         <v>12</v>
       </c>
     </row>
-    <row r="267" spans="23:35" x14ac:dyDescent="0.25">
+    <row r="267" spans="23:40" x14ac:dyDescent="0.25">
       <c r="W267">
         <f t="shared" si="122"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X267">
         <f t="shared" si="126"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y267">
         <f>Y266+W266</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z267">
         <f t="shared" si="128"/>
-        <v>257439884</v>
+        <v>5</v>
       </c>
       <c r="AB267" t="s">
         <v>17</v>
@@ -8392,22 +8929,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="268" spans="23:35" x14ac:dyDescent="0.25">
+    <row r="268" spans="23:40" x14ac:dyDescent="0.25">
       <c r="W268">
         <f t="shared" si="122"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X268">
         <f t="shared" si="126"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y268">
         <f>Y267+AD268</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z268">
         <f t="shared" si="128"/>
-        <v>257439884</v>
+        <v>5</v>
       </c>
       <c r="AB268" t="s">
         <v>39</v>
@@ -8422,22 +8959,22 @@
         <v>39</v>
       </c>
     </row>
-    <row r="269" spans="23:35" x14ac:dyDescent="0.25">
+    <row r="269" spans="23:40" x14ac:dyDescent="0.25">
       <c r="W269">
         <f t="shared" si="122"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X269">
         <f t="shared" si="126"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y269">
         <f>Y268*X268</f>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Z269">
         <f t="shared" si="128"/>
-        <v>257439884</v>
+        <v>5</v>
       </c>
       <c r="AB269" t="s">
         <v>14</v>
@@ -8453,22 +8990,22 @@
         <v>14</v>
       </c>
     </row>
-    <row r="270" spans="23:35" x14ac:dyDescent="0.25">
+    <row r="270" spans="23:40" x14ac:dyDescent="0.25">
       <c r="W270">
         <f t="shared" si="122"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X270">
         <f t="shared" si="126"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y270">
         <f t="shared" ref="Y270:Y271" si="130">Y269</f>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Z270">
         <f>Z269+Y269</f>
-        <v>257439895</v>
+        <v>5</v>
       </c>
       <c r="AB270" t="s">
         <v>19</v>
@@ -8484,22 +9021,667 @@
         <v>19</v>
       </c>
     </row>
-    <row r="271" spans="23:35" x14ac:dyDescent="0.25">
+    <row r="271" spans="23:40" x14ac:dyDescent="0.25">
       <c r="W271" s="3">
         <f t="shared" si="122"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X271" s="3">
         <f t="shared" si="126"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y271" s="3">
         <f t="shared" si="130"/>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Z271" s="3">
         <f t="shared" ref="Z271" si="131">Z270</f>
-        <v>257439895</v>
+        <v>5</v>
+      </c>
+      <c r="AA271" s="5">
+        <f>MOD(Z271,26)</f>
+        <v>5</v>
+      </c>
+      <c r="AK271">
+        <f>U253</f>
+        <v>3</v>
+      </c>
+      <c r="AL271">
+        <f>IF(MOD(Z252, 26)+AL253 = U253,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AM271">
+        <f>AL271*(U253+AM253)</f>
+        <v>0</v>
+      </c>
+      <c r="AN271">
+        <f>TRUNC(Z252/AK253,0)*(1+25*AL271)+AM271</f>
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86DF5B12-8E40-4BAE-838A-0B424CE56484}">
+  <dimension ref="B4:AC33"/>
+  <sheetViews>
+    <sheetView topLeftCell="K1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="U33" sqref="U33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.140625" customWidth="1"/>
+    <col min="2" max="2" width="1.140625" style="1" customWidth="1"/>
+    <col min="3" max="19" width="1.140625" customWidth="1"/>
+    <col min="20" max="20" width="1" customWidth="1"/>
+    <col min="21" max="21" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5" customWidth="1"/>
+    <col min="24" max="24" width="5.5703125" customWidth="1"/>
+    <col min="25" max="25" width="5.85546875" customWidth="1"/>
+    <col min="26" max="26" width="9" customWidth="1"/>
+    <col min="27" max="27" width="2.5703125" customWidth="1"/>
+    <col min="28" max="28" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="U4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="4:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U5" s="1"/>
+      <c r="W5" s="7">
+        <v>0</v>
+      </c>
+      <c r="X5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="4:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U6" s="2">
+        <v>9</v>
+      </c>
+      <c r="W6" s="8">
+        <v>1</v>
+      </c>
+      <c r="X6" s="8">
+        <v>14</v>
+      </c>
+      <c r="Y6" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="4:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W7">
+        <f>U6</f>
+        <v>9</v>
+      </c>
+      <c r="X7">
+        <f>IF(MOD(Z5, 26)+X6 = U6,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <f>X7*(U6+Y6)</f>
+        <v>21</v>
+      </c>
+      <c r="Z7">
+        <f>TRUNC(Z5/W6,0)*(1+25*X7)+Y7</f>
+        <v>21</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" ref="AB7" si="0">MOD(Z7,26)</f>
+        <v>21</v>
+      </c>
+      <c r="AC7">
+        <f>AB7+X8</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="4:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U8" s="2">
+        <v>9</v>
+      </c>
+      <c r="W8" s="8">
+        <v>1</v>
+      </c>
+      <c r="X8" s="8">
+        <v>11</v>
+      </c>
+      <c r="Y8" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="4:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W9">
+        <f>U8</f>
+        <v>9</v>
+      </c>
+      <c r="X9">
+        <f>IF(MOD(Z7, 26)+X8 = U8,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <f>X9*(U8+Y8)</f>
+        <v>17</v>
+      </c>
+      <c r="Z9">
+        <f>TRUNC(Z7/W8,0)*(1+25*X9)+Y9</f>
+        <v>563</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" ref="AB9:AB33" si="1">MOD(Z9,26)</f>
+        <v>17</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" ref="AC9" si="2">AB9+X10</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="4:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U10" s="2">
+        <v>2</v>
+      </c>
+      <c r="W10" s="8">
+        <v>1</v>
+      </c>
+      <c r="X10" s="8">
+        <v>11</v>
+      </c>
+      <c r="Y10" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="4:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W11">
+        <f>U10</f>
+        <v>2</v>
+      </c>
+      <c r="X11">
+        <f>IF(MOD(Z9, 26)+X10 = U10,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <f>X11*(U10+Y10)</f>
+        <v>9</v>
+      </c>
+      <c r="Z11">
+        <f>TRUNC(Z9/W10,0)*(1+25*X11)+Y11</f>
+        <v>14647</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" ref="AB11:AB33" si="3">MOD(Z11,26)</f>
+        <v>9</v>
+      </c>
+      <c r="AC11">
+        <f t="shared" ref="AC11" si="4">AB11+X12</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="4:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U12" s="2">
+        <v>8</v>
+      </c>
+      <c r="W12" s="8">
+        <v>1</v>
+      </c>
+      <c r="X12" s="8">
+        <v>14</v>
+      </c>
+      <c r="Y12" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="4:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W13">
+        <f>U12</f>
+        <v>8</v>
+      </c>
+      <c r="X13">
+        <f>IF(MOD(Z11, 26)+X12 = U12,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="Y13">
+        <f>X13*(U12+Y12)</f>
+        <v>12</v>
+      </c>
+      <c r="Z13">
+        <f>TRUNC(Z11/W12,0)*(1+25*X13)+Y13</f>
+        <v>380834</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" ref="AB13:AB33" si="5">MOD(Z13,26)</f>
+        <v>12</v>
+      </c>
+      <c r="AC13">
+        <f t="shared" ref="AC13" si="6">AB13+X14</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="4:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U14" s="2">
+        <v>1</v>
+      </c>
+      <c r="W14" s="8">
+        <v>26</v>
+      </c>
+      <c r="X14" s="8">
+        <v>-11</v>
+      </c>
+      <c r="Y14" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="4:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W15">
+        <f>U14</f>
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <f>IF(MOD(Z13, 26)+X14 = U14,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <f>X15*(U14+Y14)</f>
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <f>TRUNC(Z13/W14,0)*(1+25*X15)+Y15</f>
+        <v>14647</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" ref="AB15:AB33" si="7">MOD(Z15,26)</f>
+        <v>9</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" ref="AC15" si="8">AB15+X16</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="4:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U16" s="2">
+        <v>9</v>
+      </c>
+      <c r="W16" s="8">
+        <v>1</v>
+      </c>
+      <c r="X16" s="8">
+        <v>12</v>
+      </c>
+      <c r="Y16" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="21:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W17">
+        <f>U16</f>
+        <v>9</v>
+      </c>
+      <c r="X17">
+        <f>IF(MOD(Z15, 26)+X16 = U16,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="Y17">
+        <f>X17*(U16+Y16)</f>
+        <v>10</v>
+      </c>
+      <c r="Z17">
+        <f>TRUNC(Z15/W16,0)*(1+25*X17)+Y17</f>
+        <v>380832</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" ref="AB17:AB33" si="9">MOD(Z17,26)</f>
+        <v>10</v>
+      </c>
+      <c r="AC17">
+        <f t="shared" ref="AC17" si="10">AB17+X18</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="21:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U18" s="2">
+        <v>9</v>
+      </c>
+      <c r="W18" s="8">
+        <v>26</v>
+      </c>
+      <c r="X18" s="8">
+        <v>-1</v>
+      </c>
+      <c r="Y18" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="21:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W19">
+        <f>U18</f>
+        <v>9</v>
+      </c>
+      <c r="X19">
+        <f>IF(MOD(Z17, 26)+X18 = U18,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <f>X19*(U18+Y18)</f>
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <f>TRUNC(Z17/W18,0)*(1+25*X19)+Y19</f>
+        <v>14647</v>
+      </c>
+      <c r="AB19">
+        <f t="shared" ref="AB19:AB33" si="11">MOD(Z19,26)</f>
+        <v>9</v>
+      </c>
+      <c r="AC19">
+        <f t="shared" ref="AC19" si="12">AB19+X20</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="21:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U20" s="2">
+        <v>4</v>
+      </c>
+      <c r="W20" s="8">
+        <v>1</v>
+      </c>
+      <c r="X20" s="8">
+        <v>10</v>
+      </c>
+      <c r="Y20" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="21:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W21">
+        <f>U20</f>
+        <v>4</v>
+      </c>
+      <c r="X21">
+        <f>IF(MOD(Z19, 26)+X20 = U20,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="Y21">
+        <f>X21*(U20+Y20)</f>
+        <v>12</v>
+      </c>
+      <c r="Z21">
+        <f>TRUNC(Z19/W20,0)*(1+25*X21)+Y21</f>
+        <v>380834</v>
+      </c>
+      <c r="AB21">
+        <f t="shared" ref="AB21:AB33" si="13">MOD(Z21,26)</f>
+        <v>12</v>
+      </c>
+      <c r="AC21">
+        <f t="shared" ref="AC21" si="14">AB21+X22</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="21:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U22" s="2">
+        <v>9</v>
+      </c>
+      <c r="W22" s="8">
+        <v>26</v>
+      </c>
+      <c r="X22" s="8">
+        <v>-3</v>
+      </c>
+      <c r="Y22" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="21:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W23">
+        <f>U22</f>
+        <v>9</v>
+      </c>
+      <c r="X23">
+        <f>IF(MOD(Z21, 26)+X22 = U22,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <f>X23*(U22+Y22)</f>
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <f>TRUNC(Z21/W22,0)*(1+25*X23)+Y23</f>
+        <v>14647</v>
+      </c>
+      <c r="AB23">
+        <f t="shared" ref="AB23:AB33" si="15">MOD(Z23,26)</f>
+        <v>9</v>
+      </c>
+      <c r="AC23">
+        <f t="shared" ref="AC23" si="16">AB23+X24</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="21:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U24" s="2">
+        <v>5</v>
+      </c>
+      <c r="W24" s="8">
+        <v>26</v>
+      </c>
+      <c r="X24" s="8">
+        <v>-4</v>
+      </c>
+      <c r="Y24" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="21:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W25">
+        <f>U24</f>
+        <v>5</v>
+      </c>
+      <c r="X25">
+        <f>IF(MOD(Z23, 26)+X24 = U24,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <f>X25*(U24+Y24)</f>
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <f>TRUNC(Z23/W24,0)*(1+25*X25)+Y25</f>
+        <v>563</v>
+      </c>
+      <c r="AB25">
+        <f t="shared" ref="AB25:AB33" si="17">MOD(Z25,26)</f>
+        <v>17</v>
+      </c>
+      <c r="AC25">
+        <f t="shared" ref="AC25" si="18">AB25+X26</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="21:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U26" s="2">
+        <v>4</v>
+      </c>
+      <c r="W26" s="8">
+        <v>26</v>
+      </c>
+      <c r="X26" s="8">
+        <v>-13</v>
+      </c>
+      <c r="Y26" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="21:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W27">
+        <f>U26</f>
+        <v>4</v>
+      </c>
+      <c r="X27">
+        <f>IF(MOD(Z25, 26)+X26 = U26,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <f>X27*(U26+Y26)</f>
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <f>TRUNC(Z25/W26,0)*(1+25*X27)+Y27</f>
+        <v>21</v>
+      </c>
+      <c r="AB27">
+        <f t="shared" ref="AB27:AB33" si="19">MOD(Z27,26)</f>
+        <v>21</v>
+      </c>
+      <c r="AC27">
+        <f t="shared" ref="AC27" si="20">AB27+X28</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="21:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U28" s="2">
+        <v>1</v>
+      </c>
+      <c r="W28" s="8">
+        <v>26</v>
+      </c>
+      <c r="X28" s="8">
+        <v>-8</v>
+      </c>
+      <c r="Y28" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="21:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W29">
+        <f>U28</f>
+        <v>1</v>
+      </c>
+      <c r="X29">
+        <f>IF(MOD(Z27, 26)+X28 = U28,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="Y29">
+        <f>X29*(U28+Y28)</f>
+        <v>5</v>
+      </c>
+      <c r="Z29">
+        <f>TRUNC(Z27/W28,0)*(1+25*X29)+Y29</f>
+        <v>5</v>
+      </c>
+      <c r="AB29">
+        <f t="shared" ref="AB29:AB33" si="21">MOD(Z29,26)</f>
+        <v>5</v>
+      </c>
+      <c r="AC29">
+        <f t="shared" ref="AC29" si="22">AB29+X30</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="21:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U30" s="2">
+        <v>4</v>
+      </c>
+      <c r="W30" s="8">
+        <v>1</v>
+      </c>
+      <c r="X30" s="8">
+        <v>13</v>
+      </c>
+      <c r="Y30" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="21:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W31">
+        <f>U30</f>
+        <v>4</v>
+      </c>
+      <c r="X31">
+        <f>IF(MOD(Z29, 26)+X30 = U30,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="Y31">
+        <f>X31*(U30+Y30)</f>
+        <v>14</v>
+      </c>
+      <c r="Z31">
+        <f>TRUNC(Z29/W30,0)*(1+25*X31)+Y31</f>
+        <v>144</v>
+      </c>
+      <c r="AB31">
+        <f t="shared" ref="AB31:AB33" si="23">MOD(Z31,26)</f>
+        <v>14</v>
+      </c>
+      <c r="AC31">
+        <f t="shared" ref="AC31" si="24">AB31+X32</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="21:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U32" s="2">
+        <v>3</v>
+      </c>
+      <c r="W32" s="8">
+        <v>26</v>
+      </c>
+      <c r="X32" s="8">
+        <v>-11</v>
+      </c>
+      <c r="Y32" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W33">
+        <f>U32</f>
+        <v>3</v>
+      </c>
+      <c r="X33">
+        <f>IF(MOD(Z31, 26)+X32 = U32,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <f>X33*(U32+Y32)</f>
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <f>TRUNC(Z31/W32,0)*(1+25*X33)+Y33</f>
+        <v>5</v>
+      </c>
+      <c r="AB33">
+        <f t="shared" ref="AB33" si="25">MOD(Z33,26)</f>
+        <v>5</v>
+      </c>
+      <c r="AC33">
+        <f t="shared" ref="AC33" si="26">AB33+X34</f>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/2021day24/alu2021day24.xlsx
+++ b/2021day24/alu2021day24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\feri\git\AdventOfCode\2021day24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE74D47-3702-46D5-9E93-B1D95805D82B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE3058A-04C2-47D4-9E83-8BA64BCDD095}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{56EE513B-A1A9-4F6D-A498-8BB4479BB114}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" activeTab="5" xr2:uid="{56EE513B-A1A9-4F6D-A498-8BB4479BB114}"/>
   </bookViews>
   <sheets>
     <sheet name="DETAIL" sheetId="6" r:id="rId1"/>
@@ -573,7 +573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DABA716-66A0-4DAE-9A91-B7598115FF93}">
   <dimension ref="B4:AN271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="K1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="AB16" sqref="AB16"/>
     </sheetView>
   </sheetViews>
@@ -18818,7 +18818,7 @@
   <dimension ref="B4:AC33"/>
   <sheetViews>
     <sheetView topLeftCell="K1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="U29" sqref="U29"/>
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19439,8 +19439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63BEA642-2BDE-441A-8980-D41D311B1E61}">
   <dimension ref="B4:AC33"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="U20" sqref="U20"/>
+    <sheetView tabSelected="1" topLeftCell="K10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="V33" sqref="V33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19577,7 +19577,7 @@
     </row>
     <row r="10" spans="4:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="U10" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="W10" s="8">
         <v>1</v>
@@ -19592,7 +19592,7 @@
     <row r="11" spans="4:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="W11">
         <f>U10</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="X11">
         <f>IF(MOD(Z9, 26)+X10 = U10,0,1)</f>
@@ -19600,24 +19600,24 @@
       </c>
       <c r="Y11">
         <f>X11*(U10+Y10)</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="Z11">
         <f>TRUNC(Z9/W10,0)*(1+25*X11)+Y11</f>
-        <v>9836</v>
+        <v>9841</v>
       </c>
       <c r="AB11">
         <f t="shared" ref="AB11:AB33" si="3">MOD(Z11,26)</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AC11" s="9">
         <f t="shared" ref="AC11" si="4">AB11+X12</f>
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="4:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="U12" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W12" s="8">
         <v>1</v>
@@ -19632,7 +19632,7 @@
     <row r="13" spans="4:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="W13">
         <f>U12</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X13">
         <f>IF(MOD(Z11, 26)+X12 = U12,0,1)</f>
@@ -19640,24 +19640,24 @@
       </c>
       <c r="Y13">
         <f>X13*(U12+Y12)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z13">
         <f>TRUNC(Z11/W12,0)*(1+25*X13)+Y13</f>
-        <v>255748</v>
+        <v>255879</v>
       </c>
       <c r="AB13">
         <f t="shared" ref="AB13:AB33" si="5">MOD(Z13,26)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC13" s="9">
         <f t="shared" ref="AC13" si="6">AB13+X14</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="4:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="U14" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W14" s="8">
         <v>26</v>
@@ -19672,7 +19672,7 @@
     <row r="15" spans="4:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="W15">
         <f>U14</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X15">
         <f>IF(MOD(Z13, 26)+X14 = U14,0,1)</f>
@@ -19684,20 +19684,20 @@
       </c>
       <c r="Z15">
         <f>TRUNC(Z13/W14,0)*(1+25*X15)+Y15</f>
-        <v>9836</v>
+        <v>9841</v>
       </c>
       <c r="AB15">
         <f t="shared" ref="AB15:AB33" si="7">MOD(Z15,26)</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AC15" s="9">
         <f t="shared" ref="AC15" si="8">AB15+X16</f>
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="4:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="U16" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="W16" s="8">
         <v>1</v>
@@ -19712,7 +19712,7 @@
     <row r="17" spans="21:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="W17">
         <f>U16</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="X17">
         <f>IF(MOD(Z15, 26)+X16 = U16,0,1)</f>
@@ -19720,24 +19720,24 @@
       </c>
       <c r="Y17">
         <f>X17*(U16+Y16)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="Z17">
         <f>TRUNC(Z15/W16,0)*(1+25*X17)+Y17</f>
-        <v>255738</v>
+        <v>255876</v>
       </c>
       <c r="AB17">
         <f t="shared" ref="AB17:AB33" si="9">MOD(Z17,26)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AC17" s="9">
         <f t="shared" ref="AC17" si="10">AB17+X18</f>
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="21:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="U18" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="W18" s="8">
         <v>26</v>
@@ -19752,7 +19752,7 @@
     <row r="19" spans="21:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="W19">
         <f>U18</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="X19">
         <f>IF(MOD(Z17, 26)+X18 = U18,0,1)</f>
@@ -19764,20 +19764,20 @@
       </c>
       <c r="Z19">
         <f>TRUNC(Z17/W18,0)*(1+25*X19)+Y19</f>
-        <v>9836</v>
+        <v>9841</v>
       </c>
       <c r="AB19">
         <f t="shared" ref="AB19:AB33" si="11">MOD(Z19,26)</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AC19" s="9">
         <f t="shared" ref="AC19" si="12">AB19+X20</f>
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="21:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="U20" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W20" s="8">
         <v>1</v>
@@ -19792,7 +19792,7 @@
     <row r="21" spans="21:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="W21">
         <f>U20</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X21">
         <f>IF(MOD(Z19, 26)+X20 = U20,0,1)</f>
@@ -19800,24 +19800,24 @@
       </c>
       <c r="Y21">
         <f>X21*(U20+Y20)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Z21">
         <f>TRUNC(Z19/W20,0)*(1+25*X21)+Y21</f>
-        <v>255745</v>
+        <v>255878</v>
       </c>
       <c r="AB21">
         <f t="shared" ref="AB21:AB33" si="13">MOD(Z21,26)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AC21" s="9">
         <f t="shared" ref="AC21" si="14">AB21+X22</f>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="21:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="U22" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="W22" s="8">
         <v>26</v>
@@ -19832,7 +19832,7 @@
     <row r="23" spans="21:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="W23">
         <f>U22</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="X23">
         <f>IF(MOD(Z21, 26)+X22 = U22,0,1)</f>
@@ -19844,20 +19844,20 @@
       </c>
       <c r="Z23">
         <f>TRUNC(Z21/W22,0)*(1+25*X23)+Y23</f>
-        <v>9836</v>
+        <v>9841</v>
       </c>
       <c r="AB23">
         <f t="shared" ref="AB23:AB33" si="15">MOD(Z23,26)</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AC23" s="9">
         <f t="shared" ref="AC23" si="16">AB23+X24</f>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="21:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="U24" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="W24" s="8">
         <v>26</v>
@@ -19872,7 +19872,7 @@
     <row r="25" spans="21:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="W25">
         <f>U24</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="X25">
         <f>IF(MOD(Z23, 26)+X24 = U24,0,1)</f>
@@ -19977,7 +19977,7 @@
     </row>
     <row r="30" spans="21:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="U30" s="2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="W30" s="8">
         <v>1</v>
@@ -19992,7 +19992,7 @@
     <row r="31" spans="21:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="W31">
         <f>U30</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="X31">
         <f>IF(MOD(Z29, 26)+X30 = U30,0,1)</f>
@@ -20000,24 +20000,24 @@
       </c>
       <c r="Y31">
         <f>X31*(U30+Y30)</f>
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="Z31">
         <f>TRUNC(Z29/W30,0)*(1+25*X31)+Y31</f>
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AB31">
         <f t="shared" ref="AB31:AB33" si="23">MOD(Z31,26)</f>
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AC31" s="9">
         <f t="shared" ref="AC31" si="24">AB31+X32</f>
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="21:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="U32" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="W32" s="8">
         <v>26</v>
@@ -20032,7 +20032,7 @@
     <row r="33" spans="23:29" x14ac:dyDescent="0.25">
       <c r="W33">
         <f>U32</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="X33">
         <f>IF(MOD(Z31, 26)+X32 = U32,0,1)</f>
